--- a/utility/optbs/template/belanja_persediaan_2.xlsx
+++ b/utility/optbs/template/belanja_persediaan_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>SKPD</t>
   </si>
@@ -52,6 +52,9 @@
     <t>NO</t>
   </si>
   <si>
+    <t>NOMOR DOKUMEN</t>
+  </si>
+  <si>
     <t>REK. BELANJA</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>[a.no;ope=tbs:num;block=row;] </t>
   </si>
   <si>
+    <t>[a.no_dok]</t>
+  </si>
+  <si>
     <t>[a.kode_rekening]</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>[a.nm_perk]</t>
+  </si>
+  <si>
+    <t>[c.total_persediaan; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[c.total_non_persediaan; ope=tbs:num]</t>
   </si>
   <si>
     <t>Kota Pekalongan, [b.tanggal_cetak]</t>
@@ -244,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,10 +299,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -430,24 +438,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1020" min="1019" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1022" min="1021" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1021" min="1020" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1023" min="1022" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -455,14 +463,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="0"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
@@ -1473,20 +1481,21 @@
       <c r="AMB1" s="0"/>
       <c r="AMC1" s="0"/>
       <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="0"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
@@ -2497,20 +2506,21 @@
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
       <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="0"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -3521,17 +3531,18 @@
       <c r="AMB3" s="0"/>
       <c r="AMC3" s="0"/>
       <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="0"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
@@ -4541,6 +4552,7 @@
       <c r="AMB4" s="0"/>
       <c r="AMC4" s="0"/>
       <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -4553,7 +4565,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="0"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
@@ -5563,6 +5575,7 @@
       <c r="AMB5" s="0"/>
       <c r="AMC5" s="0"/>
       <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -5575,7 +5588,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="0"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
@@ -6585,6 +6598,7 @@
       <c r="AMB6" s="0"/>
       <c r="AMC6" s="0"/>
       <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -6597,7 +6611,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="0"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -7607,6 +7621,7 @@
       <c r="AMB7" s="0"/>
       <c r="AMC7" s="0"/>
       <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
@@ -8627,6 +8642,7 @@
       <c r="AMB8" s="0"/>
       <c r="AMC8" s="0"/>
       <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
@@ -9647,6 +9663,7 @@
       <c r="AMB9" s="0"/>
       <c r="AMC9" s="0"/>
       <c r="AMD9" s="0"/>
+      <c r="AME9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="30.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
@@ -9673,7 +9690,9 @@
       <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="0"/>
+      <c r="I10" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
@@ -10683,6 +10702,7 @@
       <c r="AMB10" s="0"/>
       <c r="AMC10" s="0"/>
       <c r="AMD10" s="0"/>
+      <c r="AME10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
@@ -10709,7 +10729,9 @@
       <c r="H11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="0"/>
+      <c r="I11" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
@@ -11719,36 +11741,39 @@
       <c r="AMB11" s="0"/>
       <c r="AMC11" s="0"/>
       <c r="AMD11" s="0"/>
+      <c r="AME11" s="0"/>
     </row>
-    <row r="12" s="14" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="13" customFormat="true" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="13" t="e">
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="12" t="e">
         <f aca="false">VALUE([a.total_harga])</f>
-        <v>#N/A</v>
+        <v>#NAME?</v>
       </c>
-      <c r="G12" s="13" t="e">
+      <c r="H12" s="12" t="e">
         <f aca="false">VALUE([a.nilai_kontrak])</f>
-        <v>#N/A</v>
+        <v>#NAME?</v>
       </c>
-      <c r="H12" s="13" t="e">
+      <c r="I12" s="12" t="e">
         <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "G" &amp; ROW() )</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
-      <c r="AME12" s="0"/>
       <c r="AMF12" s="0"/>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
@@ -11756,17 +11781,24 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="0"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="15" t="e">
+        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
@@ -12776,15 +12808,16 @@
       <c r="AMB13" s="0"/>
       <c r="AMC13" s="0"/>
       <c r="AMD13" s="0"/>
+      <c r="AME13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="0"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -13796,22 +13829,23 @@
       <c r="AMB14" s="0"/>
       <c r="AMC14" s="0"/>
       <c r="AMD14" s="0"/>
+      <c r="AME14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="2" t="s">
-        <v>22</v>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
       </c>
-      <c r="H15" s="0"/>
       <c r="I15" s="0"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
@@ -14818,10 +14852,11 @@
       <c r="AMB15" s="0"/>
       <c r="AMC15" s="0"/>
       <c r="AMD15" s="0"/>
+      <c r="AME15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -14829,8 +14864,8 @@
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
@@ -15840,22 +15875,23 @@
       <c r="AMB16" s="0"/>
       <c r="AMC16" s="0"/>
       <c r="AMD16" s="0"/>
+      <c r="AME16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="0"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="19" t="s">
-        <v>25</v>
+      <c r="E17" s="0"/>
+      <c r="F17" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>26</v>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
       </c>
-      <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
@@ -16866,18 +16902,19 @@
       <c r="AMB17" s="0"/>
       <c r="AMC17" s="0"/>
       <c r="AMD17" s="0"/>
+      <c r="AME17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="0"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="0"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="0"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
@@ -17888,16 +17925,17 @@
       <c r="AMB18" s="0"/>
       <c r="AMC18" s="0"/>
       <c r="AMD18" s="0"/>
+      <c r="AME18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
-      <c r="B19" s="0"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
@@ -18908,16 +18946,17 @@
       <c r="AMB19" s="0"/>
       <c r="AMC19" s="0"/>
       <c r="AMD19" s="0"/>
+      <c r="AME19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
-      <c r="B20" s="0"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
@@ -19928,16 +19967,17 @@
       <c r="AMB20" s="0"/>
       <c r="AMC20" s="0"/>
       <c r="AMD20" s="0"/>
+      <c r="AME20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="B21" s="0"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -20948,16 +20988,17 @@
       <c r="AMB21" s="0"/>
       <c r="AMC21" s="0"/>
       <c r="AMD21" s="0"/>
+      <c r="AME21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
-      <c r="B22" s="0"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -21968,64 +22009,64 @@
       <c r="AMB22" s="0"/>
       <c r="AMC22" s="0"/>
       <c r="AMD22" s="0"/>
+      <c r="AME22" s="0"/>
     </row>
-    <row r="23" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>28</v>
+    <row r="23" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>32</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="19" t="s">
-        <v>29</v>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="18" t="s">
+        <v>33</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21" t="s">
-        <v>30</v>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>34</v>
       </c>
-      <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
-      <c r="K23" s="23"/>
-      <c r="AME23" s="23"/>
-      <c r="AMF23" s="23"/>
-      <c r="AMG23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="22"/>
+      <c r="AMF23" s="22"/>
+      <c r="AMG23" s="22"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="19" t="s">
-        <v>32</v>
+      <c r="B24" s="3"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>33</v>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>37</v>
       </c>
-      <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
-      <c r="K24" s="26"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="25"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.379861111111111" right="0.379861111111111" top="0.645138888888889" bottom="0.645138888888889" header="0.379861111111111" footer="0.379861111111111"/>

--- a/utility/optbs/template/belanja_persediaan_2.xlsx
+++ b/utility/optbs/template/belanja_persediaan_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>SKPD</t>
   </si>
@@ -76,6 +76,15 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t> [a.subTot_persediaan; ope=tbs:num;  block=row; when [a.cetak_subtotal]=1]</t>
+  </si>
+  <si>
+    <t> [a.subTot_nonPersediaan; ope=tbs:num; ]</t>
+  </si>
+  <si>
     <t>[a.no;ope=tbs:num;block=row;] </t>
   </si>
   <si>
@@ -92,6 +101,15 @@
   </si>
   <si>
     <t>[a.nm_perk]</t>
+  </si>
+  <si>
+    <t>[a.total_harga; ope=tbs:num;]</t>
+  </si>
+  <si>
+    <t>[a.nilai_kontrak; ope=tbs:num;]</t>
+  </si>
+  <si>
+    <t> [a.subTot_persediaan; ope=tbs:num;  block=row; when [a.cetak_subtotal]=2]</t>
   </si>
   <si>
     <t>[c.total_persediaan; ope=tbs:num]</t>
@@ -144,7 +162,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -200,6 +218,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -215,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -225,6 +250,27 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -256,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,6 +339,34 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -313,11 +387,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,24 +520,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:24"/>
+  <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1021" min="1020" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="1023" min="1022" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1021" min="1020" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="1022" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11743,1083 +11825,1090 @@
       <c r="AMD11" s="0"/>
       <c r="AME11" s="0"/>
     </row>
-    <row r="12" s="13" customFormat="true" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="H12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="12" t="e">
-        <f aca="false">VALUE([a.total_harga])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="12" t="e">
-        <f aca="false">VALUE([a.nilai_kontrak])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="12" t="e">
-        <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "G" &amp; ROW() )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AMF12" s="0"/>
-      <c r="AMG12" s="0"/>
-      <c r="AMH12" s="0"/>
-      <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="15" t="e">
+      <c r="I12" s="15" t="e">
         <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="0"/>
-      <c r="AC13" s="0"/>
-      <c r="AD13" s="0"/>
-      <c r="AE13" s="0"/>
-      <c r="AF13" s="0"/>
-      <c r="AG13" s="0"/>
-      <c r="AH13" s="0"/>
-      <c r="AI13" s="0"/>
-      <c r="AJ13" s="0"/>
-      <c r="AK13" s="0"/>
-      <c r="AL13" s="0"/>
-      <c r="AM13" s="0"/>
-      <c r="AN13" s="0"/>
-      <c r="AO13" s="0"/>
-      <c r="AP13" s="0"/>
-      <c r="AQ13" s="0"/>
-      <c r="AR13" s="0"/>
-      <c r="AS13" s="0"/>
-      <c r="AT13" s="0"/>
-      <c r="AU13" s="0"/>
-      <c r="AV13" s="0"/>
-      <c r="AW13" s="0"/>
-      <c r="AX13" s="0"/>
-      <c r="AY13" s="0"/>
-      <c r="AZ13" s="0"/>
-      <c r="BA13" s="0"/>
-      <c r="BB13" s="0"/>
-      <c r="BC13" s="0"/>
-      <c r="BD13" s="0"/>
-      <c r="BE13" s="0"/>
-      <c r="BF13" s="0"/>
-      <c r="BG13" s="0"/>
-      <c r="BH13" s="0"/>
-      <c r="BI13" s="0"/>
-      <c r="BJ13" s="0"/>
-      <c r="BK13" s="0"/>
-      <c r="BL13" s="0"/>
-      <c r="BM13" s="0"/>
-      <c r="BN13" s="0"/>
-      <c r="BO13" s="0"/>
-      <c r="BP13" s="0"/>
-      <c r="BQ13" s="0"/>
-      <c r="BR13" s="0"/>
-      <c r="BS13" s="0"/>
-      <c r="BT13" s="0"/>
-      <c r="BU13" s="0"/>
-      <c r="BV13" s="0"/>
-      <c r="BW13" s="0"/>
-      <c r="BX13" s="0"/>
-      <c r="BY13" s="0"/>
-      <c r="BZ13" s="0"/>
-      <c r="CA13" s="0"/>
-      <c r="CB13" s="0"/>
-      <c r="CC13" s="0"/>
-      <c r="CD13" s="0"/>
-      <c r="CE13" s="0"/>
-      <c r="CF13" s="0"/>
-      <c r="CG13" s="0"/>
-      <c r="CH13" s="0"/>
-      <c r="CI13" s="0"/>
-      <c r="CJ13" s="0"/>
-      <c r="CK13" s="0"/>
-      <c r="CL13" s="0"/>
-      <c r="CM13" s="0"/>
-      <c r="CN13" s="0"/>
-      <c r="CO13" s="0"/>
-      <c r="CP13" s="0"/>
-      <c r="CQ13" s="0"/>
-      <c r="CR13" s="0"/>
-      <c r="CS13" s="0"/>
-      <c r="CT13" s="0"/>
-      <c r="CU13" s="0"/>
-      <c r="CV13" s="0"/>
-      <c r="CW13" s="0"/>
-      <c r="CX13" s="0"/>
-      <c r="CY13" s="0"/>
-      <c r="CZ13" s="0"/>
-      <c r="DA13" s="0"/>
-      <c r="DB13" s="0"/>
-      <c r="DC13" s="0"/>
-      <c r="DD13" s="0"/>
-      <c r="DE13" s="0"/>
-      <c r="DF13" s="0"/>
-      <c r="DG13" s="0"/>
-      <c r="DH13" s="0"/>
-      <c r="DI13" s="0"/>
-      <c r="DJ13" s="0"/>
-      <c r="DK13" s="0"/>
-      <c r="DL13" s="0"/>
-      <c r="DM13" s="0"/>
-      <c r="DN13" s="0"/>
-      <c r="DO13" s="0"/>
-      <c r="DP13" s="0"/>
-      <c r="DQ13" s="0"/>
-      <c r="DR13" s="0"/>
-      <c r="DS13" s="0"/>
-      <c r="DT13" s="0"/>
-      <c r="DU13" s="0"/>
-      <c r="DV13" s="0"/>
-      <c r="DW13" s="0"/>
-      <c r="DX13" s="0"/>
-      <c r="DY13" s="0"/>
-      <c r="DZ13" s="0"/>
-      <c r="EA13" s="0"/>
-      <c r="EB13" s="0"/>
-      <c r="EC13" s="0"/>
-      <c r="ED13" s="0"/>
-      <c r="EE13" s="0"/>
-      <c r="EF13" s="0"/>
-      <c r="EG13" s="0"/>
-      <c r="EH13" s="0"/>
-      <c r="EI13" s="0"/>
-      <c r="EJ13" s="0"/>
-      <c r="EK13" s="0"/>
-      <c r="EL13" s="0"/>
-      <c r="EM13" s="0"/>
-      <c r="EN13" s="0"/>
-      <c r="EO13" s="0"/>
-      <c r="EP13" s="0"/>
-      <c r="EQ13" s="0"/>
-      <c r="ER13" s="0"/>
-      <c r="ES13" s="0"/>
-      <c r="ET13" s="0"/>
-      <c r="EU13" s="0"/>
-      <c r="EV13" s="0"/>
-      <c r="EW13" s="0"/>
-      <c r="EX13" s="0"/>
-      <c r="EY13" s="0"/>
-      <c r="EZ13" s="0"/>
-      <c r="FA13" s="0"/>
-      <c r="FB13" s="0"/>
-      <c r="FC13" s="0"/>
-      <c r="FD13" s="0"/>
-      <c r="FE13" s="0"/>
-      <c r="FF13" s="0"/>
-      <c r="FG13" s="0"/>
-      <c r="FH13" s="0"/>
-      <c r="FI13" s="0"/>
-      <c r="FJ13" s="0"/>
-      <c r="FK13" s="0"/>
-      <c r="FL13" s="0"/>
-      <c r="FM13" s="0"/>
-      <c r="FN13" s="0"/>
-      <c r="FO13" s="0"/>
-      <c r="FP13" s="0"/>
-      <c r="FQ13" s="0"/>
-      <c r="FR13" s="0"/>
-      <c r="FS13" s="0"/>
-      <c r="FT13" s="0"/>
-      <c r="FU13" s="0"/>
-      <c r="FV13" s="0"/>
-      <c r="FW13" s="0"/>
-      <c r="FX13" s="0"/>
-      <c r="FY13" s="0"/>
-      <c r="FZ13" s="0"/>
-      <c r="GA13" s="0"/>
-      <c r="GB13" s="0"/>
-      <c r="GC13" s="0"/>
-      <c r="GD13" s="0"/>
-      <c r="GE13" s="0"/>
-      <c r="GF13" s="0"/>
-      <c r="GG13" s="0"/>
-      <c r="GH13" s="0"/>
-      <c r="GI13" s="0"/>
-      <c r="GJ13" s="0"/>
-      <c r="GK13" s="0"/>
-      <c r="GL13" s="0"/>
-      <c r="GM13" s="0"/>
-      <c r="GN13" s="0"/>
-      <c r="GO13" s="0"/>
-      <c r="GP13" s="0"/>
-      <c r="GQ13" s="0"/>
-      <c r="GR13" s="0"/>
-      <c r="GS13" s="0"/>
-      <c r="GT13" s="0"/>
-      <c r="GU13" s="0"/>
-      <c r="GV13" s="0"/>
-      <c r="GW13" s="0"/>
-      <c r="GX13" s="0"/>
-      <c r="GY13" s="0"/>
-      <c r="GZ13" s="0"/>
-      <c r="HA13" s="0"/>
-      <c r="HB13" s="0"/>
-      <c r="HC13" s="0"/>
-      <c r="HD13" s="0"/>
-      <c r="HE13" s="0"/>
-      <c r="HF13" s="0"/>
-      <c r="HG13" s="0"/>
-      <c r="HH13" s="0"/>
-      <c r="HI13" s="0"/>
-      <c r="HJ13" s="0"/>
-      <c r="HK13" s="0"/>
-      <c r="HL13" s="0"/>
-      <c r="HM13" s="0"/>
-      <c r="HN13" s="0"/>
-      <c r="HO13" s="0"/>
-      <c r="HP13" s="0"/>
-      <c r="HQ13" s="0"/>
-      <c r="HR13" s="0"/>
-      <c r="HS13" s="0"/>
-      <c r="HT13" s="0"/>
-      <c r="HU13" s="0"/>
-      <c r="HV13" s="0"/>
-      <c r="HW13" s="0"/>
-      <c r="HX13" s="0"/>
-      <c r="HY13" s="0"/>
-      <c r="HZ13" s="0"/>
-      <c r="IA13" s="0"/>
-      <c r="IB13" s="0"/>
-      <c r="IC13" s="0"/>
-      <c r="ID13" s="0"/>
-      <c r="IE13" s="0"/>
-      <c r="IF13" s="0"/>
-      <c r="IG13" s="0"/>
-      <c r="IH13" s="0"/>
-      <c r="II13" s="0"/>
-      <c r="IJ13" s="0"/>
-      <c r="IK13" s="0"/>
-      <c r="IL13" s="0"/>
-      <c r="IM13" s="0"/>
-      <c r="IN13" s="0"/>
-      <c r="IO13" s="0"/>
-      <c r="IP13" s="0"/>
-      <c r="IQ13" s="0"/>
-      <c r="IR13" s="0"/>
-      <c r="IS13" s="0"/>
-      <c r="IT13" s="0"/>
-      <c r="IU13" s="0"/>
-      <c r="IV13" s="0"/>
-      <c r="IW13" s="0"/>
-      <c r="IX13" s="0"/>
-      <c r="IY13" s="0"/>
-      <c r="IZ13" s="0"/>
-      <c r="JA13" s="0"/>
-      <c r="JB13" s="0"/>
-      <c r="JC13" s="0"/>
-      <c r="JD13" s="0"/>
-      <c r="JE13" s="0"/>
-      <c r="JF13" s="0"/>
-      <c r="JG13" s="0"/>
-      <c r="JH13" s="0"/>
-      <c r="JI13" s="0"/>
-      <c r="JJ13" s="0"/>
-      <c r="JK13" s="0"/>
-      <c r="JL13" s="0"/>
-      <c r="JM13" s="0"/>
-      <c r="JN13" s="0"/>
-      <c r="JO13" s="0"/>
-      <c r="JP13" s="0"/>
-      <c r="JQ13" s="0"/>
-      <c r="JR13" s="0"/>
-      <c r="JS13" s="0"/>
-      <c r="JT13" s="0"/>
-      <c r="JU13" s="0"/>
-      <c r="JV13" s="0"/>
-      <c r="JW13" s="0"/>
-      <c r="JX13" s="0"/>
-      <c r="JY13" s="0"/>
-      <c r="JZ13" s="0"/>
-      <c r="KA13" s="0"/>
-      <c r="KB13" s="0"/>
-      <c r="KC13" s="0"/>
-      <c r="KD13" s="0"/>
-      <c r="KE13" s="0"/>
-      <c r="KF13" s="0"/>
-      <c r="KG13" s="0"/>
-      <c r="KH13" s="0"/>
-      <c r="KI13" s="0"/>
-      <c r="KJ13" s="0"/>
-      <c r="KK13" s="0"/>
-      <c r="KL13" s="0"/>
-      <c r="KM13" s="0"/>
-      <c r="KN13" s="0"/>
-      <c r="KO13" s="0"/>
-      <c r="KP13" s="0"/>
-      <c r="KQ13" s="0"/>
-      <c r="KR13" s="0"/>
-      <c r="KS13" s="0"/>
-      <c r="KT13" s="0"/>
-      <c r="KU13" s="0"/>
-      <c r="KV13" s="0"/>
-      <c r="KW13" s="0"/>
-      <c r="KX13" s="0"/>
-      <c r="KY13" s="0"/>
-      <c r="KZ13" s="0"/>
-      <c r="LA13" s="0"/>
-      <c r="LB13" s="0"/>
-      <c r="LC13" s="0"/>
-      <c r="LD13" s="0"/>
-      <c r="LE13" s="0"/>
-      <c r="LF13" s="0"/>
-      <c r="LG13" s="0"/>
-      <c r="LH13" s="0"/>
-      <c r="LI13" s="0"/>
-      <c r="LJ13" s="0"/>
-      <c r="LK13" s="0"/>
-      <c r="LL13" s="0"/>
-      <c r="LM13" s="0"/>
-      <c r="LN13" s="0"/>
-      <c r="LO13" s="0"/>
-      <c r="LP13" s="0"/>
-      <c r="LQ13" s="0"/>
-      <c r="LR13" s="0"/>
-      <c r="LS13" s="0"/>
-      <c r="LT13" s="0"/>
-      <c r="LU13" s="0"/>
-      <c r="LV13" s="0"/>
-      <c r="LW13" s="0"/>
-      <c r="LX13" s="0"/>
-      <c r="LY13" s="0"/>
-      <c r="LZ13" s="0"/>
-      <c r="MA13" s="0"/>
-      <c r="MB13" s="0"/>
-      <c r="MC13" s="0"/>
-      <c r="MD13" s="0"/>
-      <c r="ME13" s="0"/>
-      <c r="MF13" s="0"/>
-      <c r="MG13" s="0"/>
-      <c r="MH13" s="0"/>
-      <c r="MI13" s="0"/>
-      <c r="MJ13" s="0"/>
-      <c r="MK13" s="0"/>
-      <c r="ML13" s="0"/>
-      <c r="MM13" s="0"/>
-      <c r="MN13" s="0"/>
-      <c r="MO13" s="0"/>
-      <c r="MP13" s="0"/>
-      <c r="MQ13" s="0"/>
-      <c r="MR13" s="0"/>
-      <c r="MS13" s="0"/>
-      <c r="MT13" s="0"/>
-      <c r="MU13" s="0"/>
-      <c r="MV13" s="0"/>
-      <c r="MW13" s="0"/>
-      <c r="MX13" s="0"/>
-      <c r="MY13" s="0"/>
-      <c r="MZ13" s="0"/>
-      <c r="NA13" s="0"/>
-      <c r="NB13" s="0"/>
-      <c r="NC13" s="0"/>
-      <c r="ND13" s="0"/>
-      <c r="NE13" s="0"/>
-      <c r="NF13" s="0"/>
-      <c r="NG13" s="0"/>
-      <c r="NH13" s="0"/>
-      <c r="NI13" s="0"/>
-      <c r="NJ13" s="0"/>
-      <c r="NK13" s="0"/>
-      <c r="NL13" s="0"/>
-      <c r="NM13" s="0"/>
-      <c r="NN13" s="0"/>
-      <c r="NO13" s="0"/>
-      <c r="NP13" s="0"/>
-      <c r="NQ13" s="0"/>
-      <c r="NR13" s="0"/>
-      <c r="NS13" s="0"/>
-      <c r="NT13" s="0"/>
-      <c r="NU13" s="0"/>
-      <c r="NV13" s="0"/>
-      <c r="NW13" s="0"/>
-      <c r="NX13" s="0"/>
-      <c r="NY13" s="0"/>
-      <c r="NZ13" s="0"/>
-      <c r="OA13" s="0"/>
-      <c r="OB13" s="0"/>
-      <c r="OC13" s="0"/>
-      <c r="OD13" s="0"/>
-      <c r="OE13" s="0"/>
-      <c r="OF13" s="0"/>
-      <c r="OG13" s="0"/>
-      <c r="OH13" s="0"/>
-      <c r="OI13" s="0"/>
-      <c r="OJ13" s="0"/>
-      <c r="OK13" s="0"/>
-      <c r="OL13" s="0"/>
-      <c r="OM13" s="0"/>
-      <c r="ON13" s="0"/>
-      <c r="OO13" s="0"/>
-      <c r="OP13" s="0"/>
-      <c r="OQ13" s="0"/>
-      <c r="OR13" s="0"/>
-      <c r="OS13" s="0"/>
-      <c r="OT13" s="0"/>
-      <c r="OU13" s="0"/>
-      <c r="OV13" s="0"/>
-      <c r="OW13" s="0"/>
-      <c r="OX13" s="0"/>
-      <c r="OY13" s="0"/>
-      <c r="OZ13" s="0"/>
-      <c r="PA13" s="0"/>
-      <c r="PB13" s="0"/>
-      <c r="PC13" s="0"/>
-      <c r="PD13" s="0"/>
-      <c r="PE13" s="0"/>
-      <c r="PF13" s="0"/>
-      <c r="PG13" s="0"/>
-      <c r="PH13" s="0"/>
-      <c r="PI13" s="0"/>
-      <c r="PJ13" s="0"/>
-      <c r="PK13" s="0"/>
-      <c r="PL13" s="0"/>
-      <c r="PM13" s="0"/>
-      <c r="PN13" s="0"/>
-      <c r="PO13" s="0"/>
-      <c r="PP13" s="0"/>
-      <c r="PQ13" s="0"/>
-      <c r="PR13" s="0"/>
-      <c r="PS13" s="0"/>
-      <c r="PT13" s="0"/>
-      <c r="PU13" s="0"/>
-      <c r="PV13" s="0"/>
-      <c r="PW13" s="0"/>
-      <c r="PX13" s="0"/>
-      <c r="PY13" s="0"/>
-      <c r="PZ13" s="0"/>
-      <c r="QA13" s="0"/>
-      <c r="QB13" s="0"/>
-      <c r="QC13" s="0"/>
-      <c r="QD13" s="0"/>
-      <c r="QE13" s="0"/>
-      <c r="QF13" s="0"/>
-      <c r="QG13" s="0"/>
-      <c r="QH13" s="0"/>
-      <c r="QI13" s="0"/>
-      <c r="QJ13" s="0"/>
-      <c r="QK13" s="0"/>
-      <c r="QL13" s="0"/>
-      <c r="QM13" s="0"/>
-      <c r="QN13" s="0"/>
-      <c r="QO13" s="0"/>
-      <c r="QP13" s="0"/>
-      <c r="QQ13" s="0"/>
-      <c r="QR13" s="0"/>
-      <c r="QS13" s="0"/>
-      <c r="QT13" s="0"/>
-      <c r="QU13" s="0"/>
-      <c r="QV13" s="0"/>
-      <c r="QW13" s="0"/>
-      <c r="QX13" s="0"/>
-      <c r="QY13" s="0"/>
-      <c r="QZ13" s="0"/>
-      <c r="RA13" s="0"/>
-      <c r="RB13" s="0"/>
-      <c r="RC13" s="0"/>
-      <c r="RD13" s="0"/>
-      <c r="RE13" s="0"/>
-      <c r="RF13" s="0"/>
-      <c r="RG13" s="0"/>
-      <c r="RH13" s="0"/>
-      <c r="RI13" s="0"/>
-      <c r="RJ13" s="0"/>
-      <c r="RK13" s="0"/>
-      <c r="RL13" s="0"/>
-      <c r="RM13" s="0"/>
-      <c r="RN13" s="0"/>
-      <c r="RO13" s="0"/>
-      <c r="RP13" s="0"/>
-      <c r="RQ13" s="0"/>
-      <c r="RR13" s="0"/>
-      <c r="RS13" s="0"/>
-      <c r="RT13" s="0"/>
-      <c r="RU13" s="0"/>
-      <c r="RV13" s="0"/>
-      <c r="RW13" s="0"/>
-      <c r="RX13" s="0"/>
-      <c r="RY13" s="0"/>
-      <c r="RZ13" s="0"/>
-      <c r="SA13" s="0"/>
-      <c r="SB13" s="0"/>
-      <c r="SC13" s="0"/>
-      <c r="SD13" s="0"/>
-      <c r="SE13" s="0"/>
-      <c r="SF13" s="0"/>
-      <c r="SG13" s="0"/>
-      <c r="SH13" s="0"/>
-      <c r="SI13" s="0"/>
-      <c r="SJ13" s="0"/>
-      <c r="SK13" s="0"/>
-      <c r="SL13" s="0"/>
-      <c r="SM13" s="0"/>
-      <c r="SN13" s="0"/>
-      <c r="SO13" s="0"/>
-      <c r="SP13" s="0"/>
-      <c r="SQ13" s="0"/>
-      <c r="SR13" s="0"/>
-      <c r="SS13" s="0"/>
-      <c r="ST13" s="0"/>
-      <c r="SU13" s="0"/>
-      <c r="SV13" s="0"/>
-      <c r="SW13" s="0"/>
-      <c r="SX13" s="0"/>
-      <c r="SY13" s="0"/>
-      <c r="SZ13" s="0"/>
-      <c r="TA13" s="0"/>
-      <c r="TB13" s="0"/>
-      <c r="TC13" s="0"/>
-      <c r="TD13" s="0"/>
-      <c r="TE13" s="0"/>
-      <c r="TF13" s="0"/>
-      <c r="TG13" s="0"/>
-      <c r="TH13" s="0"/>
-      <c r="TI13" s="0"/>
-      <c r="TJ13" s="0"/>
-      <c r="TK13" s="0"/>
-      <c r="TL13" s="0"/>
-      <c r="TM13" s="0"/>
-      <c r="TN13" s="0"/>
-      <c r="TO13" s="0"/>
-      <c r="TP13" s="0"/>
-      <c r="TQ13" s="0"/>
-      <c r="TR13" s="0"/>
-      <c r="TS13" s="0"/>
-      <c r="TT13" s="0"/>
-      <c r="TU13" s="0"/>
-      <c r="TV13" s="0"/>
-      <c r="TW13" s="0"/>
-      <c r="TX13" s="0"/>
-      <c r="TY13" s="0"/>
-      <c r="TZ13" s="0"/>
-      <c r="UA13" s="0"/>
-      <c r="UB13" s="0"/>
-      <c r="UC13" s="0"/>
-      <c r="UD13" s="0"/>
-      <c r="UE13" s="0"/>
-      <c r="UF13" s="0"/>
-      <c r="UG13" s="0"/>
-      <c r="UH13" s="0"/>
-      <c r="UI13" s="0"/>
-      <c r="UJ13" s="0"/>
-      <c r="UK13" s="0"/>
-      <c r="UL13" s="0"/>
-      <c r="UM13" s="0"/>
-      <c r="UN13" s="0"/>
-      <c r="UO13" s="0"/>
-      <c r="UP13" s="0"/>
-      <c r="UQ13" s="0"/>
-      <c r="UR13" s="0"/>
-      <c r="US13" s="0"/>
-      <c r="UT13" s="0"/>
-      <c r="UU13" s="0"/>
-      <c r="UV13" s="0"/>
-      <c r="UW13" s="0"/>
-      <c r="UX13" s="0"/>
-      <c r="UY13" s="0"/>
-      <c r="UZ13" s="0"/>
-      <c r="VA13" s="0"/>
-      <c r="VB13" s="0"/>
-      <c r="VC13" s="0"/>
-      <c r="VD13" s="0"/>
-      <c r="VE13" s="0"/>
-      <c r="VF13" s="0"/>
-      <c r="VG13" s="0"/>
-      <c r="VH13" s="0"/>
-      <c r="VI13" s="0"/>
-      <c r="VJ13" s="0"/>
-      <c r="VK13" s="0"/>
-      <c r="VL13" s="0"/>
-      <c r="VM13" s="0"/>
-      <c r="VN13" s="0"/>
-      <c r="VO13" s="0"/>
-      <c r="VP13" s="0"/>
-      <c r="VQ13" s="0"/>
-      <c r="VR13" s="0"/>
-      <c r="VS13" s="0"/>
-      <c r="VT13" s="0"/>
-      <c r="VU13" s="0"/>
-      <c r="VV13" s="0"/>
-      <c r="VW13" s="0"/>
-      <c r="VX13" s="0"/>
-      <c r="VY13" s="0"/>
-      <c r="VZ13" s="0"/>
-      <c r="WA13" s="0"/>
-      <c r="WB13" s="0"/>
-      <c r="WC13" s="0"/>
-      <c r="WD13" s="0"/>
-      <c r="WE13" s="0"/>
-      <c r="WF13" s="0"/>
-      <c r="WG13" s="0"/>
-      <c r="WH13" s="0"/>
-      <c r="WI13" s="0"/>
-      <c r="WJ13" s="0"/>
-      <c r="WK13" s="0"/>
-      <c r="WL13" s="0"/>
-      <c r="WM13" s="0"/>
-      <c r="WN13" s="0"/>
-      <c r="WO13" s="0"/>
-      <c r="WP13" s="0"/>
-      <c r="WQ13" s="0"/>
-      <c r="WR13" s="0"/>
-      <c r="WS13" s="0"/>
-      <c r="WT13" s="0"/>
-      <c r="WU13" s="0"/>
-      <c r="WV13" s="0"/>
-      <c r="WW13" s="0"/>
-      <c r="WX13" s="0"/>
-      <c r="WY13" s="0"/>
-      <c r="WZ13" s="0"/>
-      <c r="XA13" s="0"/>
-      <c r="XB13" s="0"/>
-      <c r="XC13" s="0"/>
-      <c r="XD13" s="0"/>
-      <c r="XE13" s="0"/>
-      <c r="XF13" s="0"/>
-      <c r="XG13" s="0"/>
-      <c r="XH13" s="0"/>
-      <c r="XI13" s="0"/>
-      <c r="XJ13" s="0"/>
-      <c r="XK13" s="0"/>
-      <c r="XL13" s="0"/>
-      <c r="XM13" s="0"/>
-      <c r="XN13" s="0"/>
-      <c r="XO13" s="0"/>
-      <c r="XP13" s="0"/>
-      <c r="XQ13" s="0"/>
-      <c r="XR13" s="0"/>
-      <c r="XS13" s="0"/>
-      <c r="XT13" s="0"/>
-      <c r="XU13" s="0"/>
-      <c r="XV13" s="0"/>
-      <c r="XW13" s="0"/>
-      <c r="XX13" s="0"/>
-      <c r="XY13" s="0"/>
-      <c r="XZ13" s="0"/>
-      <c r="YA13" s="0"/>
-      <c r="YB13" s="0"/>
-      <c r="YC13" s="0"/>
-      <c r="YD13" s="0"/>
-      <c r="YE13" s="0"/>
-      <c r="YF13" s="0"/>
-      <c r="YG13" s="0"/>
-      <c r="YH13" s="0"/>
-      <c r="YI13" s="0"/>
-      <c r="YJ13" s="0"/>
-      <c r="YK13" s="0"/>
-      <c r="YL13" s="0"/>
-      <c r="YM13" s="0"/>
-      <c r="YN13" s="0"/>
-      <c r="YO13" s="0"/>
-      <c r="YP13" s="0"/>
-      <c r="YQ13" s="0"/>
-      <c r="YR13" s="0"/>
-      <c r="YS13" s="0"/>
-      <c r="YT13" s="0"/>
-      <c r="YU13" s="0"/>
-      <c r="YV13" s="0"/>
-      <c r="YW13" s="0"/>
-      <c r="YX13" s="0"/>
-      <c r="YY13" s="0"/>
-      <c r="YZ13" s="0"/>
-      <c r="ZA13" s="0"/>
-      <c r="ZB13" s="0"/>
-      <c r="ZC13" s="0"/>
-      <c r="ZD13" s="0"/>
-      <c r="ZE13" s="0"/>
-      <c r="ZF13" s="0"/>
-      <c r="ZG13" s="0"/>
-      <c r="ZH13" s="0"/>
-      <c r="ZI13" s="0"/>
-      <c r="ZJ13" s="0"/>
-      <c r="ZK13" s="0"/>
-      <c r="ZL13" s="0"/>
-      <c r="ZM13" s="0"/>
-      <c r="ZN13" s="0"/>
-      <c r="ZO13" s="0"/>
-      <c r="ZP13" s="0"/>
-      <c r="ZQ13" s="0"/>
-      <c r="ZR13" s="0"/>
-      <c r="ZS13" s="0"/>
-      <c r="ZT13" s="0"/>
-      <c r="ZU13" s="0"/>
-      <c r="ZV13" s="0"/>
-      <c r="ZW13" s="0"/>
-      <c r="ZX13" s="0"/>
-      <c r="ZY13" s="0"/>
-      <c r="ZZ13" s="0"/>
-      <c r="AAA13" s="0"/>
-      <c r="AAB13" s="0"/>
-      <c r="AAC13" s="0"/>
-      <c r="AAD13" s="0"/>
-      <c r="AAE13" s="0"/>
-      <c r="AAF13" s="0"/>
-      <c r="AAG13" s="0"/>
-      <c r="AAH13" s="0"/>
-      <c r="AAI13" s="0"/>
-      <c r="AAJ13" s="0"/>
-      <c r="AAK13" s="0"/>
-      <c r="AAL13" s="0"/>
-      <c r="AAM13" s="0"/>
-      <c r="AAN13" s="0"/>
-      <c r="AAO13" s="0"/>
-      <c r="AAP13" s="0"/>
-      <c r="AAQ13" s="0"/>
-      <c r="AAR13" s="0"/>
-      <c r="AAS13" s="0"/>
-      <c r="AAT13" s="0"/>
-      <c r="AAU13" s="0"/>
-      <c r="AAV13" s="0"/>
-      <c r="AAW13" s="0"/>
-      <c r="AAX13" s="0"/>
-      <c r="AAY13" s="0"/>
-      <c r="AAZ13" s="0"/>
-      <c r="ABA13" s="0"/>
-      <c r="ABB13" s="0"/>
-      <c r="ABC13" s="0"/>
-      <c r="ABD13" s="0"/>
-      <c r="ABE13" s="0"/>
-      <c r="ABF13" s="0"/>
-      <c r="ABG13" s="0"/>
-      <c r="ABH13" s="0"/>
-      <c r="ABI13" s="0"/>
-      <c r="ABJ13" s="0"/>
-      <c r="ABK13" s="0"/>
-      <c r="ABL13" s="0"/>
-      <c r="ABM13" s="0"/>
-      <c r="ABN13" s="0"/>
-      <c r="ABO13" s="0"/>
-      <c r="ABP13" s="0"/>
-      <c r="ABQ13" s="0"/>
-      <c r="ABR13" s="0"/>
-      <c r="ABS13" s="0"/>
-      <c r="ABT13" s="0"/>
-      <c r="ABU13" s="0"/>
-      <c r="ABV13" s="0"/>
-      <c r="ABW13" s="0"/>
-      <c r="ABX13" s="0"/>
-      <c r="ABY13" s="0"/>
-      <c r="ABZ13" s="0"/>
-      <c r="ACA13" s="0"/>
-      <c r="ACB13" s="0"/>
-      <c r="ACC13" s="0"/>
-      <c r="ACD13" s="0"/>
-      <c r="ACE13" s="0"/>
-      <c r="ACF13" s="0"/>
-      <c r="ACG13" s="0"/>
-      <c r="ACH13" s="0"/>
-      <c r="ACI13" s="0"/>
-      <c r="ACJ13" s="0"/>
-      <c r="ACK13" s="0"/>
-      <c r="ACL13" s="0"/>
-      <c r="ACM13" s="0"/>
-      <c r="ACN13" s="0"/>
-      <c r="ACO13" s="0"/>
-      <c r="ACP13" s="0"/>
-      <c r="ACQ13" s="0"/>
-      <c r="ACR13" s="0"/>
-      <c r="ACS13" s="0"/>
-      <c r="ACT13" s="0"/>
-      <c r="ACU13" s="0"/>
-      <c r="ACV13" s="0"/>
-      <c r="ACW13" s="0"/>
-      <c r="ACX13" s="0"/>
-      <c r="ACY13" s="0"/>
-      <c r="ACZ13" s="0"/>
-      <c r="ADA13" s="0"/>
-      <c r="ADB13" s="0"/>
-      <c r="ADC13" s="0"/>
-      <c r="ADD13" s="0"/>
-      <c r="ADE13" s="0"/>
-      <c r="ADF13" s="0"/>
-      <c r="ADG13" s="0"/>
-      <c r="ADH13" s="0"/>
-      <c r="ADI13" s="0"/>
-      <c r="ADJ13" s="0"/>
-      <c r="ADK13" s="0"/>
-      <c r="ADL13" s="0"/>
-      <c r="ADM13" s="0"/>
-      <c r="ADN13" s="0"/>
-      <c r="ADO13" s="0"/>
-      <c r="ADP13" s="0"/>
-      <c r="ADQ13" s="0"/>
-      <c r="ADR13" s="0"/>
-      <c r="ADS13" s="0"/>
-      <c r="ADT13" s="0"/>
-      <c r="ADU13" s="0"/>
-      <c r="ADV13" s="0"/>
-      <c r="ADW13" s="0"/>
-      <c r="ADX13" s="0"/>
-      <c r="ADY13" s="0"/>
-      <c r="ADZ13" s="0"/>
-      <c r="AEA13" s="0"/>
-      <c r="AEB13" s="0"/>
-      <c r="AEC13" s="0"/>
-      <c r="AED13" s="0"/>
-      <c r="AEE13" s="0"/>
-      <c r="AEF13" s="0"/>
-      <c r="AEG13" s="0"/>
-      <c r="AEH13" s="0"/>
-      <c r="AEI13" s="0"/>
-      <c r="AEJ13" s="0"/>
-      <c r="AEK13" s="0"/>
-      <c r="AEL13" s="0"/>
-      <c r="AEM13" s="0"/>
-      <c r="AEN13" s="0"/>
-      <c r="AEO13" s="0"/>
-      <c r="AEP13" s="0"/>
-      <c r="AEQ13" s="0"/>
-      <c r="AER13" s="0"/>
-      <c r="AES13" s="0"/>
-      <c r="AET13" s="0"/>
-      <c r="AEU13" s="0"/>
-      <c r="AEV13" s="0"/>
-      <c r="AEW13" s="0"/>
-      <c r="AEX13" s="0"/>
-      <c r="AEY13" s="0"/>
-      <c r="AEZ13" s="0"/>
-      <c r="AFA13" s="0"/>
-      <c r="AFB13" s="0"/>
-      <c r="AFC13" s="0"/>
-      <c r="AFD13" s="0"/>
-      <c r="AFE13" s="0"/>
-      <c r="AFF13" s="0"/>
-      <c r="AFG13" s="0"/>
-      <c r="AFH13" s="0"/>
-      <c r="AFI13" s="0"/>
-      <c r="AFJ13" s="0"/>
-      <c r="AFK13" s="0"/>
-      <c r="AFL13" s="0"/>
-      <c r="AFM13" s="0"/>
-      <c r="AFN13" s="0"/>
-      <c r="AFO13" s="0"/>
-      <c r="AFP13" s="0"/>
-      <c r="AFQ13" s="0"/>
-      <c r="AFR13" s="0"/>
-      <c r="AFS13" s="0"/>
-      <c r="AFT13" s="0"/>
-      <c r="AFU13" s="0"/>
-      <c r="AFV13" s="0"/>
-      <c r="AFW13" s="0"/>
-      <c r="AFX13" s="0"/>
-      <c r="AFY13" s="0"/>
-      <c r="AFZ13" s="0"/>
-      <c r="AGA13" s="0"/>
-      <c r="AGB13" s="0"/>
-      <c r="AGC13" s="0"/>
-      <c r="AGD13" s="0"/>
-      <c r="AGE13" s="0"/>
-      <c r="AGF13" s="0"/>
-      <c r="AGG13" s="0"/>
-      <c r="AGH13" s="0"/>
-      <c r="AGI13" s="0"/>
-      <c r="AGJ13" s="0"/>
-      <c r="AGK13" s="0"/>
-      <c r="AGL13" s="0"/>
-      <c r="AGM13" s="0"/>
-      <c r="AGN13" s="0"/>
-      <c r="AGO13" s="0"/>
-      <c r="AGP13" s="0"/>
-      <c r="AGQ13" s="0"/>
-      <c r="AGR13" s="0"/>
-      <c r="AGS13" s="0"/>
-      <c r="AGT13" s="0"/>
-      <c r="AGU13" s="0"/>
-      <c r="AGV13" s="0"/>
-      <c r="AGW13" s="0"/>
-      <c r="AGX13" s="0"/>
-      <c r="AGY13" s="0"/>
-      <c r="AGZ13" s="0"/>
-      <c r="AHA13" s="0"/>
-      <c r="AHB13" s="0"/>
-      <c r="AHC13" s="0"/>
-      <c r="AHD13" s="0"/>
-      <c r="AHE13" s="0"/>
-      <c r="AHF13" s="0"/>
-      <c r="AHG13" s="0"/>
-      <c r="AHH13" s="0"/>
-      <c r="AHI13" s="0"/>
-      <c r="AHJ13" s="0"/>
-      <c r="AHK13" s="0"/>
-      <c r="AHL13" s="0"/>
-      <c r="AHM13" s="0"/>
-      <c r="AHN13" s="0"/>
-      <c r="AHO13" s="0"/>
-      <c r="AHP13" s="0"/>
-      <c r="AHQ13" s="0"/>
-      <c r="AHR13" s="0"/>
-      <c r="AHS13" s="0"/>
-      <c r="AHT13" s="0"/>
-      <c r="AHU13" s="0"/>
-      <c r="AHV13" s="0"/>
-      <c r="AHW13" s="0"/>
-      <c r="AHX13" s="0"/>
-      <c r="AHY13" s="0"/>
-      <c r="AHZ13" s="0"/>
-      <c r="AIA13" s="0"/>
-      <c r="AIB13" s="0"/>
-      <c r="AIC13" s="0"/>
-      <c r="AID13" s="0"/>
-      <c r="AIE13" s="0"/>
-      <c r="AIF13" s="0"/>
-      <c r="AIG13" s="0"/>
-      <c r="AIH13" s="0"/>
-      <c r="AII13" s="0"/>
-      <c r="AIJ13" s="0"/>
-      <c r="AIK13" s="0"/>
-      <c r="AIL13" s="0"/>
-      <c r="AIM13" s="0"/>
-      <c r="AIN13" s="0"/>
-      <c r="AIO13" s="0"/>
-      <c r="AIP13" s="0"/>
-      <c r="AIQ13" s="0"/>
-      <c r="AIR13" s="0"/>
-      <c r="AIS13" s="0"/>
-      <c r="AIT13" s="0"/>
-      <c r="AIU13" s="0"/>
-      <c r="AIV13" s="0"/>
-      <c r="AIW13" s="0"/>
-      <c r="AIX13" s="0"/>
-      <c r="AIY13" s="0"/>
-      <c r="AIZ13" s="0"/>
-      <c r="AJA13" s="0"/>
-      <c r="AJB13" s="0"/>
-      <c r="AJC13" s="0"/>
-      <c r="AJD13" s="0"/>
-      <c r="AJE13" s="0"/>
-      <c r="AJF13" s="0"/>
-      <c r="AJG13" s="0"/>
-      <c r="AJH13" s="0"/>
-      <c r="AJI13" s="0"/>
-      <c r="AJJ13" s="0"/>
-      <c r="AJK13" s="0"/>
-      <c r="AJL13" s="0"/>
-      <c r="AJM13" s="0"/>
-      <c r="AJN13" s="0"/>
-      <c r="AJO13" s="0"/>
-      <c r="AJP13" s="0"/>
-      <c r="AJQ13" s="0"/>
-      <c r="AJR13" s="0"/>
-      <c r="AJS13" s="0"/>
-      <c r="AJT13" s="0"/>
-      <c r="AJU13" s="0"/>
-      <c r="AJV13" s="0"/>
-      <c r="AJW13" s="0"/>
-      <c r="AJX13" s="0"/>
-      <c r="AJY13" s="0"/>
-      <c r="AJZ13" s="0"/>
-      <c r="AKA13" s="0"/>
-      <c r="AKB13" s="0"/>
-      <c r="AKC13" s="0"/>
-      <c r="AKD13" s="0"/>
-      <c r="AKE13" s="0"/>
-      <c r="AKF13" s="0"/>
-      <c r="AKG13" s="0"/>
-      <c r="AKH13" s="0"/>
-      <c r="AKI13" s="0"/>
-      <c r="AKJ13" s="0"/>
-      <c r="AKK13" s="0"/>
-      <c r="AKL13" s="0"/>
-      <c r="AKM13" s="0"/>
-      <c r="AKN13" s="0"/>
-      <c r="AKO13" s="0"/>
-      <c r="AKP13" s="0"/>
-      <c r="AKQ13" s="0"/>
-      <c r="AKR13" s="0"/>
-      <c r="AKS13" s="0"/>
-      <c r="AKT13" s="0"/>
-      <c r="AKU13" s="0"/>
-      <c r="AKV13" s="0"/>
-      <c r="AKW13" s="0"/>
-      <c r="AKX13" s="0"/>
-      <c r="AKY13" s="0"/>
-      <c r="AKZ13" s="0"/>
-      <c r="ALA13" s="0"/>
-      <c r="ALB13" s="0"/>
-      <c r="ALC13" s="0"/>
-      <c r="ALD13" s="0"/>
-      <c r="ALE13" s="0"/>
-      <c r="ALF13" s="0"/>
-      <c r="ALG13" s="0"/>
-      <c r="ALH13" s="0"/>
-      <c r="ALI13" s="0"/>
-      <c r="ALJ13" s="0"/>
-      <c r="ALK13" s="0"/>
-      <c r="ALL13" s="0"/>
-      <c r="ALM13" s="0"/>
-      <c r="ALN13" s="0"/>
-      <c r="ALO13" s="0"/>
-      <c r="ALP13" s="0"/>
-      <c r="ALQ13" s="0"/>
-      <c r="ALR13" s="0"/>
-      <c r="ALS13" s="0"/>
-      <c r="ALT13" s="0"/>
-      <c r="ALU13" s="0"/>
-      <c r="ALV13" s="0"/>
-      <c r="ALW13" s="0"/>
-      <c r="ALX13" s="0"/>
-      <c r="ALY13" s="0"/>
-      <c r="ALZ13" s="0"/>
-      <c r="AMA13" s="0"/>
-      <c r="AMB13" s="0"/>
-      <c r="AMC13" s="0"/>
-      <c r="AMD13" s="0"/>
-      <c r="AME13" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
+      <c r="AP12" s="0"/>
+      <c r="AQ12" s="0"/>
+      <c r="AR12" s="0"/>
+      <c r="AS12" s="0"/>
+      <c r="AT12" s="0"/>
+      <c r="AU12" s="0"/>
+      <c r="AV12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+      <c r="BL12" s="0"/>
+      <c r="BM12" s="0"/>
+      <c r="BN12" s="0"/>
+      <c r="BO12" s="0"/>
+      <c r="BP12" s="0"/>
+      <c r="BQ12" s="0"/>
+      <c r="BR12" s="0"/>
+      <c r="BS12" s="0"/>
+      <c r="BT12" s="0"/>
+      <c r="BU12" s="0"/>
+      <c r="BV12" s="0"/>
+      <c r="BW12" s="0"/>
+      <c r="BX12" s="0"/>
+      <c r="BY12" s="0"/>
+      <c r="BZ12" s="0"/>
+      <c r="CA12" s="0"/>
+      <c r="CB12" s="0"/>
+      <c r="CC12" s="0"/>
+      <c r="CD12" s="0"/>
+      <c r="CE12" s="0"/>
+      <c r="CF12" s="0"/>
+      <c r="CG12" s="0"/>
+      <c r="CH12" s="0"/>
+      <c r="CI12" s="0"/>
+      <c r="CJ12" s="0"/>
+      <c r="CK12" s="0"/>
+      <c r="CL12" s="0"/>
+      <c r="CM12" s="0"/>
+      <c r="CN12" s="0"/>
+      <c r="CO12" s="0"/>
+      <c r="CP12" s="0"/>
+      <c r="CQ12" s="0"/>
+      <c r="CR12" s="0"/>
+      <c r="CS12" s="0"/>
+      <c r="CT12" s="0"/>
+      <c r="CU12" s="0"/>
+      <c r="CV12" s="0"/>
+      <c r="CW12" s="0"/>
+      <c r="CX12" s="0"/>
+      <c r="CY12" s="0"/>
+      <c r="CZ12" s="0"/>
+      <c r="DA12" s="0"/>
+      <c r="DB12" s="0"/>
+      <c r="DC12" s="0"/>
+      <c r="DD12" s="0"/>
+      <c r="DE12" s="0"/>
+      <c r="DF12" s="0"/>
+      <c r="DG12" s="0"/>
+      <c r="DH12" s="0"/>
+      <c r="DI12" s="0"/>
+      <c r="DJ12" s="0"/>
+      <c r="DK12" s="0"/>
+      <c r="DL12" s="0"/>
+      <c r="DM12" s="0"/>
+      <c r="DN12" s="0"/>
+      <c r="DO12" s="0"/>
+      <c r="DP12" s="0"/>
+      <c r="DQ12" s="0"/>
+      <c r="DR12" s="0"/>
+      <c r="DS12" s="0"/>
+      <c r="DT12" s="0"/>
+      <c r="DU12" s="0"/>
+      <c r="DV12" s="0"/>
+      <c r="DW12" s="0"/>
+      <c r="DX12" s="0"/>
+      <c r="DY12" s="0"/>
+      <c r="DZ12" s="0"/>
+      <c r="EA12" s="0"/>
+      <c r="EB12" s="0"/>
+      <c r="EC12" s="0"/>
+      <c r="ED12" s="0"/>
+      <c r="EE12" s="0"/>
+      <c r="EF12" s="0"/>
+      <c r="EG12" s="0"/>
+      <c r="EH12" s="0"/>
+      <c r="EI12" s="0"/>
+      <c r="EJ12" s="0"/>
+      <c r="EK12" s="0"/>
+      <c r="EL12" s="0"/>
+      <c r="EM12" s="0"/>
+      <c r="EN12" s="0"/>
+      <c r="EO12" s="0"/>
+      <c r="EP12" s="0"/>
+      <c r="EQ12" s="0"/>
+      <c r="ER12" s="0"/>
+      <c r="ES12" s="0"/>
+      <c r="ET12" s="0"/>
+      <c r="EU12" s="0"/>
+      <c r="EV12" s="0"/>
+      <c r="EW12" s="0"/>
+      <c r="EX12" s="0"/>
+      <c r="EY12" s="0"/>
+      <c r="EZ12" s="0"/>
+      <c r="FA12" s="0"/>
+      <c r="FB12" s="0"/>
+      <c r="FC12" s="0"/>
+      <c r="FD12" s="0"/>
+      <c r="FE12" s="0"/>
+      <c r="FF12" s="0"/>
+      <c r="FG12" s="0"/>
+      <c r="FH12" s="0"/>
+      <c r="FI12" s="0"/>
+      <c r="FJ12" s="0"/>
+      <c r="FK12" s="0"/>
+      <c r="FL12" s="0"/>
+      <c r="FM12" s="0"/>
+      <c r="FN12" s="0"/>
+      <c r="FO12" s="0"/>
+      <c r="FP12" s="0"/>
+      <c r="FQ12" s="0"/>
+      <c r="FR12" s="0"/>
+      <c r="FS12" s="0"/>
+      <c r="FT12" s="0"/>
+      <c r="FU12" s="0"/>
+      <c r="FV12" s="0"/>
+      <c r="FW12" s="0"/>
+      <c r="FX12" s="0"/>
+      <c r="FY12" s="0"/>
+      <c r="FZ12" s="0"/>
+      <c r="GA12" s="0"/>
+      <c r="GB12" s="0"/>
+      <c r="GC12" s="0"/>
+      <c r="GD12" s="0"/>
+      <c r="GE12" s="0"/>
+      <c r="GF12" s="0"/>
+      <c r="GG12" s="0"/>
+      <c r="GH12" s="0"/>
+      <c r="GI12" s="0"/>
+      <c r="GJ12" s="0"/>
+      <c r="GK12" s="0"/>
+      <c r="GL12" s="0"/>
+      <c r="GM12" s="0"/>
+      <c r="GN12" s="0"/>
+      <c r="GO12" s="0"/>
+      <c r="GP12" s="0"/>
+      <c r="GQ12" s="0"/>
+      <c r="GR12" s="0"/>
+      <c r="GS12" s="0"/>
+      <c r="GT12" s="0"/>
+      <c r="GU12" s="0"/>
+      <c r="GV12" s="0"/>
+      <c r="GW12" s="0"/>
+      <c r="GX12" s="0"/>
+      <c r="GY12" s="0"/>
+      <c r="GZ12" s="0"/>
+      <c r="HA12" s="0"/>
+      <c r="HB12" s="0"/>
+      <c r="HC12" s="0"/>
+      <c r="HD12" s="0"/>
+      <c r="HE12" s="0"/>
+      <c r="HF12" s="0"/>
+      <c r="HG12" s="0"/>
+      <c r="HH12" s="0"/>
+      <c r="HI12" s="0"/>
+      <c r="HJ12" s="0"/>
+      <c r="HK12" s="0"/>
+      <c r="HL12" s="0"/>
+      <c r="HM12" s="0"/>
+      <c r="HN12" s="0"/>
+      <c r="HO12" s="0"/>
+      <c r="HP12" s="0"/>
+      <c r="HQ12" s="0"/>
+      <c r="HR12" s="0"/>
+      <c r="HS12" s="0"/>
+      <c r="HT12" s="0"/>
+      <c r="HU12" s="0"/>
+      <c r="HV12" s="0"/>
+      <c r="HW12" s="0"/>
+      <c r="HX12" s="0"/>
+      <c r="HY12" s="0"/>
+      <c r="HZ12" s="0"/>
+      <c r="IA12" s="0"/>
+      <c r="IB12" s="0"/>
+      <c r="IC12" s="0"/>
+      <c r="ID12" s="0"/>
+      <c r="IE12" s="0"/>
+      <c r="IF12" s="0"/>
+      <c r="IG12" s="0"/>
+      <c r="IH12" s="0"/>
+      <c r="II12" s="0"/>
+      <c r="IJ12" s="0"/>
+      <c r="IK12" s="0"/>
+      <c r="IL12" s="0"/>
+      <c r="IM12" s="0"/>
+      <c r="IN12" s="0"/>
+      <c r="IO12" s="0"/>
+      <c r="IP12" s="0"/>
+      <c r="IQ12" s="0"/>
+      <c r="IR12" s="0"/>
+      <c r="IS12" s="0"/>
+      <c r="IT12" s="0"/>
+      <c r="IU12" s="0"/>
+      <c r="IV12" s="0"/>
+      <c r="IW12" s="0"/>
+      <c r="IX12" s="0"/>
+      <c r="IY12" s="0"/>
+      <c r="IZ12" s="0"/>
+      <c r="JA12" s="0"/>
+      <c r="JB12" s="0"/>
+      <c r="JC12" s="0"/>
+      <c r="JD12" s="0"/>
+      <c r="JE12" s="0"/>
+      <c r="JF12" s="0"/>
+      <c r="JG12" s="0"/>
+      <c r="JH12" s="0"/>
+      <c r="JI12" s="0"/>
+      <c r="JJ12" s="0"/>
+      <c r="JK12" s="0"/>
+      <c r="JL12" s="0"/>
+      <c r="JM12" s="0"/>
+      <c r="JN12" s="0"/>
+      <c r="JO12" s="0"/>
+      <c r="JP12" s="0"/>
+      <c r="JQ12" s="0"/>
+      <c r="JR12" s="0"/>
+      <c r="JS12" s="0"/>
+      <c r="JT12" s="0"/>
+      <c r="JU12" s="0"/>
+      <c r="JV12" s="0"/>
+      <c r="JW12" s="0"/>
+      <c r="JX12" s="0"/>
+      <c r="JY12" s="0"/>
+      <c r="JZ12" s="0"/>
+      <c r="KA12" s="0"/>
+      <c r="KB12" s="0"/>
+      <c r="KC12" s="0"/>
+      <c r="KD12" s="0"/>
+      <c r="KE12" s="0"/>
+      <c r="KF12" s="0"/>
+      <c r="KG12" s="0"/>
+      <c r="KH12" s="0"/>
+      <c r="KI12" s="0"/>
+      <c r="KJ12" s="0"/>
+      <c r="KK12" s="0"/>
+      <c r="KL12" s="0"/>
+      <c r="KM12" s="0"/>
+      <c r="KN12" s="0"/>
+      <c r="KO12" s="0"/>
+      <c r="KP12" s="0"/>
+      <c r="KQ12" s="0"/>
+      <c r="KR12" s="0"/>
+      <c r="KS12" s="0"/>
+      <c r="KT12" s="0"/>
+      <c r="KU12" s="0"/>
+      <c r="KV12" s="0"/>
+      <c r="KW12" s="0"/>
+      <c r="KX12" s="0"/>
+      <c r="KY12" s="0"/>
+      <c r="KZ12" s="0"/>
+      <c r="LA12" s="0"/>
+      <c r="LB12" s="0"/>
+      <c r="LC12" s="0"/>
+      <c r="LD12" s="0"/>
+      <c r="LE12" s="0"/>
+      <c r="LF12" s="0"/>
+      <c r="LG12" s="0"/>
+      <c r="LH12" s="0"/>
+      <c r="LI12" s="0"/>
+      <c r="LJ12" s="0"/>
+      <c r="LK12" s="0"/>
+      <c r="LL12" s="0"/>
+      <c r="LM12" s="0"/>
+      <c r="LN12" s="0"/>
+      <c r="LO12" s="0"/>
+      <c r="LP12" s="0"/>
+      <c r="LQ12" s="0"/>
+      <c r="LR12" s="0"/>
+      <c r="LS12" s="0"/>
+      <c r="LT12" s="0"/>
+      <c r="LU12" s="0"/>
+      <c r="LV12" s="0"/>
+      <c r="LW12" s="0"/>
+      <c r="LX12" s="0"/>
+      <c r="LY12" s="0"/>
+      <c r="LZ12" s="0"/>
+      <c r="MA12" s="0"/>
+      <c r="MB12" s="0"/>
+      <c r="MC12" s="0"/>
+      <c r="MD12" s="0"/>
+      <c r="ME12" s="0"/>
+      <c r="MF12" s="0"/>
+      <c r="MG12" s="0"/>
+      <c r="MH12" s="0"/>
+      <c r="MI12" s="0"/>
+      <c r="MJ12" s="0"/>
+      <c r="MK12" s="0"/>
+      <c r="ML12" s="0"/>
+      <c r="MM12" s="0"/>
+      <c r="MN12" s="0"/>
+      <c r="MO12" s="0"/>
+      <c r="MP12" s="0"/>
+      <c r="MQ12" s="0"/>
+      <c r="MR12" s="0"/>
+      <c r="MS12" s="0"/>
+      <c r="MT12" s="0"/>
+      <c r="MU12" s="0"/>
+      <c r="MV12" s="0"/>
+      <c r="MW12" s="0"/>
+      <c r="MX12" s="0"/>
+      <c r="MY12" s="0"/>
+      <c r="MZ12" s="0"/>
+      <c r="NA12" s="0"/>
+      <c r="NB12" s="0"/>
+      <c r="NC12" s="0"/>
+      <c r="ND12" s="0"/>
+      <c r="NE12" s="0"/>
+      <c r="NF12" s="0"/>
+      <c r="NG12" s="0"/>
+      <c r="NH12" s="0"/>
+      <c r="NI12" s="0"/>
+      <c r="NJ12" s="0"/>
+      <c r="NK12" s="0"/>
+      <c r="NL12" s="0"/>
+      <c r="NM12" s="0"/>
+      <c r="NN12" s="0"/>
+      <c r="NO12" s="0"/>
+      <c r="NP12" s="0"/>
+      <c r="NQ12" s="0"/>
+      <c r="NR12" s="0"/>
+      <c r="NS12" s="0"/>
+      <c r="NT12" s="0"/>
+      <c r="NU12" s="0"/>
+      <c r="NV12" s="0"/>
+      <c r="NW12" s="0"/>
+      <c r="NX12" s="0"/>
+      <c r="NY12" s="0"/>
+      <c r="NZ12" s="0"/>
+      <c r="OA12" s="0"/>
+      <c r="OB12" s="0"/>
+      <c r="OC12" s="0"/>
+      <c r="OD12" s="0"/>
+      <c r="OE12" s="0"/>
+      <c r="OF12" s="0"/>
+      <c r="OG12" s="0"/>
+      <c r="OH12" s="0"/>
+      <c r="OI12" s="0"/>
+      <c r="OJ12" s="0"/>
+      <c r="OK12" s="0"/>
+      <c r="OL12" s="0"/>
+      <c r="OM12" s="0"/>
+      <c r="ON12" s="0"/>
+      <c r="OO12" s="0"/>
+      <c r="OP12" s="0"/>
+      <c r="OQ12" s="0"/>
+      <c r="OR12" s="0"/>
+      <c r="OS12" s="0"/>
+      <c r="OT12" s="0"/>
+      <c r="OU12" s="0"/>
+      <c r="OV12" s="0"/>
+      <c r="OW12" s="0"/>
+      <c r="OX12" s="0"/>
+      <c r="OY12" s="0"/>
+      <c r="OZ12" s="0"/>
+      <c r="PA12" s="0"/>
+      <c r="PB12" s="0"/>
+      <c r="PC12" s="0"/>
+      <c r="PD12" s="0"/>
+      <c r="PE12" s="0"/>
+      <c r="PF12" s="0"/>
+      <c r="PG12" s="0"/>
+      <c r="PH12" s="0"/>
+      <c r="PI12" s="0"/>
+      <c r="PJ12" s="0"/>
+      <c r="PK12" s="0"/>
+      <c r="PL12" s="0"/>
+      <c r="PM12" s="0"/>
+      <c r="PN12" s="0"/>
+      <c r="PO12" s="0"/>
+      <c r="PP12" s="0"/>
+      <c r="PQ12" s="0"/>
+      <c r="PR12" s="0"/>
+      <c r="PS12" s="0"/>
+      <c r="PT12" s="0"/>
+      <c r="PU12" s="0"/>
+      <c r="PV12" s="0"/>
+      <c r="PW12" s="0"/>
+      <c r="PX12" s="0"/>
+      <c r="PY12" s="0"/>
+      <c r="PZ12" s="0"/>
+      <c r="QA12" s="0"/>
+      <c r="QB12" s="0"/>
+      <c r="QC12" s="0"/>
+      <c r="QD12" s="0"/>
+      <c r="QE12" s="0"/>
+      <c r="QF12" s="0"/>
+      <c r="QG12" s="0"/>
+      <c r="QH12" s="0"/>
+      <c r="QI12" s="0"/>
+      <c r="QJ12" s="0"/>
+      <c r="QK12" s="0"/>
+      <c r="QL12" s="0"/>
+      <c r="QM12" s="0"/>
+      <c r="QN12" s="0"/>
+      <c r="QO12" s="0"/>
+      <c r="QP12" s="0"/>
+      <c r="QQ12" s="0"/>
+      <c r="QR12" s="0"/>
+      <c r="QS12" s="0"/>
+      <c r="QT12" s="0"/>
+      <c r="QU12" s="0"/>
+      <c r="QV12" s="0"/>
+      <c r="QW12" s="0"/>
+      <c r="QX12" s="0"/>
+      <c r="QY12" s="0"/>
+      <c r="QZ12" s="0"/>
+      <c r="RA12" s="0"/>
+      <c r="RB12" s="0"/>
+      <c r="RC12" s="0"/>
+      <c r="RD12" s="0"/>
+      <c r="RE12" s="0"/>
+      <c r="RF12" s="0"/>
+      <c r="RG12" s="0"/>
+      <c r="RH12" s="0"/>
+      <c r="RI12" s="0"/>
+      <c r="RJ12" s="0"/>
+      <c r="RK12" s="0"/>
+      <c r="RL12" s="0"/>
+      <c r="RM12" s="0"/>
+      <c r="RN12" s="0"/>
+      <c r="RO12" s="0"/>
+      <c r="RP12" s="0"/>
+      <c r="RQ12" s="0"/>
+      <c r="RR12" s="0"/>
+      <c r="RS12" s="0"/>
+      <c r="RT12" s="0"/>
+      <c r="RU12" s="0"/>
+      <c r="RV12" s="0"/>
+      <c r="RW12" s="0"/>
+      <c r="RX12" s="0"/>
+      <c r="RY12" s="0"/>
+      <c r="RZ12" s="0"/>
+      <c r="SA12" s="0"/>
+      <c r="SB12" s="0"/>
+      <c r="SC12" s="0"/>
+      <c r="SD12" s="0"/>
+      <c r="SE12" s="0"/>
+      <c r="SF12" s="0"/>
+      <c r="SG12" s="0"/>
+      <c r="SH12" s="0"/>
+      <c r="SI12" s="0"/>
+      <c r="SJ12" s="0"/>
+      <c r="SK12" s="0"/>
+      <c r="SL12" s="0"/>
+      <c r="SM12" s="0"/>
+      <c r="SN12" s="0"/>
+      <c r="SO12" s="0"/>
+      <c r="SP12" s="0"/>
+      <c r="SQ12" s="0"/>
+      <c r="SR12" s="0"/>
+      <c r="SS12" s="0"/>
+      <c r="ST12" s="0"/>
+      <c r="SU12" s="0"/>
+      <c r="SV12" s="0"/>
+      <c r="SW12" s="0"/>
+      <c r="SX12" s="0"/>
+      <c r="SY12" s="0"/>
+      <c r="SZ12" s="0"/>
+      <c r="TA12" s="0"/>
+      <c r="TB12" s="0"/>
+      <c r="TC12" s="0"/>
+      <c r="TD12" s="0"/>
+      <c r="TE12" s="0"/>
+      <c r="TF12" s="0"/>
+      <c r="TG12" s="0"/>
+      <c r="TH12" s="0"/>
+      <c r="TI12" s="0"/>
+      <c r="TJ12" s="0"/>
+      <c r="TK12" s="0"/>
+      <c r="TL12" s="0"/>
+      <c r="TM12" s="0"/>
+      <c r="TN12" s="0"/>
+      <c r="TO12" s="0"/>
+      <c r="TP12" s="0"/>
+      <c r="TQ12" s="0"/>
+      <c r="TR12" s="0"/>
+      <c r="TS12" s="0"/>
+      <c r="TT12" s="0"/>
+      <c r="TU12" s="0"/>
+      <c r="TV12" s="0"/>
+      <c r="TW12" s="0"/>
+      <c r="TX12" s="0"/>
+      <c r="TY12" s="0"/>
+      <c r="TZ12" s="0"/>
+      <c r="UA12" s="0"/>
+      <c r="UB12" s="0"/>
+      <c r="UC12" s="0"/>
+      <c r="UD12" s="0"/>
+      <c r="UE12" s="0"/>
+      <c r="UF12" s="0"/>
+      <c r="UG12" s="0"/>
+      <c r="UH12" s="0"/>
+      <c r="UI12" s="0"/>
+      <c r="UJ12" s="0"/>
+      <c r="UK12" s="0"/>
+      <c r="UL12" s="0"/>
+      <c r="UM12" s="0"/>
+      <c r="UN12" s="0"/>
+      <c r="UO12" s="0"/>
+      <c r="UP12" s="0"/>
+      <c r="UQ12" s="0"/>
+      <c r="UR12" s="0"/>
+      <c r="US12" s="0"/>
+      <c r="UT12" s="0"/>
+      <c r="UU12" s="0"/>
+      <c r="UV12" s="0"/>
+      <c r="UW12" s="0"/>
+      <c r="UX12" s="0"/>
+      <c r="UY12" s="0"/>
+      <c r="UZ12" s="0"/>
+      <c r="VA12" s="0"/>
+      <c r="VB12" s="0"/>
+      <c r="VC12" s="0"/>
+      <c r="VD12" s="0"/>
+      <c r="VE12" s="0"/>
+      <c r="VF12" s="0"/>
+      <c r="VG12" s="0"/>
+      <c r="VH12" s="0"/>
+      <c r="VI12" s="0"/>
+      <c r="VJ12" s="0"/>
+      <c r="VK12" s="0"/>
+      <c r="VL12" s="0"/>
+      <c r="VM12" s="0"/>
+      <c r="VN12" s="0"/>
+      <c r="VO12" s="0"/>
+      <c r="VP12" s="0"/>
+      <c r="VQ12" s="0"/>
+      <c r="VR12" s="0"/>
+      <c r="VS12" s="0"/>
+      <c r="VT12" s="0"/>
+      <c r="VU12" s="0"/>
+      <c r="VV12" s="0"/>
+      <c r="VW12" s="0"/>
+      <c r="VX12" s="0"/>
+      <c r="VY12" s="0"/>
+      <c r="VZ12" s="0"/>
+      <c r="WA12" s="0"/>
+      <c r="WB12" s="0"/>
+      <c r="WC12" s="0"/>
+      <c r="WD12" s="0"/>
+      <c r="WE12" s="0"/>
+      <c r="WF12" s="0"/>
+      <c r="WG12" s="0"/>
+      <c r="WH12" s="0"/>
+      <c r="WI12" s="0"/>
+      <c r="WJ12" s="0"/>
+      <c r="WK12" s="0"/>
+      <c r="WL12" s="0"/>
+      <c r="WM12" s="0"/>
+      <c r="WN12" s="0"/>
+      <c r="WO12" s="0"/>
+      <c r="WP12" s="0"/>
+      <c r="WQ12" s="0"/>
+      <c r="WR12" s="0"/>
+      <c r="WS12" s="0"/>
+      <c r="WT12" s="0"/>
+      <c r="WU12" s="0"/>
+      <c r="WV12" s="0"/>
+      <c r="WW12" s="0"/>
+      <c r="WX12" s="0"/>
+      <c r="WY12" s="0"/>
+      <c r="WZ12" s="0"/>
+      <c r="XA12" s="0"/>
+      <c r="XB12" s="0"/>
+      <c r="XC12" s="0"/>
+      <c r="XD12" s="0"/>
+      <c r="XE12" s="0"/>
+      <c r="XF12" s="0"/>
+      <c r="XG12" s="0"/>
+      <c r="XH12" s="0"/>
+      <c r="XI12" s="0"/>
+      <c r="XJ12" s="0"/>
+      <c r="XK12" s="0"/>
+      <c r="XL12" s="0"/>
+      <c r="XM12" s="0"/>
+      <c r="XN12" s="0"/>
+      <c r="XO12" s="0"/>
+      <c r="XP12" s="0"/>
+      <c r="XQ12" s="0"/>
+      <c r="XR12" s="0"/>
+      <c r="XS12" s="0"/>
+      <c r="XT12" s="0"/>
+      <c r="XU12" s="0"/>
+      <c r="XV12" s="0"/>
+      <c r="XW12" s="0"/>
+      <c r="XX12" s="0"/>
+      <c r="XY12" s="0"/>
+      <c r="XZ12" s="0"/>
+      <c r="YA12" s="0"/>
+      <c r="YB12" s="0"/>
+      <c r="YC12" s="0"/>
+      <c r="YD12" s="0"/>
+      <c r="YE12" s="0"/>
+      <c r="YF12" s="0"/>
+      <c r="YG12" s="0"/>
+      <c r="YH12" s="0"/>
+      <c r="YI12" s="0"/>
+      <c r="YJ12" s="0"/>
+      <c r="YK12" s="0"/>
+      <c r="YL12" s="0"/>
+      <c r="YM12" s="0"/>
+      <c r="YN12" s="0"/>
+      <c r="YO12" s="0"/>
+      <c r="YP12" s="0"/>
+      <c r="YQ12" s="0"/>
+      <c r="YR12" s="0"/>
+      <c r="YS12" s="0"/>
+      <c r="YT12" s="0"/>
+      <c r="YU12" s="0"/>
+      <c r="YV12" s="0"/>
+      <c r="YW12" s="0"/>
+      <c r="YX12" s="0"/>
+      <c r="YY12" s="0"/>
+      <c r="YZ12" s="0"/>
+      <c r="ZA12" s="0"/>
+      <c r="ZB12" s="0"/>
+      <c r="ZC12" s="0"/>
+      <c r="ZD12" s="0"/>
+      <c r="ZE12" s="0"/>
+      <c r="ZF12" s="0"/>
+      <c r="ZG12" s="0"/>
+      <c r="ZH12" s="0"/>
+      <c r="ZI12" s="0"/>
+      <c r="ZJ12" s="0"/>
+      <c r="ZK12" s="0"/>
+      <c r="ZL12" s="0"/>
+      <c r="ZM12" s="0"/>
+      <c r="ZN12" s="0"/>
+      <c r="ZO12" s="0"/>
+      <c r="ZP12" s="0"/>
+      <c r="ZQ12" s="0"/>
+      <c r="ZR12" s="0"/>
+      <c r="ZS12" s="0"/>
+      <c r="ZT12" s="0"/>
+      <c r="ZU12" s="0"/>
+      <c r="ZV12" s="0"/>
+      <c r="ZW12" s="0"/>
+      <c r="ZX12" s="0"/>
+      <c r="ZY12" s="0"/>
+      <c r="ZZ12" s="0"/>
+      <c r="AAA12" s="0"/>
+      <c r="AAB12" s="0"/>
+      <c r="AAC12" s="0"/>
+      <c r="AAD12" s="0"/>
+      <c r="AAE12" s="0"/>
+      <c r="AAF12" s="0"/>
+      <c r="AAG12" s="0"/>
+      <c r="AAH12" s="0"/>
+      <c r="AAI12" s="0"/>
+      <c r="AAJ12" s="0"/>
+      <c r="AAK12" s="0"/>
+      <c r="AAL12" s="0"/>
+      <c r="AAM12" s="0"/>
+      <c r="AAN12" s="0"/>
+      <c r="AAO12" s="0"/>
+      <c r="AAP12" s="0"/>
+      <c r="AAQ12" s="0"/>
+      <c r="AAR12" s="0"/>
+      <c r="AAS12" s="0"/>
+      <c r="AAT12" s="0"/>
+      <c r="AAU12" s="0"/>
+      <c r="AAV12" s="0"/>
+      <c r="AAW12" s="0"/>
+      <c r="AAX12" s="0"/>
+      <c r="AAY12" s="0"/>
+      <c r="AAZ12" s="0"/>
+      <c r="ABA12" s="0"/>
+      <c r="ABB12" s="0"/>
+      <c r="ABC12" s="0"/>
+      <c r="ABD12" s="0"/>
+      <c r="ABE12" s="0"/>
+      <c r="ABF12" s="0"/>
+      <c r="ABG12" s="0"/>
+      <c r="ABH12" s="0"/>
+      <c r="ABI12" s="0"/>
+      <c r="ABJ12" s="0"/>
+      <c r="ABK12" s="0"/>
+      <c r="ABL12" s="0"/>
+      <c r="ABM12" s="0"/>
+      <c r="ABN12" s="0"/>
+      <c r="ABO12" s="0"/>
+      <c r="ABP12" s="0"/>
+      <c r="ABQ12" s="0"/>
+      <c r="ABR12" s="0"/>
+      <c r="ABS12" s="0"/>
+      <c r="ABT12" s="0"/>
+      <c r="ABU12" s="0"/>
+      <c r="ABV12" s="0"/>
+      <c r="ABW12" s="0"/>
+      <c r="ABX12" s="0"/>
+      <c r="ABY12" s="0"/>
+      <c r="ABZ12" s="0"/>
+      <c r="ACA12" s="0"/>
+      <c r="ACB12" s="0"/>
+      <c r="ACC12" s="0"/>
+      <c r="ACD12" s="0"/>
+      <c r="ACE12" s="0"/>
+      <c r="ACF12" s="0"/>
+      <c r="ACG12" s="0"/>
+      <c r="ACH12" s="0"/>
+      <c r="ACI12" s="0"/>
+      <c r="ACJ12" s="0"/>
+      <c r="ACK12" s="0"/>
+      <c r="ACL12" s="0"/>
+      <c r="ACM12" s="0"/>
+      <c r="ACN12" s="0"/>
+      <c r="ACO12" s="0"/>
+      <c r="ACP12" s="0"/>
+      <c r="ACQ12" s="0"/>
+      <c r="ACR12" s="0"/>
+      <c r="ACS12" s="0"/>
+      <c r="ACT12" s="0"/>
+      <c r="ACU12" s="0"/>
+      <c r="ACV12" s="0"/>
+      <c r="ACW12" s="0"/>
+      <c r="ACX12" s="0"/>
+      <c r="ACY12" s="0"/>
+      <c r="ACZ12" s="0"/>
+      <c r="ADA12" s="0"/>
+      <c r="ADB12" s="0"/>
+      <c r="ADC12" s="0"/>
+      <c r="ADD12" s="0"/>
+      <c r="ADE12" s="0"/>
+      <c r="ADF12" s="0"/>
+      <c r="ADG12" s="0"/>
+      <c r="ADH12" s="0"/>
+      <c r="ADI12" s="0"/>
+      <c r="ADJ12" s="0"/>
+      <c r="ADK12" s="0"/>
+      <c r="ADL12" s="0"/>
+      <c r="ADM12" s="0"/>
+      <c r="ADN12" s="0"/>
+      <c r="ADO12" s="0"/>
+      <c r="ADP12" s="0"/>
+      <c r="ADQ12" s="0"/>
+      <c r="ADR12" s="0"/>
+      <c r="ADS12" s="0"/>
+      <c r="ADT12" s="0"/>
+      <c r="ADU12" s="0"/>
+      <c r="ADV12" s="0"/>
+      <c r="ADW12" s="0"/>
+      <c r="ADX12" s="0"/>
+      <c r="ADY12" s="0"/>
+      <c r="ADZ12" s="0"/>
+      <c r="AEA12" s="0"/>
+      <c r="AEB12" s="0"/>
+      <c r="AEC12" s="0"/>
+      <c r="AED12" s="0"/>
+      <c r="AEE12" s="0"/>
+      <c r="AEF12" s="0"/>
+      <c r="AEG12" s="0"/>
+      <c r="AEH12" s="0"/>
+      <c r="AEI12" s="0"/>
+      <c r="AEJ12" s="0"/>
+      <c r="AEK12" s="0"/>
+      <c r="AEL12" s="0"/>
+      <c r="AEM12" s="0"/>
+      <c r="AEN12" s="0"/>
+      <c r="AEO12" s="0"/>
+      <c r="AEP12" s="0"/>
+      <c r="AEQ12" s="0"/>
+      <c r="AER12" s="0"/>
+      <c r="AES12" s="0"/>
+      <c r="AET12" s="0"/>
+      <c r="AEU12" s="0"/>
+      <c r="AEV12" s="0"/>
+      <c r="AEW12" s="0"/>
+      <c r="AEX12" s="0"/>
+      <c r="AEY12" s="0"/>
+      <c r="AEZ12" s="0"/>
+      <c r="AFA12" s="0"/>
+      <c r="AFB12" s="0"/>
+      <c r="AFC12" s="0"/>
+      <c r="AFD12" s="0"/>
+      <c r="AFE12" s="0"/>
+      <c r="AFF12" s="0"/>
+      <c r="AFG12" s="0"/>
+      <c r="AFH12" s="0"/>
+      <c r="AFI12" s="0"/>
+      <c r="AFJ12" s="0"/>
+      <c r="AFK12" s="0"/>
+      <c r="AFL12" s="0"/>
+      <c r="AFM12" s="0"/>
+      <c r="AFN12" s="0"/>
+      <c r="AFO12" s="0"/>
+      <c r="AFP12" s="0"/>
+      <c r="AFQ12" s="0"/>
+      <c r="AFR12" s="0"/>
+      <c r="AFS12" s="0"/>
+      <c r="AFT12" s="0"/>
+      <c r="AFU12" s="0"/>
+      <c r="AFV12" s="0"/>
+      <c r="AFW12" s="0"/>
+      <c r="AFX12" s="0"/>
+      <c r="AFY12" s="0"/>
+      <c r="AFZ12" s="0"/>
+      <c r="AGA12" s="0"/>
+      <c r="AGB12" s="0"/>
+      <c r="AGC12" s="0"/>
+      <c r="AGD12" s="0"/>
+      <c r="AGE12" s="0"/>
+      <c r="AGF12" s="0"/>
+      <c r="AGG12" s="0"/>
+      <c r="AGH12" s="0"/>
+      <c r="AGI12" s="0"/>
+      <c r="AGJ12" s="0"/>
+      <c r="AGK12" s="0"/>
+      <c r="AGL12" s="0"/>
+      <c r="AGM12" s="0"/>
+      <c r="AGN12" s="0"/>
+      <c r="AGO12" s="0"/>
+      <c r="AGP12" s="0"/>
+      <c r="AGQ12" s="0"/>
+      <c r="AGR12" s="0"/>
+      <c r="AGS12" s="0"/>
+      <c r="AGT12" s="0"/>
+      <c r="AGU12" s="0"/>
+      <c r="AGV12" s="0"/>
+      <c r="AGW12" s="0"/>
+      <c r="AGX12" s="0"/>
+      <c r="AGY12" s="0"/>
+      <c r="AGZ12" s="0"/>
+      <c r="AHA12" s="0"/>
+      <c r="AHB12" s="0"/>
+      <c r="AHC12" s="0"/>
+      <c r="AHD12" s="0"/>
+      <c r="AHE12" s="0"/>
+      <c r="AHF12" s="0"/>
+      <c r="AHG12" s="0"/>
+      <c r="AHH12" s="0"/>
+      <c r="AHI12" s="0"/>
+      <c r="AHJ12" s="0"/>
+      <c r="AHK12" s="0"/>
+      <c r="AHL12" s="0"/>
+      <c r="AHM12" s="0"/>
+      <c r="AHN12" s="0"/>
+      <c r="AHO12" s="0"/>
+      <c r="AHP12" s="0"/>
+      <c r="AHQ12" s="0"/>
+      <c r="AHR12" s="0"/>
+      <c r="AHS12" s="0"/>
+      <c r="AHT12" s="0"/>
+      <c r="AHU12" s="0"/>
+      <c r="AHV12" s="0"/>
+      <c r="AHW12" s="0"/>
+      <c r="AHX12" s="0"/>
+      <c r="AHY12" s="0"/>
+      <c r="AHZ12" s="0"/>
+      <c r="AIA12" s="0"/>
+      <c r="AIB12" s="0"/>
+      <c r="AIC12" s="0"/>
+      <c r="AID12" s="0"/>
+      <c r="AIE12" s="0"/>
+      <c r="AIF12" s="0"/>
+      <c r="AIG12" s="0"/>
+      <c r="AIH12" s="0"/>
+      <c r="AII12" s="0"/>
+      <c r="AIJ12" s="0"/>
+      <c r="AIK12" s="0"/>
+      <c r="AIL12" s="0"/>
+      <c r="AIM12" s="0"/>
+      <c r="AIN12" s="0"/>
+      <c r="AIO12" s="0"/>
+      <c r="AIP12" s="0"/>
+      <c r="AIQ12" s="0"/>
+      <c r="AIR12" s="0"/>
+      <c r="AIS12" s="0"/>
+      <c r="AIT12" s="0"/>
+      <c r="AIU12" s="0"/>
+      <c r="AIV12" s="0"/>
+      <c r="AIW12" s="0"/>
+      <c r="AIX12" s="0"/>
+      <c r="AIY12" s="0"/>
+      <c r="AIZ12" s="0"/>
+      <c r="AJA12" s="0"/>
+      <c r="AJB12" s="0"/>
+      <c r="AJC12" s="0"/>
+      <c r="AJD12" s="0"/>
+      <c r="AJE12" s="0"/>
+      <c r="AJF12" s="0"/>
+      <c r="AJG12" s="0"/>
+      <c r="AJH12" s="0"/>
+      <c r="AJI12" s="0"/>
+      <c r="AJJ12" s="0"/>
+      <c r="AJK12" s="0"/>
+      <c r="AJL12" s="0"/>
+      <c r="AJM12" s="0"/>
+      <c r="AJN12" s="0"/>
+      <c r="AJO12" s="0"/>
+      <c r="AJP12" s="0"/>
+      <c r="AJQ12" s="0"/>
+      <c r="AJR12" s="0"/>
+      <c r="AJS12" s="0"/>
+      <c r="AJT12" s="0"/>
+      <c r="AJU12" s="0"/>
+      <c r="AJV12" s="0"/>
+      <c r="AJW12" s="0"/>
+      <c r="AJX12" s="0"/>
+      <c r="AJY12" s="0"/>
+      <c r="AJZ12" s="0"/>
+      <c r="AKA12" s="0"/>
+      <c r="AKB12" s="0"/>
+      <c r="AKC12" s="0"/>
+      <c r="AKD12" s="0"/>
+      <c r="AKE12" s="0"/>
+      <c r="AKF12" s="0"/>
+      <c r="AKG12" s="0"/>
+      <c r="AKH12" s="0"/>
+      <c r="AKI12" s="0"/>
+      <c r="AKJ12" s="0"/>
+      <c r="AKK12" s="0"/>
+      <c r="AKL12" s="0"/>
+      <c r="AKM12" s="0"/>
+      <c r="AKN12" s="0"/>
+      <c r="AKO12" s="0"/>
+      <c r="AKP12" s="0"/>
+      <c r="AKQ12" s="0"/>
+      <c r="AKR12" s="0"/>
+      <c r="AKS12" s="0"/>
+      <c r="AKT12" s="0"/>
+      <c r="AKU12" s="0"/>
+      <c r="AKV12" s="0"/>
+      <c r="AKW12" s="0"/>
+      <c r="AKX12" s="0"/>
+      <c r="AKY12" s="0"/>
+      <c r="AKZ12" s="0"/>
+      <c r="ALA12" s="0"/>
+      <c r="ALB12" s="0"/>
+      <c r="ALC12" s="0"/>
+      <c r="ALD12" s="0"/>
+      <c r="ALE12" s="0"/>
+      <c r="ALF12" s="0"/>
+      <c r="ALG12" s="0"/>
+      <c r="ALH12" s="0"/>
+      <c r="ALI12" s="0"/>
+      <c r="ALJ12" s="0"/>
+      <c r="ALK12" s="0"/>
+      <c r="ALL12" s="0"/>
+      <c r="ALM12" s="0"/>
+      <c r="ALN12" s="0"/>
+      <c r="ALO12" s="0"/>
+      <c r="ALP12" s="0"/>
+      <c r="ALQ12" s="0"/>
+      <c r="ALR12" s="0"/>
+      <c r="ALS12" s="0"/>
+      <c r="ALT12" s="0"/>
+      <c r="ALU12" s="0"/>
+      <c r="ALV12" s="0"/>
+      <c r="ALW12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="0"/>
+      <c r="AMA12" s="0"/>
+      <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
+    <row r="13" s="20" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="19" t="e">
+        <f aca="true">INDIRECT( "H" &amp; ROW() )+INDIRECT( "G" &amp; ROW() )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="15" t="e">
+        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
@@ -13832,20 +13921,27 @@
       <c r="AME14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23" t="s">
+        <v>17</v>
       </c>
-      <c r="I15" s="0"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="15" t="e">
+        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="J15" s="0"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
@@ -14854,18 +14950,16 @@
       <c r="AMD15" s="0"/>
       <c r="AME15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
+    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="0"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
@@ -15877,25 +15971,21 @@
       <c r="AMD16" s="0"/>
       <c r="AME16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2"/>
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
@@ -16905,17 +16995,17 @@
       <c r="AME17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
+      <c r="A18" s="1" t="s">
+        <v>33</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
@@ -17927,15 +18017,21 @@
       <c r="AMD18" s="0"/>
       <c r="AME18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="0"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
@@ -18948,15 +19044,17 @@
       <c r="AMD19" s="0"/>
       <c r="AME19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="0"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
@@ -19970,14 +20068,14 @@
       <c r="AME20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -20991,14 +21089,14 @@
       <c r="AME21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -22011,50 +22109,2092 @@
       <c r="AMD22" s="0"/>
       <c r="AME22" s="0"/>
     </row>
-    <row r="23" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
       <c r="E23" s="0"/>
-      <c r="F23" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
-      <c r="L23" s="22"/>
-      <c r="AMF23" s="22"/>
-      <c r="AMG23" s="22"/>
-      <c r="AMH23" s="0"/>
-      <c r="AMI23" s="0"/>
-      <c r="AMJ23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
+      <c r="X23" s="0"/>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
+      <c r="AB23" s="0"/>
+      <c r="AC23" s="0"/>
+      <c r="AD23" s="0"/>
+      <c r="AE23" s="0"/>
+      <c r="AF23" s="0"/>
+      <c r="AG23" s="0"/>
+      <c r="AH23" s="0"/>
+      <c r="AI23" s="0"/>
+      <c r="AJ23" s="0"/>
+      <c r="AK23" s="0"/>
+      <c r="AL23" s="0"/>
+      <c r="AM23" s="0"/>
+      <c r="AN23" s="0"/>
+      <c r="AO23" s="0"/>
+      <c r="AP23" s="0"/>
+      <c r="AQ23" s="0"/>
+      <c r="AR23" s="0"/>
+      <c r="AS23" s="0"/>
+      <c r="AT23" s="0"/>
+      <c r="AU23" s="0"/>
+      <c r="AV23" s="0"/>
+      <c r="AW23" s="0"/>
+      <c r="AX23" s="0"/>
+      <c r="AY23" s="0"/>
+      <c r="AZ23" s="0"/>
+      <c r="BA23" s="0"/>
+      <c r="BB23" s="0"/>
+      <c r="BC23" s="0"/>
+      <c r="BD23" s="0"/>
+      <c r="BE23" s="0"/>
+      <c r="BF23" s="0"/>
+      <c r="BG23" s="0"/>
+      <c r="BH23" s="0"/>
+      <c r="BI23" s="0"/>
+      <c r="BJ23" s="0"/>
+      <c r="BK23" s="0"/>
+      <c r="BL23" s="0"/>
+      <c r="BM23" s="0"/>
+      <c r="BN23" s="0"/>
+      <c r="BO23" s="0"/>
+      <c r="BP23" s="0"/>
+      <c r="BQ23" s="0"/>
+      <c r="BR23" s="0"/>
+      <c r="BS23" s="0"/>
+      <c r="BT23" s="0"/>
+      <c r="BU23" s="0"/>
+      <c r="BV23" s="0"/>
+      <c r="BW23" s="0"/>
+      <c r="BX23" s="0"/>
+      <c r="BY23" s="0"/>
+      <c r="BZ23" s="0"/>
+      <c r="CA23" s="0"/>
+      <c r="CB23" s="0"/>
+      <c r="CC23" s="0"/>
+      <c r="CD23" s="0"/>
+      <c r="CE23" s="0"/>
+      <c r="CF23" s="0"/>
+      <c r="CG23" s="0"/>
+      <c r="CH23" s="0"/>
+      <c r="CI23" s="0"/>
+      <c r="CJ23" s="0"/>
+      <c r="CK23" s="0"/>
+      <c r="CL23" s="0"/>
+      <c r="CM23" s="0"/>
+      <c r="CN23" s="0"/>
+      <c r="CO23" s="0"/>
+      <c r="CP23" s="0"/>
+      <c r="CQ23" s="0"/>
+      <c r="CR23" s="0"/>
+      <c r="CS23" s="0"/>
+      <c r="CT23" s="0"/>
+      <c r="CU23" s="0"/>
+      <c r="CV23" s="0"/>
+      <c r="CW23" s="0"/>
+      <c r="CX23" s="0"/>
+      <c r="CY23" s="0"/>
+      <c r="CZ23" s="0"/>
+      <c r="DA23" s="0"/>
+      <c r="DB23" s="0"/>
+      <c r="DC23" s="0"/>
+      <c r="DD23" s="0"/>
+      <c r="DE23" s="0"/>
+      <c r="DF23" s="0"/>
+      <c r="DG23" s="0"/>
+      <c r="DH23" s="0"/>
+      <c r="DI23" s="0"/>
+      <c r="DJ23" s="0"/>
+      <c r="DK23" s="0"/>
+      <c r="DL23" s="0"/>
+      <c r="DM23" s="0"/>
+      <c r="DN23" s="0"/>
+      <c r="DO23" s="0"/>
+      <c r="DP23" s="0"/>
+      <c r="DQ23" s="0"/>
+      <c r="DR23" s="0"/>
+      <c r="DS23" s="0"/>
+      <c r="DT23" s="0"/>
+      <c r="DU23" s="0"/>
+      <c r="DV23" s="0"/>
+      <c r="DW23" s="0"/>
+      <c r="DX23" s="0"/>
+      <c r="DY23" s="0"/>
+      <c r="DZ23" s="0"/>
+      <c r="EA23" s="0"/>
+      <c r="EB23" s="0"/>
+      <c r="EC23" s="0"/>
+      <c r="ED23" s="0"/>
+      <c r="EE23" s="0"/>
+      <c r="EF23" s="0"/>
+      <c r="EG23" s="0"/>
+      <c r="EH23" s="0"/>
+      <c r="EI23" s="0"/>
+      <c r="EJ23" s="0"/>
+      <c r="EK23" s="0"/>
+      <c r="EL23" s="0"/>
+      <c r="EM23" s="0"/>
+      <c r="EN23" s="0"/>
+      <c r="EO23" s="0"/>
+      <c r="EP23" s="0"/>
+      <c r="EQ23" s="0"/>
+      <c r="ER23" s="0"/>
+      <c r="ES23" s="0"/>
+      <c r="ET23" s="0"/>
+      <c r="EU23" s="0"/>
+      <c r="EV23" s="0"/>
+      <c r="EW23" s="0"/>
+      <c r="EX23" s="0"/>
+      <c r="EY23" s="0"/>
+      <c r="EZ23" s="0"/>
+      <c r="FA23" s="0"/>
+      <c r="FB23" s="0"/>
+      <c r="FC23" s="0"/>
+      <c r="FD23" s="0"/>
+      <c r="FE23" s="0"/>
+      <c r="FF23" s="0"/>
+      <c r="FG23" s="0"/>
+      <c r="FH23" s="0"/>
+      <c r="FI23" s="0"/>
+      <c r="FJ23" s="0"/>
+      <c r="FK23" s="0"/>
+      <c r="FL23" s="0"/>
+      <c r="FM23" s="0"/>
+      <c r="FN23" s="0"/>
+      <c r="FO23" s="0"/>
+      <c r="FP23" s="0"/>
+      <c r="FQ23" s="0"/>
+      <c r="FR23" s="0"/>
+      <c r="FS23" s="0"/>
+      <c r="FT23" s="0"/>
+      <c r="FU23" s="0"/>
+      <c r="FV23" s="0"/>
+      <c r="FW23" s="0"/>
+      <c r="FX23" s="0"/>
+      <c r="FY23" s="0"/>
+      <c r="FZ23" s="0"/>
+      <c r="GA23" s="0"/>
+      <c r="GB23" s="0"/>
+      <c r="GC23" s="0"/>
+      <c r="GD23" s="0"/>
+      <c r="GE23" s="0"/>
+      <c r="GF23" s="0"/>
+      <c r="GG23" s="0"/>
+      <c r="GH23" s="0"/>
+      <c r="GI23" s="0"/>
+      <c r="GJ23" s="0"/>
+      <c r="GK23" s="0"/>
+      <c r="GL23" s="0"/>
+      <c r="GM23" s="0"/>
+      <c r="GN23" s="0"/>
+      <c r="GO23" s="0"/>
+      <c r="GP23" s="0"/>
+      <c r="GQ23" s="0"/>
+      <c r="GR23" s="0"/>
+      <c r="GS23" s="0"/>
+      <c r="GT23" s="0"/>
+      <c r="GU23" s="0"/>
+      <c r="GV23" s="0"/>
+      <c r="GW23" s="0"/>
+      <c r="GX23" s="0"/>
+      <c r="GY23" s="0"/>
+      <c r="GZ23" s="0"/>
+      <c r="HA23" s="0"/>
+      <c r="HB23" s="0"/>
+      <c r="HC23" s="0"/>
+      <c r="HD23" s="0"/>
+      <c r="HE23" s="0"/>
+      <c r="HF23" s="0"/>
+      <c r="HG23" s="0"/>
+      <c r="HH23" s="0"/>
+      <c r="HI23" s="0"/>
+      <c r="HJ23" s="0"/>
+      <c r="HK23" s="0"/>
+      <c r="HL23" s="0"/>
+      <c r="HM23" s="0"/>
+      <c r="HN23" s="0"/>
+      <c r="HO23" s="0"/>
+      <c r="HP23" s="0"/>
+      <c r="HQ23" s="0"/>
+      <c r="HR23" s="0"/>
+      <c r="HS23" s="0"/>
+      <c r="HT23" s="0"/>
+      <c r="HU23" s="0"/>
+      <c r="HV23" s="0"/>
+      <c r="HW23" s="0"/>
+      <c r="HX23" s="0"/>
+      <c r="HY23" s="0"/>
+      <c r="HZ23" s="0"/>
+      <c r="IA23" s="0"/>
+      <c r="IB23" s="0"/>
+      <c r="IC23" s="0"/>
+      <c r="ID23" s="0"/>
+      <c r="IE23" s="0"/>
+      <c r="IF23" s="0"/>
+      <c r="IG23" s="0"/>
+      <c r="IH23" s="0"/>
+      <c r="II23" s="0"/>
+      <c r="IJ23" s="0"/>
+      <c r="IK23" s="0"/>
+      <c r="IL23" s="0"/>
+      <c r="IM23" s="0"/>
+      <c r="IN23" s="0"/>
+      <c r="IO23" s="0"/>
+      <c r="IP23" s="0"/>
+      <c r="IQ23" s="0"/>
+      <c r="IR23" s="0"/>
+      <c r="IS23" s="0"/>
+      <c r="IT23" s="0"/>
+      <c r="IU23" s="0"/>
+      <c r="IV23" s="0"/>
+      <c r="IW23" s="0"/>
+      <c r="IX23" s="0"/>
+      <c r="IY23" s="0"/>
+      <c r="IZ23" s="0"/>
+      <c r="JA23" s="0"/>
+      <c r="JB23" s="0"/>
+      <c r="JC23" s="0"/>
+      <c r="JD23" s="0"/>
+      <c r="JE23" s="0"/>
+      <c r="JF23" s="0"/>
+      <c r="JG23" s="0"/>
+      <c r="JH23" s="0"/>
+      <c r="JI23" s="0"/>
+      <c r="JJ23" s="0"/>
+      <c r="JK23" s="0"/>
+      <c r="JL23" s="0"/>
+      <c r="JM23" s="0"/>
+      <c r="JN23" s="0"/>
+      <c r="JO23" s="0"/>
+      <c r="JP23" s="0"/>
+      <c r="JQ23" s="0"/>
+      <c r="JR23" s="0"/>
+      <c r="JS23" s="0"/>
+      <c r="JT23" s="0"/>
+      <c r="JU23" s="0"/>
+      <c r="JV23" s="0"/>
+      <c r="JW23" s="0"/>
+      <c r="JX23" s="0"/>
+      <c r="JY23" s="0"/>
+      <c r="JZ23" s="0"/>
+      <c r="KA23" s="0"/>
+      <c r="KB23" s="0"/>
+      <c r="KC23" s="0"/>
+      <c r="KD23" s="0"/>
+      <c r="KE23" s="0"/>
+      <c r="KF23" s="0"/>
+      <c r="KG23" s="0"/>
+      <c r="KH23" s="0"/>
+      <c r="KI23" s="0"/>
+      <c r="KJ23" s="0"/>
+      <c r="KK23" s="0"/>
+      <c r="KL23" s="0"/>
+      <c r="KM23" s="0"/>
+      <c r="KN23" s="0"/>
+      <c r="KO23" s="0"/>
+      <c r="KP23" s="0"/>
+      <c r="KQ23" s="0"/>
+      <c r="KR23" s="0"/>
+      <c r="KS23" s="0"/>
+      <c r="KT23" s="0"/>
+      <c r="KU23" s="0"/>
+      <c r="KV23" s="0"/>
+      <c r="KW23" s="0"/>
+      <c r="KX23" s="0"/>
+      <c r="KY23" s="0"/>
+      <c r="KZ23" s="0"/>
+      <c r="LA23" s="0"/>
+      <c r="LB23" s="0"/>
+      <c r="LC23" s="0"/>
+      <c r="LD23" s="0"/>
+      <c r="LE23" s="0"/>
+      <c r="LF23" s="0"/>
+      <c r="LG23" s="0"/>
+      <c r="LH23" s="0"/>
+      <c r="LI23" s="0"/>
+      <c r="LJ23" s="0"/>
+      <c r="LK23" s="0"/>
+      <c r="LL23" s="0"/>
+      <c r="LM23" s="0"/>
+      <c r="LN23" s="0"/>
+      <c r="LO23" s="0"/>
+      <c r="LP23" s="0"/>
+      <c r="LQ23" s="0"/>
+      <c r="LR23" s="0"/>
+      <c r="LS23" s="0"/>
+      <c r="LT23" s="0"/>
+      <c r="LU23" s="0"/>
+      <c r="LV23" s="0"/>
+      <c r="LW23" s="0"/>
+      <c r="LX23" s="0"/>
+      <c r="LY23" s="0"/>
+      <c r="LZ23" s="0"/>
+      <c r="MA23" s="0"/>
+      <c r="MB23" s="0"/>
+      <c r="MC23" s="0"/>
+      <c r="MD23" s="0"/>
+      <c r="ME23" s="0"/>
+      <c r="MF23" s="0"/>
+      <c r="MG23" s="0"/>
+      <c r="MH23" s="0"/>
+      <c r="MI23" s="0"/>
+      <c r="MJ23" s="0"/>
+      <c r="MK23" s="0"/>
+      <c r="ML23" s="0"/>
+      <c r="MM23" s="0"/>
+      <c r="MN23" s="0"/>
+      <c r="MO23" s="0"/>
+      <c r="MP23" s="0"/>
+      <c r="MQ23" s="0"/>
+      <c r="MR23" s="0"/>
+      <c r="MS23" s="0"/>
+      <c r="MT23" s="0"/>
+      <c r="MU23" s="0"/>
+      <c r="MV23" s="0"/>
+      <c r="MW23" s="0"/>
+      <c r="MX23" s="0"/>
+      <c r="MY23" s="0"/>
+      <c r="MZ23" s="0"/>
+      <c r="NA23" s="0"/>
+      <c r="NB23" s="0"/>
+      <c r="NC23" s="0"/>
+      <c r="ND23" s="0"/>
+      <c r="NE23" s="0"/>
+      <c r="NF23" s="0"/>
+      <c r="NG23" s="0"/>
+      <c r="NH23" s="0"/>
+      <c r="NI23" s="0"/>
+      <c r="NJ23" s="0"/>
+      <c r="NK23" s="0"/>
+      <c r="NL23" s="0"/>
+      <c r="NM23" s="0"/>
+      <c r="NN23" s="0"/>
+      <c r="NO23" s="0"/>
+      <c r="NP23" s="0"/>
+      <c r="NQ23" s="0"/>
+      <c r="NR23" s="0"/>
+      <c r="NS23" s="0"/>
+      <c r="NT23" s="0"/>
+      <c r="NU23" s="0"/>
+      <c r="NV23" s="0"/>
+      <c r="NW23" s="0"/>
+      <c r="NX23" s="0"/>
+      <c r="NY23" s="0"/>
+      <c r="NZ23" s="0"/>
+      <c r="OA23" s="0"/>
+      <c r="OB23" s="0"/>
+      <c r="OC23" s="0"/>
+      <c r="OD23" s="0"/>
+      <c r="OE23" s="0"/>
+      <c r="OF23" s="0"/>
+      <c r="OG23" s="0"/>
+      <c r="OH23" s="0"/>
+      <c r="OI23" s="0"/>
+      <c r="OJ23" s="0"/>
+      <c r="OK23" s="0"/>
+      <c r="OL23" s="0"/>
+      <c r="OM23" s="0"/>
+      <c r="ON23" s="0"/>
+      <c r="OO23" s="0"/>
+      <c r="OP23" s="0"/>
+      <c r="OQ23" s="0"/>
+      <c r="OR23" s="0"/>
+      <c r="OS23" s="0"/>
+      <c r="OT23" s="0"/>
+      <c r="OU23" s="0"/>
+      <c r="OV23" s="0"/>
+      <c r="OW23" s="0"/>
+      <c r="OX23" s="0"/>
+      <c r="OY23" s="0"/>
+      <c r="OZ23" s="0"/>
+      <c r="PA23" s="0"/>
+      <c r="PB23" s="0"/>
+      <c r="PC23" s="0"/>
+      <c r="PD23" s="0"/>
+      <c r="PE23" s="0"/>
+      <c r="PF23" s="0"/>
+      <c r="PG23" s="0"/>
+      <c r="PH23" s="0"/>
+      <c r="PI23" s="0"/>
+      <c r="PJ23" s="0"/>
+      <c r="PK23" s="0"/>
+      <c r="PL23" s="0"/>
+      <c r="PM23" s="0"/>
+      <c r="PN23" s="0"/>
+      <c r="PO23" s="0"/>
+      <c r="PP23" s="0"/>
+      <c r="PQ23" s="0"/>
+      <c r="PR23" s="0"/>
+      <c r="PS23" s="0"/>
+      <c r="PT23" s="0"/>
+      <c r="PU23" s="0"/>
+      <c r="PV23" s="0"/>
+      <c r="PW23" s="0"/>
+      <c r="PX23" s="0"/>
+      <c r="PY23" s="0"/>
+      <c r="PZ23" s="0"/>
+      <c r="QA23" s="0"/>
+      <c r="QB23" s="0"/>
+      <c r="QC23" s="0"/>
+      <c r="QD23" s="0"/>
+      <c r="QE23" s="0"/>
+      <c r="QF23" s="0"/>
+      <c r="QG23" s="0"/>
+      <c r="QH23" s="0"/>
+      <c r="QI23" s="0"/>
+      <c r="QJ23" s="0"/>
+      <c r="QK23" s="0"/>
+      <c r="QL23" s="0"/>
+      <c r="QM23" s="0"/>
+      <c r="QN23" s="0"/>
+      <c r="QO23" s="0"/>
+      <c r="QP23" s="0"/>
+      <c r="QQ23" s="0"/>
+      <c r="QR23" s="0"/>
+      <c r="QS23" s="0"/>
+      <c r="QT23" s="0"/>
+      <c r="QU23" s="0"/>
+      <c r="QV23" s="0"/>
+      <c r="QW23" s="0"/>
+      <c r="QX23" s="0"/>
+      <c r="QY23" s="0"/>
+      <c r="QZ23" s="0"/>
+      <c r="RA23" s="0"/>
+      <c r="RB23" s="0"/>
+      <c r="RC23" s="0"/>
+      <c r="RD23" s="0"/>
+      <c r="RE23" s="0"/>
+      <c r="RF23" s="0"/>
+      <c r="RG23" s="0"/>
+      <c r="RH23" s="0"/>
+      <c r="RI23" s="0"/>
+      <c r="RJ23" s="0"/>
+      <c r="RK23" s="0"/>
+      <c r="RL23" s="0"/>
+      <c r="RM23" s="0"/>
+      <c r="RN23" s="0"/>
+      <c r="RO23" s="0"/>
+      <c r="RP23" s="0"/>
+      <c r="RQ23" s="0"/>
+      <c r="RR23" s="0"/>
+      <c r="RS23" s="0"/>
+      <c r="RT23" s="0"/>
+      <c r="RU23" s="0"/>
+      <c r="RV23" s="0"/>
+      <c r="RW23" s="0"/>
+      <c r="RX23" s="0"/>
+      <c r="RY23" s="0"/>
+      <c r="RZ23" s="0"/>
+      <c r="SA23" s="0"/>
+      <c r="SB23" s="0"/>
+      <c r="SC23" s="0"/>
+      <c r="SD23" s="0"/>
+      <c r="SE23" s="0"/>
+      <c r="SF23" s="0"/>
+      <c r="SG23" s="0"/>
+      <c r="SH23" s="0"/>
+      <c r="SI23" s="0"/>
+      <c r="SJ23" s="0"/>
+      <c r="SK23" s="0"/>
+      <c r="SL23" s="0"/>
+      <c r="SM23" s="0"/>
+      <c r="SN23" s="0"/>
+      <c r="SO23" s="0"/>
+      <c r="SP23" s="0"/>
+      <c r="SQ23" s="0"/>
+      <c r="SR23" s="0"/>
+      <c r="SS23" s="0"/>
+      <c r="ST23" s="0"/>
+      <c r="SU23" s="0"/>
+      <c r="SV23" s="0"/>
+      <c r="SW23" s="0"/>
+      <c r="SX23" s="0"/>
+      <c r="SY23" s="0"/>
+      <c r="SZ23" s="0"/>
+      <c r="TA23" s="0"/>
+      <c r="TB23" s="0"/>
+      <c r="TC23" s="0"/>
+      <c r="TD23" s="0"/>
+      <c r="TE23" s="0"/>
+      <c r="TF23" s="0"/>
+      <c r="TG23" s="0"/>
+      <c r="TH23" s="0"/>
+      <c r="TI23" s="0"/>
+      <c r="TJ23" s="0"/>
+      <c r="TK23" s="0"/>
+      <c r="TL23" s="0"/>
+      <c r="TM23" s="0"/>
+      <c r="TN23" s="0"/>
+      <c r="TO23" s="0"/>
+      <c r="TP23" s="0"/>
+      <c r="TQ23" s="0"/>
+      <c r="TR23" s="0"/>
+      <c r="TS23" s="0"/>
+      <c r="TT23" s="0"/>
+      <c r="TU23" s="0"/>
+      <c r="TV23" s="0"/>
+      <c r="TW23" s="0"/>
+      <c r="TX23" s="0"/>
+      <c r="TY23" s="0"/>
+      <c r="TZ23" s="0"/>
+      <c r="UA23" s="0"/>
+      <c r="UB23" s="0"/>
+      <c r="UC23" s="0"/>
+      <c r="UD23" s="0"/>
+      <c r="UE23" s="0"/>
+      <c r="UF23" s="0"/>
+      <c r="UG23" s="0"/>
+      <c r="UH23" s="0"/>
+      <c r="UI23" s="0"/>
+      <c r="UJ23" s="0"/>
+      <c r="UK23" s="0"/>
+      <c r="UL23" s="0"/>
+      <c r="UM23" s="0"/>
+      <c r="UN23" s="0"/>
+      <c r="UO23" s="0"/>
+      <c r="UP23" s="0"/>
+      <c r="UQ23" s="0"/>
+      <c r="UR23" s="0"/>
+      <c r="US23" s="0"/>
+      <c r="UT23" s="0"/>
+      <c r="UU23" s="0"/>
+      <c r="UV23" s="0"/>
+      <c r="UW23" s="0"/>
+      <c r="UX23" s="0"/>
+      <c r="UY23" s="0"/>
+      <c r="UZ23" s="0"/>
+      <c r="VA23" s="0"/>
+      <c r="VB23" s="0"/>
+      <c r="VC23" s="0"/>
+      <c r="VD23" s="0"/>
+      <c r="VE23" s="0"/>
+      <c r="VF23" s="0"/>
+      <c r="VG23" s="0"/>
+      <c r="VH23" s="0"/>
+      <c r="VI23" s="0"/>
+      <c r="VJ23" s="0"/>
+      <c r="VK23" s="0"/>
+      <c r="VL23" s="0"/>
+      <c r="VM23" s="0"/>
+      <c r="VN23" s="0"/>
+      <c r="VO23" s="0"/>
+      <c r="VP23" s="0"/>
+      <c r="VQ23" s="0"/>
+      <c r="VR23" s="0"/>
+      <c r="VS23" s="0"/>
+      <c r="VT23" s="0"/>
+      <c r="VU23" s="0"/>
+      <c r="VV23" s="0"/>
+      <c r="VW23" s="0"/>
+      <c r="VX23" s="0"/>
+      <c r="VY23" s="0"/>
+      <c r="VZ23" s="0"/>
+      <c r="WA23" s="0"/>
+      <c r="WB23" s="0"/>
+      <c r="WC23" s="0"/>
+      <c r="WD23" s="0"/>
+      <c r="WE23" s="0"/>
+      <c r="WF23" s="0"/>
+      <c r="WG23" s="0"/>
+      <c r="WH23" s="0"/>
+      <c r="WI23" s="0"/>
+      <c r="WJ23" s="0"/>
+      <c r="WK23" s="0"/>
+      <c r="WL23" s="0"/>
+      <c r="WM23" s="0"/>
+      <c r="WN23" s="0"/>
+      <c r="WO23" s="0"/>
+      <c r="WP23" s="0"/>
+      <c r="WQ23" s="0"/>
+      <c r="WR23" s="0"/>
+      <c r="WS23" s="0"/>
+      <c r="WT23" s="0"/>
+      <c r="WU23" s="0"/>
+      <c r="WV23" s="0"/>
+      <c r="WW23" s="0"/>
+      <c r="WX23" s="0"/>
+      <c r="WY23" s="0"/>
+      <c r="WZ23" s="0"/>
+      <c r="XA23" s="0"/>
+      <c r="XB23" s="0"/>
+      <c r="XC23" s="0"/>
+      <c r="XD23" s="0"/>
+      <c r="XE23" s="0"/>
+      <c r="XF23" s="0"/>
+      <c r="XG23" s="0"/>
+      <c r="XH23" s="0"/>
+      <c r="XI23" s="0"/>
+      <c r="XJ23" s="0"/>
+      <c r="XK23" s="0"/>
+      <c r="XL23" s="0"/>
+      <c r="XM23" s="0"/>
+      <c r="XN23" s="0"/>
+      <c r="XO23" s="0"/>
+      <c r="XP23" s="0"/>
+      <c r="XQ23" s="0"/>
+      <c r="XR23" s="0"/>
+      <c r="XS23" s="0"/>
+      <c r="XT23" s="0"/>
+      <c r="XU23" s="0"/>
+      <c r="XV23" s="0"/>
+      <c r="XW23" s="0"/>
+      <c r="XX23" s="0"/>
+      <c r="XY23" s="0"/>
+      <c r="XZ23" s="0"/>
+      <c r="YA23" s="0"/>
+      <c r="YB23" s="0"/>
+      <c r="YC23" s="0"/>
+      <c r="YD23" s="0"/>
+      <c r="YE23" s="0"/>
+      <c r="YF23" s="0"/>
+      <c r="YG23" s="0"/>
+      <c r="YH23" s="0"/>
+      <c r="YI23" s="0"/>
+      <c r="YJ23" s="0"/>
+      <c r="YK23" s="0"/>
+      <c r="YL23" s="0"/>
+      <c r="YM23" s="0"/>
+      <c r="YN23" s="0"/>
+      <c r="YO23" s="0"/>
+      <c r="YP23" s="0"/>
+      <c r="YQ23" s="0"/>
+      <c r="YR23" s="0"/>
+      <c r="YS23" s="0"/>
+      <c r="YT23" s="0"/>
+      <c r="YU23" s="0"/>
+      <c r="YV23" s="0"/>
+      <c r="YW23" s="0"/>
+      <c r="YX23" s="0"/>
+      <c r="YY23" s="0"/>
+      <c r="YZ23" s="0"/>
+      <c r="ZA23" s="0"/>
+      <c r="ZB23" s="0"/>
+      <c r="ZC23" s="0"/>
+      <c r="ZD23" s="0"/>
+      <c r="ZE23" s="0"/>
+      <c r="ZF23" s="0"/>
+      <c r="ZG23" s="0"/>
+      <c r="ZH23" s="0"/>
+      <c r="ZI23" s="0"/>
+      <c r="ZJ23" s="0"/>
+      <c r="ZK23" s="0"/>
+      <c r="ZL23" s="0"/>
+      <c r="ZM23" s="0"/>
+      <c r="ZN23" s="0"/>
+      <c r="ZO23" s="0"/>
+      <c r="ZP23" s="0"/>
+      <c r="ZQ23" s="0"/>
+      <c r="ZR23" s="0"/>
+      <c r="ZS23" s="0"/>
+      <c r="ZT23" s="0"/>
+      <c r="ZU23" s="0"/>
+      <c r="ZV23" s="0"/>
+      <c r="ZW23" s="0"/>
+      <c r="ZX23" s="0"/>
+      <c r="ZY23" s="0"/>
+      <c r="ZZ23" s="0"/>
+      <c r="AAA23" s="0"/>
+      <c r="AAB23" s="0"/>
+      <c r="AAC23" s="0"/>
+      <c r="AAD23" s="0"/>
+      <c r="AAE23" s="0"/>
+      <c r="AAF23" s="0"/>
+      <c r="AAG23" s="0"/>
+      <c r="AAH23" s="0"/>
+      <c r="AAI23" s="0"/>
+      <c r="AAJ23" s="0"/>
+      <c r="AAK23" s="0"/>
+      <c r="AAL23" s="0"/>
+      <c r="AAM23" s="0"/>
+      <c r="AAN23" s="0"/>
+      <c r="AAO23" s="0"/>
+      <c r="AAP23" s="0"/>
+      <c r="AAQ23" s="0"/>
+      <c r="AAR23" s="0"/>
+      <c r="AAS23" s="0"/>
+      <c r="AAT23" s="0"/>
+      <c r="AAU23" s="0"/>
+      <c r="AAV23" s="0"/>
+      <c r="AAW23" s="0"/>
+      <c r="AAX23" s="0"/>
+      <c r="AAY23" s="0"/>
+      <c r="AAZ23" s="0"/>
+      <c r="ABA23" s="0"/>
+      <c r="ABB23" s="0"/>
+      <c r="ABC23" s="0"/>
+      <c r="ABD23" s="0"/>
+      <c r="ABE23" s="0"/>
+      <c r="ABF23" s="0"/>
+      <c r="ABG23" s="0"/>
+      <c r="ABH23" s="0"/>
+      <c r="ABI23" s="0"/>
+      <c r="ABJ23" s="0"/>
+      <c r="ABK23" s="0"/>
+      <c r="ABL23" s="0"/>
+      <c r="ABM23" s="0"/>
+      <c r="ABN23" s="0"/>
+      <c r="ABO23" s="0"/>
+      <c r="ABP23" s="0"/>
+      <c r="ABQ23" s="0"/>
+      <c r="ABR23" s="0"/>
+      <c r="ABS23" s="0"/>
+      <c r="ABT23" s="0"/>
+      <c r="ABU23" s="0"/>
+      <c r="ABV23" s="0"/>
+      <c r="ABW23" s="0"/>
+      <c r="ABX23" s="0"/>
+      <c r="ABY23" s="0"/>
+      <c r="ABZ23" s="0"/>
+      <c r="ACA23" s="0"/>
+      <c r="ACB23" s="0"/>
+      <c r="ACC23" s="0"/>
+      <c r="ACD23" s="0"/>
+      <c r="ACE23" s="0"/>
+      <c r="ACF23" s="0"/>
+      <c r="ACG23" s="0"/>
+      <c r="ACH23" s="0"/>
+      <c r="ACI23" s="0"/>
+      <c r="ACJ23" s="0"/>
+      <c r="ACK23" s="0"/>
+      <c r="ACL23" s="0"/>
+      <c r="ACM23" s="0"/>
+      <c r="ACN23" s="0"/>
+      <c r="ACO23" s="0"/>
+      <c r="ACP23" s="0"/>
+      <c r="ACQ23" s="0"/>
+      <c r="ACR23" s="0"/>
+      <c r="ACS23" s="0"/>
+      <c r="ACT23" s="0"/>
+      <c r="ACU23" s="0"/>
+      <c r="ACV23" s="0"/>
+      <c r="ACW23" s="0"/>
+      <c r="ACX23" s="0"/>
+      <c r="ACY23" s="0"/>
+      <c r="ACZ23" s="0"/>
+      <c r="ADA23" s="0"/>
+      <c r="ADB23" s="0"/>
+      <c r="ADC23" s="0"/>
+      <c r="ADD23" s="0"/>
+      <c r="ADE23" s="0"/>
+      <c r="ADF23" s="0"/>
+      <c r="ADG23" s="0"/>
+      <c r="ADH23" s="0"/>
+      <c r="ADI23" s="0"/>
+      <c r="ADJ23" s="0"/>
+      <c r="ADK23" s="0"/>
+      <c r="ADL23" s="0"/>
+      <c r="ADM23" s="0"/>
+      <c r="ADN23" s="0"/>
+      <c r="ADO23" s="0"/>
+      <c r="ADP23" s="0"/>
+      <c r="ADQ23" s="0"/>
+      <c r="ADR23" s="0"/>
+      <c r="ADS23" s="0"/>
+      <c r="ADT23" s="0"/>
+      <c r="ADU23" s="0"/>
+      <c r="ADV23" s="0"/>
+      <c r="ADW23" s="0"/>
+      <c r="ADX23" s="0"/>
+      <c r="ADY23" s="0"/>
+      <c r="ADZ23" s="0"/>
+      <c r="AEA23" s="0"/>
+      <c r="AEB23" s="0"/>
+      <c r="AEC23" s="0"/>
+      <c r="AED23" s="0"/>
+      <c r="AEE23" s="0"/>
+      <c r="AEF23" s="0"/>
+      <c r="AEG23" s="0"/>
+      <c r="AEH23" s="0"/>
+      <c r="AEI23" s="0"/>
+      <c r="AEJ23" s="0"/>
+      <c r="AEK23" s="0"/>
+      <c r="AEL23" s="0"/>
+      <c r="AEM23" s="0"/>
+      <c r="AEN23" s="0"/>
+      <c r="AEO23" s="0"/>
+      <c r="AEP23" s="0"/>
+      <c r="AEQ23" s="0"/>
+      <c r="AER23" s="0"/>
+      <c r="AES23" s="0"/>
+      <c r="AET23" s="0"/>
+      <c r="AEU23" s="0"/>
+      <c r="AEV23" s="0"/>
+      <c r="AEW23" s="0"/>
+      <c r="AEX23" s="0"/>
+      <c r="AEY23" s="0"/>
+      <c r="AEZ23" s="0"/>
+      <c r="AFA23" s="0"/>
+      <c r="AFB23" s="0"/>
+      <c r="AFC23" s="0"/>
+      <c r="AFD23" s="0"/>
+      <c r="AFE23" s="0"/>
+      <c r="AFF23" s="0"/>
+      <c r="AFG23" s="0"/>
+      <c r="AFH23" s="0"/>
+      <c r="AFI23" s="0"/>
+      <c r="AFJ23" s="0"/>
+      <c r="AFK23" s="0"/>
+      <c r="AFL23" s="0"/>
+      <c r="AFM23" s="0"/>
+      <c r="AFN23" s="0"/>
+      <c r="AFO23" s="0"/>
+      <c r="AFP23" s="0"/>
+      <c r="AFQ23" s="0"/>
+      <c r="AFR23" s="0"/>
+      <c r="AFS23" s="0"/>
+      <c r="AFT23" s="0"/>
+      <c r="AFU23" s="0"/>
+      <c r="AFV23" s="0"/>
+      <c r="AFW23" s="0"/>
+      <c r="AFX23" s="0"/>
+      <c r="AFY23" s="0"/>
+      <c r="AFZ23" s="0"/>
+      <c r="AGA23" s="0"/>
+      <c r="AGB23" s="0"/>
+      <c r="AGC23" s="0"/>
+      <c r="AGD23" s="0"/>
+      <c r="AGE23" s="0"/>
+      <c r="AGF23" s="0"/>
+      <c r="AGG23" s="0"/>
+      <c r="AGH23" s="0"/>
+      <c r="AGI23" s="0"/>
+      <c r="AGJ23" s="0"/>
+      <c r="AGK23" s="0"/>
+      <c r="AGL23" s="0"/>
+      <c r="AGM23" s="0"/>
+      <c r="AGN23" s="0"/>
+      <c r="AGO23" s="0"/>
+      <c r="AGP23" s="0"/>
+      <c r="AGQ23" s="0"/>
+      <c r="AGR23" s="0"/>
+      <c r="AGS23" s="0"/>
+      <c r="AGT23" s="0"/>
+      <c r="AGU23" s="0"/>
+      <c r="AGV23" s="0"/>
+      <c r="AGW23" s="0"/>
+      <c r="AGX23" s="0"/>
+      <c r="AGY23" s="0"/>
+      <c r="AGZ23" s="0"/>
+      <c r="AHA23" s="0"/>
+      <c r="AHB23" s="0"/>
+      <c r="AHC23" s="0"/>
+      <c r="AHD23" s="0"/>
+      <c r="AHE23" s="0"/>
+      <c r="AHF23" s="0"/>
+      <c r="AHG23" s="0"/>
+      <c r="AHH23" s="0"/>
+      <c r="AHI23" s="0"/>
+      <c r="AHJ23" s="0"/>
+      <c r="AHK23" s="0"/>
+      <c r="AHL23" s="0"/>
+      <c r="AHM23" s="0"/>
+      <c r="AHN23" s="0"/>
+      <c r="AHO23" s="0"/>
+      <c r="AHP23" s="0"/>
+      <c r="AHQ23" s="0"/>
+      <c r="AHR23" s="0"/>
+      <c r="AHS23" s="0"/>
+      <c r="AHT23" s="0"/>
+      <c r="AHU23" s="0"/>
+      <c r="AHV23" s="0"/>
+      <c r="AHW23" s="0"/>
+      <c r="AHX23" s="0"/>
+      <c r="AHY23" s="0"/>
+      <c r="AHZ23" s="0"/>
+      <c r="AIA23" s="0"/>
+      <c r="AIB23" s="0"/>
+      <c r="AIC23" s="0"/>
+      <c r="AID23" s="0"/>
+      <c r="AIE23" s="0"/>
+      <c r="AIF23" s="0"/>
+      <c r="AIG23" s="0"/>
+      <c r="AIH23" s="0"/>
+      <c r="AII23" s="0"/>
+      <c r="AIJ23" s="0"/>
+      <c r="AIK23" s="0"/>
+      <c r="AIL23" s="0"/>
+      <c r="AIM23" s="0"/>
+      <c r="AIN23" s="0"/>
+      <c r="AIO23" s="0"/>
+      <c r="AIP23" s="0"/>
+      <c r="AIQ23" s="0"/>
+      <c r="AIR23" s="0"/>
+      <c r="AIS23" s="0"/>
+      <c r="AIT23" s="0"/>
+      <c r="AIU23" s="0"/>
+      <c r="AIV23" s="0"/>
+      <c r="AIW23" s="0"/>
+      <c r="AIX23" s="0"/>
+      <c r="AIY23" s="0"/>
+      <c r="AIZ23" s="0"/>
+      <c r="AJA23" s="0"/>
+      <c r="AJB23" s="0"/>
+      <c r="AJC23" s="0"/>
+      <c r="AJD23" s="0"/>
+      <c r="AJE23" s="0"/>
+      <c r="AJF23" s="0"/>
+      <c r="AJG23" s="0"/>
+      <c r="AJH23" s="0"/>
+      <c r="AJI23" s="0"/>
+      <c r="AJJ23" s="0"/>
+      <c r="AJK23" s="0"/>
+      <c r="AJL23" s="0"/>
+      <c r="AJM23" s="0"/>
+      <c r="AJN23" s="0"/>
+      <c r="AJO23" s="0"/>
+      <c r="AJP23" s="0"/>
+      <c r="AJQ23" s="0"/>
+      <c r="AJR23" s="0"/>
+      <c r="AJS23" s="0"/>
+      <c r="AJT23" s="0"/>
+      <c r="AJU23" s="0"/>
+      <c r="AJV23" s="0"/>
+      <c r="AJW23" s="0"/>
+      <c r="AJX23" s="0"/>
+      <c r="AJY23" s="0"/>
+      <c r="AJZ23" s="0"/>
+      <c r="AKA23" s="0"/>
+      <c r="AKB23" s="0"/>
+      <c r="AKC23" s="0"/>
+      <c r="AKD23" s="0"/>
+      <c r="AKE23" s="0"/>
+      <c r="AKF23" s="0"/>
+      <c r="AKG23" s="0"/>
+      <c r="AKH23" s="0"/>
+      <c r="AKI23" s="0"/>
+      <c r="AKJ23" s="0"/>
+      <c r="AKK23" s="0"/>
+      <c r="AKL23" s="0"/>
+      <c r="AKM23" s="0"/>
+      <c r="AKN23" s="0"/>
+      <c r="AKO23" s="0"/>
+      <c r="AKP23" s="0"/>
+      <c r="AKQ23" s="0"/>
+      <c r="AKR23" s="0"/>
+      <c r="AKS23" s="0"/>
+      <c r="AKT23" s="0"/>
+      <c r="AKU23" s="0"/>
+      <c r="AKV23" s="0"/>
+      <c r="AKW23" s="0"/>
+      <c r="AKX23" s="0"/>
+      <c r="AKY23" s="0"/>
+      <c r="AKZ23" s="0"/>
+      <c r="ALA23" s="0"/>
+      <c r="ALB23" s="0"/>
+      <c r="ALC23" s="0"/>
+      <c r="ALD23" s="0"/>
+      <c r="ALE23" s="0"/>
+      <c r="ALF23" s="0"/>
+      <c r="ALG23" s="0"/>
+      <c r="ALH23" s="0"/>
+      <c r="ALI23" s="0"/>
+      <c r="ALJ23" s="0"/>
+      <c r="ALK23" s="0"/>
+      <c r="ALL23" s="0"/>
+      <c r="ALM23" s="0"/>
+      <c r="ALN23" s="0"/>
+      <c r="ALO23" s="0"/>
+      <c r="ALP23" s="0"/>
+      <c r="ALQ23" s="0"/>
+      <c r="ALR23" s="0"/>
+      <c r="ALS23" s="0"/>
+      <c r="ALT23" s="0"/>
+      <c r="ALU23" s="0"/>
+      <c r="ALV23" s="0"/>
+      <c r="ALW23" s="0"/>
+      <c r="ALX23" s="0"/>
+      <c r="ALY23" s="0"/>
+      <c r="ALZ23" s="0"/>
+      <c r="AMA23" s="0"/>
+      <c r="AMB23" s="0"/>
+      <c r="AMC23" s="0"/>
+      <c r="AMD23" s="0"/>
+      <c r="AME23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
       <c r="E24" s="0"/>
-      <c r="F24" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
-      <c r="L24" s="25"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+      <c r="AY24" s="0"/>
+      <c r="AZ24" s="0"/>
+      <c r="BA24" s="0"/>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+      <c r="BH24" s="0"/>
+      <c r="BI24" s="0"/>
+      <c r="BJ24" s="0"/>
+      <c r="BK24" s="0"/>
+      <c r="BL24" s="0"/>
+      <c r="BM24" s="0"/>
+      <c r="BN24" s="0"/>
+      <c r="BO24" s="0"/>
+      <c r="BP24" s="0"/>
+      <c r="BQ24" s="0"/>
+      <c r="BR24" s="0"/>
+      <c r="BS24" s="0"/>
+      <c r="BT24" s="0"/>
+      <c r="BU24" s="0"/>
+      <c r="BV24" s="0"/>
+      <c r="BW24" s="0"/>
+      <c r="BX24" s="0"/>
+      <c r="BY24" s="0"/>
+      <c r="BZ24" s="0"/>
+      <c r="CA24" s="0"/>
+      <c r="CB24" s="0"/>
+      <c r="CC24" s="0"/>
+      <c r="CD24" s="0"/>
+      <c r="CE24" s="0"/>
+      <c r="CF24" s="0"/>
+      <c r="CG24" s="0"/>
+      <c r="CH24" s="0"/>
+      <c r="CI24" s="0"/>
+      <c r="CJ24" s="0"/>
+      <c r="CK24" s="0"/>
+      <c r="CL24" s="0"/>
+      <c r="CM24" s="0"/>
+      <c r="CN24" s="0"/>
+      <c r="CO24" s="0"/>
+      <c r="CP24" s="0"/>
+      <c r="CQ24" s="0"/>
+      <c r="CR24" s="0"/>
+      <c r="CS24" s="0"/>
+      <c r="CT24" s="0"/>
+      <c r="CU24" s="0"/>
+      <c r="CV24" s="0"/>
+      <c r="CW24" s="0"/>
+      <c r="CX24" s="0"/>
+      <c r="CY24" s="0"/>
+      <c r="CZ24" s="0"/>
+      <c r="DA24" s="0"/>
+      <c r="DB24" s="0"/>
+      <c r="DC24" s="0"/>
+      <c r="DD24" s="0"/>
+      <c r="DE24" s="0"/>
+      <c r="DF24" s="0"/>
+      <c r="DG24" s="0"/>
+      <c r="DH24" s="0"/>
+      <c r="DI24" s="0"/>
+      <c r="DJ24" s="0"/>
+      <c r="DK24" s="0"/>
+      <c r="DL24" s="0"/>
+      <c r="DM24" s="0"/>
+      <c r="DN24" s="0"/>
+      <c r="DO24" s="0"/>
+      <c r="DP24" s="0"/>
+      <c r="DQ24" s="0"/>
+      <c r="DR24" s="0"/>
+      <c r="DS24" s="0"/>
+      <c r="DT24" s="0"/>
+      <c r="DU24" s="0"/>
+      <c r="DV24" s="0"/>
+      <c r="DW24" s="0"/>
+      <c r="DX24" s="0"/>
+      <c r="DY24" s="0"/>
+      <c r="DZ24" s="0"/>
+      <c r="EA24" s="0"/>
+      <c r="EB24" s="0"/>
+      <c r="EC24" s="0"/>
+      <c r="ED24" s="0"/>
+      <c r="EE24" s="0"/>
+      <c r="EF24" s="0"/>
+      <c r="EG24" s="0"/>
+      <c r="EH24" s="0"/>
+      <c r="EI24" s="0"/>
+      <c r="EJ24" s="0"/>
+      <c r="EK24" s="0"/>
+      <c r="EL24" s="0"/>
+      <c r="EM24" s="0"/>
+      <c r="EN24" s="0"/>
+      <c r="EO24" s="0"/>
+      <c r="EP24" s="0"/>
+      <c r="EQ24" s="0"/>
+      <c r="ER24" s="0"/>
+      <c r="ES24" s="0"/>
+      <c r="ET24" s="0"/>
+      <c r="EU24" s="0"/>
+      <c r="EV24" s="0"/>
+      <c r="EW24" s="0"/>
+      <c r="EX24" s="0"/>
+      <c r="EY24" s="0"/>
+      <c r="EZ24" s="0"/>
+      <c r="FA24" s="0"/>
+      <c r="FB24" s="0"/>
+      <c r="FC24" s="0"/>
+      <c r="FD24" s="0"/>
+      <c r="FE24" s="0"/>
+      <c r="FF24" s="0"/>
+      <c r="FG24" s="0"/>
+      <c r="FH24" s="0"/>
+      <c r="FI24" s="0"/>
+      <c r="FJ24" s="0"/>
+      <c r="FK24" s="0"/>
+      <c r="FL24" s="0"/>
+      <c r="FM24" s="0"/>
+      <c r="FN24" s="0"/>
+      <c r="FO24" s="0"/>
+      <c r="FP24" s="0"/>
+      <c r="FQ24" s="0"/>
+      <c r="FR24" s="0"/>
+      <c r="FS24" s="0"/>
+      <c r="FT24" s="0"/>
+      <c r="FU24" s="0"/>
+      <c r="FV24" s="0"/>
+      <c r="FW24" s="0"/>
+      <c r="FX24" s="0"/>
+      <c r="FY24" s="0"/>
+      <c r="FZ24" s="0"/>
+      <c r="GA24" s="0"/>
+      <c r="GB24" s="0"/>
+      <c r="GC24" s="0"/>
+      <c r="GD24" s="0"/>
+      <c r="GE24" s="0"/>
+      <c r="GF24" s="0"/>
+      <c r="GG24" s="0"/>
+      <c r="GH24" s="0"/>
+      <c r="GI24" s="0"/>
+      <c r="GJ24" s="0"/>
+      <c r="GK24" s="0"/>
+      <c r="GL24" s="0"/>
+      <c r="GM24" s="0"/>
+      <c r="GN24" s="0"/>
+      <c r="GO24" s="0"/>
+      <c r="GP24" s="0"/>
+      <c r="GQ24" s="0"/>
+      <c r="GR24" s="0"/>
+      <c r="GS24" s="0"/>
+      <c r="GT24" s="0"/>
+      <c r="GU24" s="0"/>
+      <c r="GV24" s="0"/>
+      <c r="GW24" s="0"/>
+      <c r="GX24" s="0"/>
+      <c r="GY24" s="0"/>
+      <c r="GZ24" s="0"/>
+      <c r="HA24" s="0"/>
+      <c r="HB24" s="0"/>
+      <c r="HC24" s="0"/>
+      <c r="HD24" s="0"/>
+      <c r="HE24" s="0"/>
+      <c r="HF24" s="0"/>
+      <c r="HG24" s="0"/>
+      <c r="HH24" s="0"/>
+      <c r="HI24" s="0"/>
+      <c r="HJ24" s="0"/>
+      <c r="HK24" s="0"/>
+      <c r="HL24" s="0"/>
+      <c r="HM24" s="0"/>
+      <c r="HN24" s="0"/>
+      <c r="HO24" s="0"/>
+      <c r="HP24" s="0"/>
+      <c r="HQ24" s="0"/>
+      <c r="HR24" s="0"/>
+      <c r="HS24" s="0"/>
+      <c r="HT24" s="0"/>
+      <c r="HU24" s="0"/>
+      <c r="HV24" s="0"/>
+      <c r="HW24" s="0"/>
+      <c r="HX24" s="0"/>
+      <c r="HY24" s="0"/>
+      <c r="HZ24" s="0"/>
+      <c r="IA24" s="0"/>
+      <c r="IB24" s="0"/>
+      <c r="IC24" s="0"/>
+      <c r="ID24" s="0"/>
+      <c r="IE24" s="0"/>
+      <c r="IF24" s="0"/>
+      <c r="IG24" s="0"/>
+      <c r="IH24" s="0"/>
+      <c r="II24" s="0"/>
+      <c r="IJ24" s="0"/>
+      <c r="IK24" s="0"/>
+      <c r="IL24" s="0"/>
+      <c r="IM24" s="0"/>
+      <c r="IN24" s="0"/>
+      <c r="IO24" s="0"/>
+      <c r="IP24" s="0"/>
+      <c r="IQ24" s="0"/>
+      <c r="IR24" s="0"/>
+      <c r="IS24" s="0"/>
+      <c r="IT24" s="0"/>
+      <c r="IU24" s="0"/>
+      <c r="IV24" s="0"/>
+      <c r="IW24" s="0"/>
+      <c r="IX24" s="0"/>
+      <c r="IY24" s="0"/>
+      <c r="IZ24" s="0"/>
+      <c r="JA24" s="0"/>
+      <c r="JB24" s="0"/>
+      <c r="JC24" s="0"/>
+      <c r="JD24" s="0"/>
+      <c r="JE24" s="0"/>
+      <c r="JF24" s="0"/>
+      <c r="JG24" s="0"/>
+      <c r="JH24" s="0"/>
+      <c r="JI24" s="0"/>
+      <c r="JJ24" s="0"/>
+      <c r="JK24" s="0"/>
+      <c r="JL24" s="0"/>
+      <c r="JM24" s="0"/>
+      <c r="JN24" s="0"/>
+      <c r="JO24" s="0"/>
+      <c r="JP24" s="0"/>
+      <c r="JQ24" s="0"/>
+      <c r="JR24" s="0"/>
+      <c r="JS24" s="0"/>
+      <c r="JT24" s="0"/>
+      <c r="JU24" s="0"/>
+      <c r="JV24" s="0"/>
+      <c r="JW24" s="0"/>
+      <c r="JX24" s="0"/>
+      <c r="JY24" s="0"/>
+      <c r="JZ24" s="0"/>
+      <c r="KA24" s="0"/>
+      <c r="KB24" s="0"/>
+      <c r="KC24" s="0"/>
+      <c r="KD24" s="0"/>
+      <c r="KE24" s="0"/>
+      <c r="KF24" s="0"/>
+      <c r="KG24" s="0"/>
+      <c r="KH24" s="0"/>
+      <c r="KI24" s="0"/>
+      <c r="KJ24" s="0"/>
+      <c r="KK24" s="0"/>
+      <c r="KL24" s="0"/>
+      <c r="KM24" s="0"/>
+      <c r="KN24" s="0"/>
+      <c r="KO24" s="0"/>
+      <c r="KP24" s="0"/>
+      <c r="KQ24" s="0"/>
+      <c r="KR24" s="0"/>
+      <c r="KS24" s="0"/>
+      <c r="KT24" s="0"/>
+      <c r="KU24" s="0"/>
+      <c r="KV24" s="0"/>
+      <c r="KW24" s="0"/>
+      <c r="KX24" s="0"/>
+      <c r="KY24" s="0"/>
+      <c r="KZ24" s="0"/>
+      <c r="LA24" s="0"/>
+      <c r="LB24" s="0"/>
+      <c r="LC24" s="0"/>
+      <c r="LD24" s="0"/>
+      <c r="LE24" s="0"/>
+      <c r="LF24" s="0"/>
+      <c r="LG24" s="0"/>
+      <c r="LH24" s="0"/>
+      <c r="LI24" s="0"/>
+      <c r="LJ24" s="0"/>
+      <c r="LK24" s="0"/>
+      <c r="LL24" s="0"/>
+      <c r="LM24" s="0"/>
+      <c r="LN24" s="0"/>
+      <c r="LO24" s="0"/>
+      <c r="LP24" s="0"/>
+      <c r="LQ24" s="0"/>
+      <c r="LR24" s="0"/>
+      <c r="LS24" s="0"/>
+      <c r="LT24" s="0"/>
+      <c r="LU24" s="0"/>
+      <c r="LV24" s="0"/>
+      <c r="LW24" s="0"/>
+      <c r="LX24" s="0"/>
+      <c r="LY24" s="0"/>
+      <c r="LZ24" s="0"/>
+      <c r="MA24" s="0"/>
+      <c r="MB24" s="0"/>
+      <c r="MC24" s="0"/>
+      <c r="MD24" s="0"/>
+      <c r="ME24" s="0"/>
+      <c r="MF24" s="0"/>
+      <c r="MG24" s="0"/>
+      <c r="MH24" s="0"/>
+      <c r="MI24" s="0"/>
+      <c r="MJ24" s="0"/>
+      <c r="MK24" s="0"/>
+      <c r="ML24" s="0"/>
+      <c r="MM24" s="0"/>
+      <c r="MN24" s="0"/>
+      <c r="MO24" s="0"/>
+      <c r="MP24" s="0"/>
+      <c r="MQ24" s="0"/>
+      <c r="MR24" s="0"/>
+      <c r="MS24" s="0"/>
+      <c r="MT24" s="0"/>
+      <c r="MU24" s="0"/>
+      <c r="MV24" s="0"/>
+      <c r="MW24" s="0"/>
+      <c r="MX24" s="0"/>
+      <c r="MY24" s="0"/>
+      <c r="MZ24" s="0"/>
+      <c r="NA24" s="0"/>
+      <c r="NB24" s="0"/>
+      <c r="NC24" s="0"/>
+      <c r="ND24" s="0"/>
+      <c r="NE24" s="0"/>
+      <c r="NF24" s="0"/>
+      <c r="NG24" s="0"/>
+      <c r="NH24" s="0"/>
+      <c r="NI24" s="0"/>
+      <c r="NJ24" s="0"/>
+      <c r="NK24" s="0"/>
+      <c r="NL24" s="0"/>
+      <c r="NM24" s="0"/>
+      <c r="NN24" s="0"/>
+      <c r="NO24" s="0"/>
+      <c r="NP24" s="0"/>
+      <c r="NQ24" s="0"/>
+      <c r="NR24" s="0"/>
+      <c r="NS24" s="0"/>
+      <c r="NT24" s="0"/>
+      <c r="NU24" s="0"/>
+      <c r="NV24" s="0"/>
+      <c r="NW24" s="0"/>
+      <c r="NX24" s="0"/>
+      <c r="NY24" s="0"/>
+      <c r="NZ24" s="0"/>
+      <c r="OA24" s="0"/>
+      <c r="OB24" s="0"/>
+      <c r="OC24" s="0"/>
+      <c r="OD24" s="0"/>
+      <c r="OE24" s="0"/>
+      <c r="OF24" s="0"/>
+      <c r="OG24" s="0"/>
+      <c r="OH24" s="0"/>
+      <c r="OI24" s="0"/>
+      <c r="OJ24" s="0"/>
+      <c r="OK24" s="0"/>
+      <c r="OL24" s="0"/>
+      <c r="OM24" s="0"/>
+      <c r="ON24" s="0"/>
+      <c r="OO24" s="0"/>
+      <c r="OP24" s="0"/>
+      <c r="OQ24" s="0"/>
+      <c r="OR24" s="0"/>
+      <c r="OS24" s="0"/>
+      <c r="OT24" s="0"/>
+      <c r="OU24" s="0"/>
+      <c r="OV24" s="0"/>
+      <c r="OW24" s="0"/>
+      <c r="OX24" s="0"/>
+      <c r="OY24" s="0"/>
+      <c r="OZ24" s="0"/>
+      <c r="PA24" s="0"/>
+      <c r="PB24" s="0"/>
+      <c r="PC24" s="0"/>
+      <c r="PD24" s="0"/>
+      <c r="PE24" s="0"/>
+      <c r="PF24" s="0"/>
+      <c r="PG24" s="0"/>
+      <c r="PH24" s="0"/>
+      <c r="PI24" s="0"/>
+      <c r="PJ24" s="0"/>
+      <c r="PK24" s="0"/>
+      <c r="PL24" s="0"/>
+      <c r="PM24" s="0"/>
+      <c r="PN24" s="0"/>
+      <c r="PO24" s="0"/>
+      <c r="PP24" s="0"/>
+      <c r="PQ24" s="0"/>
+      <c r="PR24" s="0"/>
+      <c r="PS24" s="0"/>
+      <c r="PT24" s="0"/>
+      <c r="PU24" s="0"/>
+      <c r="PV24" s="0"/>
+      <c r="PW24" s="0"/>
+      <c r="PX24" s="0"/>
+      <c r="PY24" s="0"/>
+      <c r="PZ24" s="0"/>
+      <c r="QA24" s="0"/>
+      <c r="QB24" s="0"/>
+      <c r="QC24" s="0"/>
+      <c r="QD24" s="0"/>
+      <c r="QE24" s="0"/>
+      <c r="QF24" s="0"/>
+      <c r="QG24" s="0"/>
+      <c r="QH24" s="0"/>
+      <c r="QI24" s="0"/>
+      <c r="QJ24" s="0"/>
+      <c r="QK24" s="0"/>
+      <c r="QL24" s="0"/>
+      <c r="QM24" s="0"/>
+      <c r="QN24" s="0"/>
+      <c r="QO24" s="0"/>
+      <c r="QP24" s="0"/>
+      <c r="QQ24" s="0"/>
+      <c r="QR24" s="0"/>
+      <c r="QS24" s="0"/>
+      <c r="QT24" s="0"/>
+      <c r="QU24" s="0"/>
+      <c r="QV24" s="0"/>
+      <c r="QW24" s="0"/>
+      <c r="QX24" s="0"/>
+      <c r="QY24" s="0"/>
+      <c r="QZ24" s="0"/>
+      <c r="RA24" s="0"/>
+      <c r="RB24" s="0"/>
+      <c r="RC24" s="0"/>
+      <c r="RD24" s="0"/>
+      <c r="RE24" s="0"/>
+      <c r="RF24" s="0"/>
+      <c r="RG24" s="0"/>
+      <c r="RH24" s="0"/>
+      <c r="RI24" s="0"/>
+      <c r="RJ24" s="0"/>
+      <c r="RK24" s="0"/>
+      <c r="RL24" s="0"/>
+      <c r="RM24" s="0"/>
+      <c r="RN24" s="0"/>
+      <c r="RO24" s="0"/>
+      <c r="RP24" s="0"/>
+      <c r="RQ24" s="0"/>
+      <c r="RR24" s="0"/>
+      <c r="RS24" s="0"/>
+      <c r="RT24" s="0"/>
+      <c r="RU24" s="0"/>
+      <c r="RV24" s="0"/>
+      <c r="RW24" s="0"/>
+      <c r="RX24" s="0"/>
+      <c r="RY24" s="0"/>
+      <c r="RZ24" s="0"/>
+      <c r="SA24" s="0"/>
+      <c r="SB24" s="0"/>
+      <c r="SC24" s="0"/>
+      <c r="SD24" s="0"/>
+      <c r="SE24" s="0"/>
+      <c r="SF24" s="0"/>
+      <c r="SG24" s="0"/>
+      <c r="SH24" s="0"/>
+      <c r="SI24" s="0"/>
+      <c r="SJ24" s="0"/>
+      <c r="SK24" s="0"/>
+      <c r="SL24" s="0"/>
+      <c r="SM24" s="0"/>
+      <c r="SN24" s="0"/>
+      <c r="SO24" s="0"/>
+      <c r="SP24" s="0"/>
+      <c r="SQ24" s="0"/>
+      <c r="SR24" s="0"/>
+      <c r="SS24" s="0"/>
+      <c r="ST24" s="0"/>
+      <c r="SU24" s="0"/>
+      <c r="SV24" s="0"/>
+      <c r="SW24" s="0"/>
+      <c r="SX24" s="0"/>
+      <c r="SY24" s="0"/>
+      <c r="SZ24" s="0"/>
+      <c r="TA24" s="0"/>
+      <c r="TB24" s="0"/>
+      <c r="TC24" s="0"/>
+      <c r="TD24" s="0"/>
+      <c r="TE24" s="0"/>
+      <c r="TF24" s="0"/>
+      <c r="TG24" s="0"/>
+      <c r="TH24" s="0"/>
+      <c r="TI24" s="0"/>
+      <c r="TJ24" s="0"/>
+      <c r="TK24" s="0"/>
+      <c r="TL24" s="0"/>
+      <c r="TM24" s="0"/>
+      <c r="TN24" s="0"/>
+      <c r="TO24" s="0"/>
+      <c r="TP24" s="0"/>
+      <c r="TQ24" s="0"/>
+      <c r="TR24" s="0"/>
+      <c r="TS24" s="0"/>
+      <c r="TT24" s="0"/>
+      <c r="TU24" s="0"/>
+      <c r="TV24" s="0"/>
+      <c r="TW24" s="0"/>
+      <c r="TX24" s="0"/>
+      <c r="TY24" s="0"/>
+      <c r="TZ24" s="0"/>
+      <c r="UA24" s="0"/>
+      <c r="UB24" s="0"/>
+      <c r="UC24" s="0"/>
+      <c r="UD24" s="0"/>
+      <c r="UE24" s="0"/>
+      <c r="UF24" s="0"/>
+      <c r="UG24" s="0"/>
+      <c r="UH24" s="0"/>
+      <c r="UI24" s="0"/>
+      <c r="UJ24" s="0"/>
+      <c r="UK24" s="0"/>
+      <c r="UL24" s="0"/>
+      <c r="UM24" s="0"/>
+      <c r="UN24" s="0"/>
+      <c r="UO24" s="0"/>
+      <c r="UP24" s="0"/>
+      <c r="UQ24" s="0"/>
+      <c r="UR24" s="0"/>
+      <c r="US24" s="0"/>
+      <c r="UT24" s="0"/>
+      <c r="UU24" s="0"/>
+      <c r="UV24" s="0"/>
+      <c r="UW24" s="0"/>
+      <c r="UX24" s="0"/>
+      <c r="UY24" s="0"/>
+      <c r="UZ24" s="0"/>
+      <c r="VA24" s="0"/>
+      <c r="VB24" s="0"/>
+      <c r="VC24" s="0"/>
+      <c r="VD24" s="0"/>
+      <c r="VE24" s="0"/>
+      <c r="VF24" s="0"/>
+      <c r="VG24" s="0"/>
+      <c r="VH24" s="0"/>
+      <c r="VI24" s="0"/>
+      <c r="VJ24" s="0"/>
+      <c r="VK24" s="0"/>
+      <c r="VL24" s="0"/>
+      <c r="VM24" s="0"/>
+      <c r="VN24" s="0"/>
+      <c r="VO24" s="0"/>
+      <c r="VP24" s="0"/>
+      <c r="VQ24" s="0"/>
+      <c r="VR24" s="0"/>
+      <c r="VS24" s="0"/>
+      <c r="VT24" s="0"/>
+      <c r="VU24" s="0"/>
+      <c r="VV24" s="0"/>
+      <c r="VW24" s="0"/>
+      <c r="VX24" s="0"/>
+      <c r="VY24" s="0"/>
+      <c r="VZ24" s="0"/>
+      <c r="WA24" s="0"/>
+      <c r="WB24" s="0"/>
+      <c r="WC24" s="0"/>
+      <c r="WD24" s="0"/>
+      <c r="WE24" s="0"/>
+      <c r="WF24" s="0"/>
+      <c r="WG24" s="0"/>
+      <c r="WH24" s="0"/>
+      <c r="WI24" s="0"/>
+      <c r="WJ24" s="0"/>
+      <c r="WK24" s="0"/>
+      <c r="WL24" s="0"/>
+      <c r="WM24" s="0"/>
+      <c r="WN24" s="0"/>
+      <c r="WO24" s="0"/>
+      <c r="WP24" s="0"/>
+      <c r="WQ24" s="0"/>
+      <c r="WR24" s="0"/>
+      <c r="WS24" s="0"/>
+      <c r="WT24" s="0"/>
+      <c r="WU24" s="0"/>
+      <c r="WV24" s="0"/>
+      <c r="WW24" s="0"/>
+      <c r="WX24" s="0"/>
+      <c r="WY24" s="0"/>
+      <c r="WZ24" s="0"/>
+      <c r="XA24" s="0"/>
+      <c r="XB24" s="0"/>
+      <c r="XC24" s="0"/>
+      <c r="XD24" s="0"/>
+      <c r="XE24" s="0"/>
+      <c r="XF24" s="0"/>
+      <c r="XG24" s="0"/>
+      <c r="XH24" s="0"/>
+      <c r="XI24" s="0"/>
+      <c r="XJ24" s="0"/>
+      <c r="XK24" s="0"/>
+      <c r="XL24" s="0"/>
+      <c r="XM24" s="0"/>
+      <c r="XN24" s="0"/>
+      <c r="XO24" s="0"/>
+      <c r="XP24" s="0"/>
+      <c r="XQ24" s="0"/>
+      <c r="XR24" s="0"/>
+      <c r="XS24" s="0"/>
+      <c r="XT24" s="0"/>
+      <c r="XU24" s="0"/>
+      <c r="XV24" s="0"/>
+      <c r="XW24" s="0"/>
+      <c r="XX24" s="0"/>
+      <c r="XY24" s="0"/>
+      <c r="XZ24" s="0"/>
+      <c r="YA24" s="0"/>
+      <c r="YB24" s="0"/>
+      <c r="YC24" s="0"/>
+      <c r="YD24" s="0"/>
+      <c r="YE24" s="0"/>
+      <c r="YF24" s="0"/>
+      <c r="YG24" s="0"/>
+      <c r="YH24" s="0"/>
+      <c r="YI24" s="0"/>
+      <c r="YJ24" s="0"/>
+      <c r="YK24" s="0"/>
+      <c r="YL24" s="0"/>
+      <c r="YM24" s="0"/>
+      <c r="YN24" s="0"/>
+      <c r="YO24" s="0"/>
+      <c r="YP24" s="0"/>
+      <c r="YQ24" s="0"/>
+      <c r="YR24" s="0"/>
+      <c r="YS24" s="0"/>
+      <c r="YT24" s="0"/>
+      <c r="YU24" s="0"/>
+      <c r="YV24" s="0"/>
+      <c r="YW24" s="0"/>
+      <c r="YX24" s="0"/>
+      <c r="YY24" s="0"/>
+      <c r="YZ24" s="0"/>
+      <c r="ZA24" s="0"/>
+      <c r="ZB24" s="0"/>
+      <c r="ZC24" s="0"/>
+      <c r="ZD24" s="0"/>
+      <c r="ZE24" s="0"/>
+      <c r="ZF24" s="0"/>
+      <c r="ZG24" s="0"/>
+      <c r="ZH24" s="0"/>
+      <c r="ZI24" s="0"/>
+      <c r="ZJ24" s="0"/>
+      <c r="ZK24" s="0"/>
+      <c r="ZL24" s="0"/>
+      <c r="ZM24" s="0"/>
+      <c r="ZN24" s="0"/>
+      <c r="ZO24" s="0"/>
+      <c r="ZP24" s="0"/>
+      <c r="ZQ24" s="0"/>
+      <c r="ZR24" s="0"/>
+      <c r="ZS24" s="0"/>
+      <c r="ZT24" s="0"/>
+      <c r="ZU24" s="0"/>
+      <c r="ZV24" s="0"/>
+      <c r="ZW24" s="0"/>
+      <c r="ZX24" s="0"/>
+      <c r="ZY24" s="0"/>
+      <c r="ZZ24" s="0"/>
+      <c r="AAA24" s="0"/>
+      <c r="AAB24" s="0"/>
+      <c r="AAC24" s="0"/>
+      <c r="AAD24" s="0"/>
+      <c r="AAE24" s="0"/>
+      <c r="AAF24" s="0"/>
+      <c r="AAG24" s="0"/>
+      <c r="AAH24" s="0"/>
+      <c r="AAI24" s="0"/>
+      <c r="AAJ24" s="0"/>
+      <c r="AAK24" s="0"/>
+      <c r="AAL24" s="0"/>
+      <c r="AAM24" s="0"/>
+      <c r="AAN24" s="0"/>
+      <c r="AAO24" s="0"/>
+      <c r="AAP24" s="0"/>
+      <c r="AAQ24" s="0"/>
+      <c r="AAR24" s="0"/>
+      <c r="AAS24" s="0"/>
+      <c r="AAT24" s="0"/>
+      <c r="AAU24" s="0"/>
+      <c r="AAV24" s="0"/>
+      <c r="AAW24" s="0"/>
+      <c r="AAX24" s="0"/>
+      <c r="AAY24" s="0"/>
+      <c r="AAZ24" s="0"/>
+      <c r="ABA24" s="0"/>
+      <c r="ABB24" s="0"/>
+      <c r="ABC24" s="0"/>
+      <c r="ABD24" s="0"/>
+      <c r="ABE24" s="0"/>
+      <c r="ABF24" s="0"/>
+      <c r="ABG24" s="0"/>
+      <c r="ABH24" s="0"/>
+      <c r="ABI24" s="0"/>
+      <c r="ABJ24" s="0"/>
+      <c r="ABK24" s="0"/>
+      <c r="ABL24" s="0"/>
+      <c r="ABM24" s="0"/>
+      <c r="ABN24" s="0"/>
+      <c r="ABO24" s="0"/>
+      <c r="ABP24" s="0"/>
+      <c r="ABQ24" s="0"/>
+      <c r="ABR24" s="0"/>
+      <c r="ABS24" s="0"/>
+      <c r="ABT24" s="0"/>
+      <c r="ABU24" s="0"/>
+      <c r="ABV24" s="0"/>
+      <c r="ABW24" s="0"/>
+      <c r="ABX24" s="0"/>
+      <c r="ABY24" s="0"/>
+      <c r="ABZ24" s="0"/>
+      <c r="ACA24" s="0"/>
+      <c r="ACB24" s="0"/>
+      <c r="ACC24" s="0"/>
+      <c r="ACD24" s="0"/>
+      <c r="ACE24" s="0"/>
+      <c r="ACF24" s="0"/>
+      <c r="ACG24" s="0"/>
+      <c r="ACH24" s="0"/>
+      <c r="ACI24" s="0"/>
+      <c r="ACJ24" s="0"/>
+      <c r="ACK24" s="0"/>
+      <c r="ACL24" s="0"/>
+      <c r="ACM24" s="0"/>
+      <c r="ACN24" s="0"/>
+      <c r="ACO24" s="0"/>
+      <c r="ACP24" s="0"/>
+      <c r="ACQ24" s="0"/>
+      <c r="ACR24" s="0"/>
+      <c r="ACS24" s="0"/>
+      <c r="ACT24" s="0"/>
+      <c r="ACU24" s="0"/>
+      <c r="ACV24" s="0"/>
+      <c r="ACW24" s="0"/>
+      <c r="ACX24" s="0"/>
+      <c r="ACY24" s="0"/>
+      <c r="ACZ24" s="0"/>
+      <c r="ADA24" s="0"/>
+      <c r="ADB24" s="0"/>
+      <c r="ADC24" s="0"/>
+      <c r="ADD24" s="0"/>
+      <c r="ADE24" s="0"/>
+      <c r="ADF24" s="0"/>
+      <c r="ADG24" s="0"/>
+      <c r="ADH24" s="0"/>
+      <c r="ADI24" s="0"/>
+      <c r="ADJ24" s="0"/>
+      <c r="ADK24" s="0"/>
+      <c r="ADL24" s="0"/>
+      <c r="ADM24" s="0"/>
+      <c r="ADN24" s="0"/>
+      <c r="ADO24" s="0"/>
+      <c r="ADP24" s="0"/>
+      <c r="ADQ24" s="0"/>
+      <c r="ADR24" s="0"/>
+      <c r="ADS24" s="0"/>
+      <c r="ADT24" s="0"/>
+      <c r="ADU24" s="0"/>
+      <c r="ADV24" s="0"/>
+      <c r="ADW24" s="0"/>
+      <c r="ADX24" s="0"/>
+      <c r="ADY24" s="0"/>
+      <c r="ADZ24" s="0"/>
+      <c r="AEA24" s="0"/>
+      <c r="AEB24" s="0"/>
+      <c r="AEC24" s="0"/>
+      <c r="AED24" s="0"/>
+      <c r="AEE24" s="0"/>
+      <c r="AEF24" s="0"/>
+      <c r="AEG24" s="0"/>
+      <c r="AEH24" s="0"/>
+      <c r="AEI24" s="0"/>
+      <c r="AEJ24" s="0"/>
+      <c r="AEK24" s="0"/>
+      <c r="AEL24" s="0"/>
+      <c r="AEM24" s="0"/>
+      <c r="AEN24" s="0"/>
+      <c r="AEO24" s="0"/>
+      <c r="AEP24" s="0"/>
+      <c r="AEQ24" s="0"/>
+      <c r="AER24" s="0"/>
+      <c r="AES24" s="0"/>
+      <c r="AET24" s="0"/>
+      <c r="AEU24" s="0"/>
+      <c r="AEV24" s="0"/>
+      <c r="AEW24" s="0"/>
+      <c r="AEX24" s="0"/>
+      <c r="AEY24" s="0"/>
+      <c r="AEZ24" s="0"/>
+      <c r="AFA24" s="0"/>
+      <c r="AFB24" s="0"/>
+      <c r="AFC24" s="0"/>
+      <c r="AFD24" s="0"/>
+      <c r="AFE24" s="0"/>
+      <c r="AFF24" s="0"/>
+      <c r="AFG24" s="0"/>
+      <c r="AFH24" s="0"/>
+      <c r="AFI24" s="0"/>
+      <c r="AFJ24" s="0"/>
+      <c r="AFK24" s="0"/>
+      <c r="AFL24" s="0"/>
+      <c r="AFM24" s="0"/>
+      <c r="AFN24" s="0"/>
+      <c r="AFO24" s="0"/>
+      <c r="AFP24" s="0"/>
+      <c r="AFQ24" s="0"/>
+      <c r="AFR24" s="0"/>
+      <c r="AFS24" s="0"/>
+      <c r="AFT24" s="0"/>
+      <c r="AFU24" s="0"/>
+      <c r="AFV24" s="0"/>
+      <c r="AFW24" s="0"/>
+      <c r="AFX24" s="0"/>
+      <c r="AFY24" s="0"/>
+      <c r="AFZ24" s="0"/>
+      <c r="AGA24" s="0"/>
+      <c r="AGB24" s="0"/>
+      <c r="AGC24" s="0"/>
+      <c r="AGD24" s="0"/>
+      <c r="AGE24" s="0"/>
+      <c r="AGF24" s="0"/>
+      <c r="AGG24" s="0"/>
+      <c r="AGH24" s="0"/>
+      <c r="AGI24" s="0"/>
+      <c r="AGJ24" s="0"/>
+      <c r="AGK24" s="0"/>
+      <c r="AGL24" s="0"/>
+      <c r="AGM24" s="0"/>
+      <c r="AGN24" s="0"/>
+      <c r="AGO24" s="0"/>
+      <c r="AGP24" s="0"/>
+      <c r="AGQ24" s="0"/>
+      <c r="AGR24" s="0"/>
+      <c r="AGS24" s="0"/>
+      <c r="AGT24" s="0"/>
+      <c r="AGU24" s="0"/>
+      <c r="AGV24" s="0"/>
+      <c r="AGW24" s="0"/>
+      <c r="AGX24" s="0"/>
+      <c r="AGY24" s="0"/>
+      <c r="AGZ24" s="0"/>
+      <c r="AHA24" s="0"/>
+      <c r="AHB24" s="0"/>
+      <c r="AHC24" s="0"/>
+      <c r="AHD24" s="0"/>
+      <c r="AHE24" s="0"/>
+      <c r="AHF24" s="0"/>
+      <c r="AHG24" s="0"/>
+      <c r="AHH24" s="0"/>
+      <c r="AHI24" s="0"/>
+      <c r="AHJ24" s="0"/>
+      <c r="AHK24" s="0"/>
+      <c r="AHL24" s="0"/>
+      <c r="AHM24" s="0"/>
+      <c r="AHN24" s="0"/>
+      <c r="AHO24" s="0"/>
+      <c r="AHP24" s="0"/>
+      <c r="AHQ24" s="0"/>
+      <c r="AHR24" s="0"/>
+      <c r="AHS24" s="0"/>
+      <c r="AHT24" s="0"/>
+      <c r="AHU24" s="0"/>
+      <c r="AHV24" s="0"/>
+      <c r="AHW24" s="0"/>
+      <c r="AHX24" s="0"/>
+      <c r="AHY24" s="0"/>
+      <c r="AHZ24" s="0"/>
+      <c r="AIA24" s="0"/>
+      <c r="AIB24" s="0"/>
+      <c r="AIC24" s="0"/>
+      <c r="AID24" s="0"/>
+      <c r="AIE24" s="0"/>
+      <c r="AIF24" s="0"/>
+      <c r="AIG24" s="0"/>
+      <c r="AIH24" s="0"/>
+      <c r="AII24" s="0"/>
+      <c r="AIJ24" s="0"/>
+      <c r="AIK24" s="0"/>
+      <c r="AIL24" s="0"/>
+      <c r="AIM24" s="0"/>
+      <c r="AIN24" s="0"/>
+      <c r="AIO24" s="0"/>
+      <c r="AIP24" s="0"/>
+      <c r="AIQ24" s="0"/>
+      <c r="AIR24" s="0"/>
+      <c r="AIS24" s="0"/>
+      <c r="AIT24" s="0"/>
+      <c r="AIU24" s="0"/>
+      <c r="AIV24" s="0"/>
+      <c r="AIW24" s="0"/>
+      <c r="AIX24" s="0"/>
+      <c r="AIY24" s="0"/>
+      <c r="AIZ24" s="0"/>
+      <c r="AJA24" s="0"/>
+      <c r="AJB24" s="0"/>
+      <c r="AJC24" s="0"/>
+      <c r="AJD24" s="0"/>
+      <c r="AJE24" s="0"/>
+      <c r="AJF24" s="0"/>
+      <c r="AJG24" s="0"/>
+      <c r="AJH24" s="0"/>
+      <c r="AJI24" s="0"/>
+      <c r="AJJ24" s="0"/>
+      <c r="AJK24" s="0"/>
+      <c r="AJL24" s="0"/>
+      <c r="AJM24" s="0"/>
+      <c r="AJN24" s="0"/>
+      <c r="AJO24" s="0"/>
+      <c r="AJP24" s="0"/>
+      <c r="AJQ24" s="0"/>
+      <c r="AJR24" s="0"/>
+      <c r="AJS24" s="0"/>
+      <c r="AJT24" s="0"/>
+      <c r="AJU24" s="0"/>
+      <c r="AJV24" s="0"/>
+      <c r="AJW24" s="0"/>
+      <c r="AJX24" s="0"/>
+      <c r="AJY24" s="0"/>
+      <c r="AJZ24" s="0"/>
+      <c r="AKA24" s="0"/>
+      <c r="AKB24" s="0"/>
+      <c r="AKC24" s="0"/>
+      <c r="AKD24" s="0"/>
+      <c r="AKE24" s="0"/>
+      <c r="AKF24" s="0"/>
+      <c r="AKG24" s="0"/>
+      <c r="AKH24" s="0"/>
+      <c r="AKI24" s="0"/>
+      <c r="AKJ24" s="0"/>
+      <c r="AKK24" s="0"/>
+      <c r="AKL24" s="0"/>
+      <c r="AKM24" s="0"/>
+      <c r="AKN24" s="0"/>
+      <c r="AKO24" s="0"/>
+      <c r="AKP24" s="0"/>
+      <c r="AKQ24" s="0"/>
+      <c r="AKR24" s="0"/>
+      <c r="AKS24" s="0"/>
+      <c r="AKT24" s="0"/>
+      <c r="AKU24" s="0"/>
+      <c r="AKV24" s="0"/>
+      <c r="AKW24" s="0"/>
+      <c r="AKX24" s="0"/>
+      <c r="AKY24" s="0"/>
+      <c r="AKZ24" s="0"/>
+      <c r="ALA24" s="0"/>
+      <c r="ALB24" s="0"/>
+      <c r="ALC24" s="0"/>
+      <c r="ALD24" s="0"/>
+      <c r="ALE24" s="0"/>
+      <c r="ALF24" s="0"/>
+      <c r="ALG24" s="0"/>
+      <c r="ALH24" s="0"/>
+      <c r="ALI24" s="0"/>
+      <c r="ALJ24" s="0"/>
+      <c r="ALK24" s="0"/>
+      <c r="ALL24" s="0"/>
+      <c r="ALM24" s="0"/>
+      <c r="ALN24" s="0"/>
+      <c r="ALO24" s="0"/>
+      <c r="ALP24" s="0"/>
+      <c r="ALQ24" s="0"/>
+      <c r="ALR24" s="0"/>
+      <c r="ALS24" s="0"/>
+      <c r="ALT24" s="0"/>
+      <c r="ALU24" s="0"/>
+      <c r="ALV24" s="0"/>
+      <c r="ALW24" s="0"/>
+      <c r="ALX24" s="0"/>
+      <c r="ALY24" s="0"/>
+      <c r="ALZ24" s="0"/>
+      <c r="AMA24" s="0"/>
+      <c r="AMB24" s="0"/>
+      <c r="AMC24" s="0"/>
+      <c r="AMD24" s="0"/>
+      <c r="AME24" s="0"/>
+    </row>
+    <row r="25" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="31"/>
+      <c r="AMF25" s="31"/>
+      <c r="AMG25" s="31"/>
+      <c r="AMH25" s="0"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/utility/optbs/template/belanja_persediaan_2.xlsx
+++ b/utility/optbs/template/belanja_persediaan_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>SKPD</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>NOMOR DOKUMEN</t>
   </si>
   <si>
     <t>REK. BELANJA</t>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>[a.no;ope=tbs:num;block=row;] </t>
-  </si>
-  <si>
-    <t>[a.no_dok]</t>
   </si>
   <si>
     <t>[a.kode_rekening]</t>
@@ -523,21 +517,21 @@
   <dimension ref="1:26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1021" min="1020" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="1022" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1020" min="1019" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1022" min="1021" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,14 +539,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="0"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
@@ -1563,21 +1557,20 @@
       <c r="AMB1" s="0"/>
       <c r="AMC1" s="0"/>
       <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
@@ -2588,21 +2581,20 @@
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
       <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -3613,18 +3605,17 @@
       <c r="AMB3" s="0"/>
       <c r="AMC3" s="0"/>
       <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
@@ -4634,7 +4625,6 @@
       <c r="AMB4" s="0"/>
       <c r="AMC4" s="0"/>
       <c r="AMD4" s="0"/>
-      <c r="AME4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -4647,7 +4637,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
@@ -5657,7 +5647,6 @@
       <c r="AMB5" s="0"/>
       <c r="AMC5" s="0"/>
       <c r="AMD5" s="0"/>
-      <c r="AME5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -5670,7 +5659,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
@@ -6680,7 +6669,6 @@
       <c r="AMB6" s="0"/>
       <c r="AMC6" s="0"/>
       <c r="AMD6" s="0"/>
-      <c r="AME6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -6693,7 +6681,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -7703,7 +7691,6 @@
       <c r="AMB7" s="0"/>
       <c r="AMC7" s="0"/>
       <c r="AMD7" s="0"/>
-      <c r="AME7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
@@ -8724,7 +8711,6 @@
       <c r="AMB8" s="0"/>
       <c r="AMC8" s="0"/>
       <c r="AMD8" s="0"/>
-      <c r="AME8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
@@ -9745,7 +9731,6 @@
       <c r="AMB9" s="0"/>
       <c r="AMC9" s="0"/>
       <c r="AMD9" s="0"/>
-      <c r="AME9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="30.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
@@ -9772,9 +9757,7 @@
       <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
@@ -10784,7 +10767,6 @@
       <c r="AMB10" s="0"/>
       <c r="AMC10" s="0"/>
       <c r="AMD10" s="0"/>
-      <c r="AME10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
@@ -10811,9 +10793,7 @@
       <c r="H11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="8" t="n">
-        <v>9</v>
-      </c>
+      <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
@@ -11823,27 +11803,26 @@
       <c r="AMB11" s="0"/>
       <c r="AMC11" s="0"/>
       <c r="AMD11" s="0"/>
-      <c r="AME11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="15" t="e">
+      <c r="H12" s="15" t="e">
         <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
+      <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
@@ -12853,37 +12832,34 @@
       <c r="AMB12" s="0"/>
       <c r="AMC12" s="0"/>
       <c r="AMD12" s="0"/>
-      <c r="AME12" s="0"/>
     </row>
     <row r="13" s="20" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="19" t="e">
+      <c r="H13" s="19" t="e">
         <f aca="true">INDIRECT( "H" &amp; ROW() )+INDIRECT( "G" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
+      <c r="AME13" s="0"/>
       <c r="AMF13" s="0"/>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
@@ -12893,22 +12869,22 @@
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
-        <v>18</v>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13" t="s">
-        <v>29</v>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>20</v>
+      <c r="G14" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="I14" s="15" t="e">
+      <c r="H14" s="15" t="e">
         <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
+      <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
@@ -13918,27 +13894,26 @@
       <c r="AMB14" s="0"/>
       <c r="AMC14" s="0"/>
       <c r="AMD14" s="0"/>
-      <c r="AME14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
-        <v>17</v>
+      <c r="C15" s="23" t="s">
+        <v>16</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="15" t="e">
+      <c r="H15" s="15" t="e">
         <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
+      <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
@@ -14948,7 +14923,6 @@
       <c r="AMB15" s="0"/>
       <c r="AMC15" s="0"/>
       <c r="AMD15" s="0"/>
-      <c r="AME15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="25"/>
@@ -14957,7 +14931,7 @@
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -15969,7 +15943,6 @@
       <c r="AMB16" s="0"/>
       <c r="AMC16" s="0"/>
       <c r="AMD16" s="0"/>
-      <c r="AME16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="25"/>
@@ -15978,14 +15951,14 @@
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="2" t="s">
-        <v>32</v>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
+      <c r="H17" s="0"/>
       <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
@@ -16992,11 +16965,10 @@
       <c r="AMB17" s="0"/>
       <c r="AMC17" s="0"/>
       <c r="AMD17" s="0"/>
-      <c r="AME17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -17004,8 +16976,8 @@
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
@@ -18015,23 +17987,22 @@
       <c r="AMB18" s="0"/>
       <c r="AMC18" s="0"/>
       <c r="AMD18" s="0"/>
-      <c r="AME18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
@@ -19042,19 +19013,18 @@
       <c r="AMB19" s="0"/>
       <c r="AMC19" s="0"/>
       <c r="AMD19" s="0"/>
-      <c r="AME19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="0"/>
       <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
@@ -20065,17 +20035,16 @@
       <c r="AMB20" s="0"/>
       <c r="AMC20" s="0"/>
       <c r="AMD20" s="0"/>
-      <c r="AME20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="0"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -21086,17 +21055,16 @@
       <c r="AMB21" s="0"/>
       <c r="AMC21" s="0"/>
       <c r="AMD21" s="0"/>
-      <c r="AME21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="0"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -22107,17 +22075,16 @@
       <c r="AMB22" s="0"/>
       <c r="AMC22" s="0"/>
       <c r="AMD22" s="0"/>
-      <c r="AME22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="0"/>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -23128,17 +23095,16 @@
       <c r="AMB23" s="0"/>
       <c r="AMC23" s="0"/>
       <c r="AMD23" s="0"/>
-      <c r="AME23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
@@ -24149,64 +24115,62 @@
       <c r="AMB24" s="0"/>
       <c r="AMC24" s="0"/>
       <c r="AMD24" s="0"/>
-      <c r="AME24" s="0"/>
     </row>
     <row r="25" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29" t="s">
-        <v>40</v>
-      </c>
+      <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="AME25" s="31"/>
       <c r="AMF25" s="31"/>
-      <c r="AMG25" s="31"/>
+      <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.379861111111111" right="0.379861111111111" top="0.645138888888889" bottom="0.645138888888889" header="0.379861111111111" footer="0.379861111111111"/>

--- a/utility/optbs/template/belanja_persediaan_2.xlsx
+++ b/utility/optbs/template/belanja_persediaan_2.xlsx
@@ -517,20 +517,20 @@
   <dimension ref="1:26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="1" width="6.88265306122449"/>
     <col collapsed="false" hidden="false" max="1020" min="1019" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1022" min="1021" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1022" min="1021" style="0" width="7.96428571428571"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -11819,7 +11819,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="15" t="e">
-        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
+        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "F" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
       <c r="I12" s="0"/>
@@ -12856,7 +12856,7 @@
         <v>26</v>
       </c>
       <c r="H13" s="19" t="e">
-        <f aca="true">INDIRECT( "H" &amp; ROW() )+INDIRECT( "G" &amp; ROW() )</f>
+        <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "G" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
       <c r="AME13" s="0"/>
@@ -12866,7 +12866,7 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
@@ -12877,11 +12877,11 @@
       <c r="F14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="15" t="e">
-        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
+        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "F" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
       <c r="I14" s="0"/>
@@ -13910,7 +13910,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="15" t="e">
-        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "H" &amp; ROW() )</f>
+        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "F" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
       <c r="I15" s="0"/>

--- a/utility/optbs/template/belanja_persediaan_2.xlsx
+++ b/utility/optbs/template/belanja_persediaan_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,139 +13,148 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
-    <t>SKPD</t>
+    <t xml:space="preserve">SKPD</t>
   </si>
   <si>
-    <t>: [b.nama_skpd]</t>
+    <t xml:space="preserve">: [b.nama_skpd]</t>
   </si>
   <si>
-    <t>Provinsi</t>
+    <t xml:space="preserve">Provinsi</t>
   </si>
   <si>
-    <t>: Jawa Tengah</t>
+    <t xml:space="preserve">: Jawa Tengah</t>
   </si>
   <si>
-    <t>Kabupaten / Kota</t>
+    <t xml:space="preserve">Kabupaten / Kota</t>
   </si>
   <si>
-    <t>:Kota Pekalongan</t>
+    <t xml:space="preserve">:Kota Pekalongan</t>
   </si>
   <si>
-    <t>LAPORAN POSISI PERSEDIAAN DI NERACA PER REKENING</t>
+    <t xml:space="preserve">LAPORAN POSISI PERSEDIAAN DI NERACA PER REKENING</t>
   </si>
   <si>
-    <t>UNTUK PERIODE YANG BERAKHIR PADA [a.tanggal]</t>
+    <t xml:space="preserve">UNTUK PERIODE YANG BERAKHIR PADA [a.tanggal]</t>
   </si>
   <si>
-    <t>TAHUN ANGGARAN [a.tahun]</t>
+    <t xml:space="preserve">TAHUN ANGGARAN [a.tahun]</t>
   </si>
   <si>
-    <t>NO</t>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t>REK. BELANJA</t>
+    <t xml:space="preserve">REK. BELANJA</t>
   </si>
   <si>
-    <t>URAIAN REK. BELANJA</t>
+    <t xml:space="preserve">URAIAN REK. BELANJA</t>
   </si>
   <si>
-    <t>REKENING PERSEDIAAN</t>
+    <t xml:space="preserve">REKENING PERSEDIAAN</t>
   </si>
   <si>
-    <t>URAIAN REKENING PERSEDIAAN</t>
+    <t xml:space="preserve">URAIAN REKENING PERSEDIAAN</t>
   </si>
   <si>
-    <t>NILAI PERSEDIAAN</t>
+    <t xml:space="preserve">NILAI PERSEDIAAN</t>
   </si>
   <si>
-    <t>NILAI NON PERSEDIAAN</t>
+    <t xml:space="preserve">NILAI NON PERSEDIAAN</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
-    <t>SUBTOTAL</t>
+    <t xml:space="preserve"> [a.nm_satker; block=row; when [a.cetak_satker]=1]</t>
   </si>
   <si>
-    <t> [a.subTot_persediaan; ope=tbs:num;  block=row; when [a.cetak_subtotal]=1]</t>
+    <t xml:space="preserve">[a.no; block=row;  when [a.cetak_rekening]=1] </t>
   </si>
   <si>
-    <t> [a.subTot_nonPersediaan; ope=tbs:num; ]</t>
+    <t xml:space="preserve">[a.kode_rekening]</t>
   </si>
   <si>
-    <t>[a.no;ope=tbs:num;block=row;] </t>
+    <t xml:space="preserve">[a.nama_rekening]</t>
   </si>
   <si>
-    <t>[a.kode_rekening]</t>
+    <t xml:space="preserve">[a.total_harga; ope=tbs:num;]</t>
   </si>
   <si>
-    <t>[a.nama_rekening]</t>
+    <t xml:space="preserve">[a.nilai_kontrak; ope=tbs:num;]</t>
   </si>
   <si>
-    <t>[a.kd_perk]</t>
+    <t xml:space="preserve">[a.grand_total; ope=tbs:num;]</t>
   </si>
   <si>
-    <t>[a.nm_perk]</t>
+    <t xml:space="preserve">[a.no; block=row;  when [a.cetak_detail]=1] </t>
   </si>
   <si>
-    <t>[a.total_harga; ope=tbs:num;]</t>
+    <t xml:space="preserve">[a.kd_perk]</t>
   </si>
   <si>
-    <t>[a.nilai_kontrak; ope=tbs:num;]</t>
+    <t xml:space="preserve">[a.nm_perk]</t>
   </si>
   <si>
-    <t> [a.subTot_persediaan; ope=tbs:num;  block=row; when [a.cetak_subtotal]=2]</t>
+    <t xml:space="preserve">[a.no]</t>
   </si>
   <si>
-    <t>[c.total_persediaan; ope=tbs:num]</t>
+    <t xml:space="preserve">SUBTOTAL</t>
   </si>
   <si>
-    <t>[c.total_non_persediaan; ope=tbs:num]</t>
+    <t xml:space="preserve"> [a.total_harga; ope=tbs:num;  block=row; when [a.cetak_subtotal]=1]</t>
   </si>
   <si>
-    <t>Kota Pekalongan, [b.tanggal_cetak]</t>
+    <t xml:space="preserve"> [a.nilai_kontrak; ope=tbs:num; ]</t>
   </si>
   <si>
-    <t>Mengetahui</t>
+    <t xml:space="preserve">[c.total_persediaan; ope=tbs:num]</t>
   </si>
   <si>
-    <t>An Pengguna / Kuasa Pengguna Barang</t>
+    <t xml:space="preserve">[c.total_non_persediaan; ope=tbs:num]</t>
   </si>
   <si>
-    <t>Pengurus Barang</t>
+    <t xml:space="preserve">Kota Pekalongan, [b.tanggal_cetak]</t>
   </si>
   <si>
-    <t>Pembantu Pengurus Barang</t>
+    <t xml:space="preserve">Mengetahui</t>
   </si>
   <si>
-    <t>Pejabat Penatausahaan Pengguna Barang</t>
+    <t xml:space="preserve">An Pengguna / Kuasa Pengguna Barang</t>
   </si>
   <si>
-    <t>([b.nama_atasan])</t>
+    <t xml:space="preserve">Pengurus Barang</t>
   </si>
   <si>
-    <t>……………………………………</t>
+    <t xml:space="preserve">Pembantu Pengurus Barang</t>
   </si>
   <si>
-    <t>([b.nama_penyimpan_barang])</t>
+    <t xml:space="preserve">Pejabat Penatausahaan Pengguna Barang</t>
   </si>
   <si>
-    <t>NIP. [b.nip_atasan]</t>
+    <t xml:space="preserve">([b.nama_atasan])</t>
   </si>
   <si>
-    <t>NIP ………………………………</t>
+    <t xml:space="preserve">……………………………………</t>
   </si>
   <si>
-    <t>NIP. [b.nip_penyimpan_barang]</t>
+    <t xml:space="preserve">([b.nama_penyimpan_barang])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIP. [b.nip_atasan]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIP ………………………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIP. [b.nip_penyimpan_barang]</t>
   </si>
 </sst>
 </file>
@@ -153,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="10">
@@ -229,12 +238,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -244,27 +253,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -296,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -329,36 +317,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -370,31 +338,43 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -449,7 +429,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -471,7 +451,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -514,24 +494,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:26"/>
+  <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1020" min="1019" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1022" min="1021" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="6.0765306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="9" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1019" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1021" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="6.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11804,2114 +11784,86 @@
       <c r="AMC11" s="0"/>
       <c r="AMD11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+    <row r="12" s="10" customFormat="true" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="15" t="e">
-        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "F" &amp; ROW() )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="0"/>
-      <c r="AC12" s="0"/>
-      <c r="AD12" s="0"/>
-      <c r="AE12" s="0"/>
-      <c r="AF12" s="0"/>
-      <c r="AG12" s="0"/>
-      <c r="AH12" s="0"/>
-      <c r="AI12" s="0"/>
-      <c r="AJ12" s="0"/>
-      <c r="AK12" s="0"/>
-      <c r="AL12" s="0"/>
-      <c r="AM12" s="0"/>
-      <c r="AN12" s="0"/>
-      <c r="AO12" s="0"/>
-      <c r="AP12" s="0"/>
-      <c r="AQ12" s="0"/>
-      <c r="AR12" s="0"/>
-      <c r="AS12" s="0"/>
-      <c r="AT12" s="0"/>
-      <c r="AU12" s="0"/>
-      <c r="AV12" s="0"/>
-      <c r="AW12" s="0"/>
-      <c r="AX12" s="0"/>
-      <c r="AY12" s="0"/>
-      <c r="AZ12" s="0"/>
-      <c r="BA12" s="0"/>
-      <c r="BB12" s="0"/>
-      <c r="BC12" s="0"/>
-      <c r="BD12" s="0"/>
-      <c r="BE12" s="0"/>
-      <c r="BF12" s="0"/>
-      <c r="BG12" s="0"/>
-      <c r="BH12" s="0"/>
-      <c r="BI12" s="0"/>
-      <c r="BJ12" s="0"/>
-      <c r="BK12" s="0"/>
-      <c r="BL12" s="0"/>
-      <c r="BM12" s="0"/>
-      <c r="BN12" s="0"/>
-      <c r="BO12" s="0"/>
-      <c r="BP12" s="0"/>
-      <c r="BQ12" s="0"/>
-      <c r="BR12" s="0"/>
-      <c r="BS12" s="0"/>
-      <c r="BT12" s="0"/>
-      <c r="BU12" s="0"/>
-      <c r="BV12" s="0"/>
-      <c r="BW12" s="0"/>
-      <c r="BX12" s="0"/>
-      <c r="BY12" s="0"/>
-      <c r="BZ12" s="0"/>
-      <c r="CA12" s="0"/>
-      <c r="CB12" s="0"/>
-      <c r="CC12" s="0"/>
-      <c r="CD12" s="0"/>
-      <c r="CE12" s="0"/>
-      <c r="CF12" s="0"/>
-      <c r="CG12" s="0"/>
-      <c r="CH12" s="0"/>
-      <c r="CI12" s="0"/>
-      <c r="CJ12" s="0"/>
-      <c r="CK12" s="0"/>
-      <c r="CL12" s="0"/>
-      <c r="CM12" s="0"/>
-      <c r="CN12" s="0"/>
-      <c r="CO12" s="0"/>
-      <c r="CP12" s="0"/>
-      <c r="CQ12" s="0"/>
-      <c r="CR12" s="0"/>
-      <c r="CS12" s="0"/>
-      <c r="CT12" s="0"/>
-      <c r="CU12" s="0"/>
-      <c r="CV12" s="0"/>
-      <c r="CW12" s="0"/>
-      <c r="CX12" s="0"/>
-      <c r="CY12" s="0"/>
-      <c r="CZ12" s="0"/>
-      <c r="DA12" s="0"/>
-      <c r="DB12" s="0"/>
-      <c r="DC12" s="0"/>
-      <c r="DD12" s="0"/>
-      <c r="DE12" s="0"/>
-      <c r="DF12" s="0"/>
-      <c r="DG12" s="0"/>
-      <c r="DH12" s="0"/>
-      <c r="DI12" s="0"/>
-      <c r="DJ12" s="0"/>
-      <c r="DK12" s="0"/>
-      <c r="DL12" s="0"/>
-      <c r="DM12" s="0"/>
-      <c r="DN12" s="0"/>
-      <c r="DO12" s="0"/>
-      <c r="DP12" s="0"/>
-      <c r="DQ12" s="0"/>
-      <c r="DR12" s="0"/>
-      <c r="DS12" s="0"/>
-      <c r="DT12" s="0"/>
-      <c r="DU12" s="0"/>
-      <c r="DV12" s="0"/>
-      <c r="DW12" s="0"/>
-      <c r="DX12" s="0"/>
-      <c r="DY12" s="0"/>
-      <c r="DZ12" s="0"/>
-      <c r="EA12" s="0"/>
-      <c r="EB12" s="0"/>
-      <c r="EC12" s="0"/>
-      <c r="ED12" s="0"/>
-      <c r="EE12" s="0"/>
-      <c r="EF12" s="0"/>
-      <c r="EG12" s="0"/>
-      <c r="EH12" s="0"/>
-      <c r="EI12" s="0"/>
-      <c r="EJ12" s="0"/>
-      <c r="EK12" s="0"/>
-      <c r="EL12" s="0"/>
-      <c r="EM12" s="0"/>
-      <c r="EN12" s="0"/>
-      <c r="EO12" s="0"/>
-      <c r="EP12" s="0"/>
-      <c r="EQ12" s="0"/>
-      <c r="ER12" s="0"/>
-      <c r="ES12" s="0"/>
-      <c r="ET12" s="0"/>
-      <c r="EU12" s="0"/>
-      <c r="EV12" s="0"/>
-      <c r="EW12" s="0"/>
-      <c r="EX12" s="0"/>
-      <c r="EY12" s="0"/>
-      <c r="EZ12" s="0"/>
-      <c r="FA12" s="0"/>
-      <c r="FB12" s="0"/>
-      <c r="FC12" s="0"/>
-      <c r="FD12" s="0"/>
-      <c r="FE12" s="0"/>
-      <c r="FF12" s="0"/>
-      <c r="FG12" s="0"/>
-      <c r="FH12" s="0"/>
-      <c r="FI12" s="0"/>
-      <c r="FJ12" s="0"/>
-      <c r="FK12" s="0"/>
-      <c r="FL12" s="0"/>
-      <c r="FM12" s="0"/>
-      <c r="FN12" s="0"/>
-      <c r="FO12" s="0"/>
-      <c r="FP12" s="0"/>
-      <c r="FQ12" s="0"/>
-      <c r="FR12" s="0"/>
-      <c r="FS12" s="0"/>
-      <c r="FT12" s="0"/>
-      <c r="FU12" s="0"/>
-      <c r="FV12" s="0"/>
-      <c r="FW12" s="0"/>
-      <c r="FX12" s="0"/>
-      <c r="FY12" s="0"/>
-      <c r="FZ12" s="0"/>
-      <c r="GA12" s="0"/>
-      <c r="GB12" s="0"/>
-      <c r="GC12" s="0"/>
-      <c r="GD12" s="0"/>
-      <c r="GE12" s="0"/>
-      <c r="GF12" s="0"/>
-      <c r="GG12" s="0"/>
-      <c r="GH12" s="0"/>
-      <c r="GI12" s="0"/>
-      <c r="GJ12" s="0"/>
-      <c r="GK12" s="0"/>
-      <c r="GL12" s="0"/>
-      <c r="GM12" s="0"/>
-      <c r="GN12" s="0"/>
-      <c r="GO12" s="0"/>
-      <c r="GP12" s="0"/>
-      <c r="GQ12" s="0"/>
-      <c r="GR12" s="0"/>
-      <c r="GS12" s="0"/>
-      <c r="GT12" s="0"/>
-      <c r="GU12" s="0"/>
-      <c r="GV12" s="0"/>
-      <c r="GW12" s="0"/>
-      <c r="GX12" s="0"/>
-      <c r="GY12" s="0"/>
-      <c r="GZ12" s="0"/>
-      <c r="HA12" s="0"/>
-      <c r="HB12" s="0"/>
-      <c r="HC12" s="0"/>
-      <c r="HD12" s="0"/>
-      <c r="HE12" s="0"/>
-      <c r="HF12" s="0"/>
-      <c r="HG12" s="0"/>
-      <c r="HH12" s="0"/>
-      <c r="HI12" s="0"/>
-      <c r="HJ12" s="0"/>
-      <c r="HK12" s="0"/>
-      <c r="HL12" s="0"/>
-      <c r="HM12" s="0"/>
-      <c r="HN12" s="0"/>
-      <c r="HO12" s="0"/>
-      <c r="HP12" s="0"/>
-      <c r="HQ12" s="0"/>
-      <c r="HR12" s="0"/>
-      <c r="HS12" s="0"/>
-      <c r="HT12" s="0"/>
-      <c r="HU12" s="0"/>
-      <c r="HV12" s="0"/>
-      <c r="HW12" s="0"/>
-      <c r="HX12" s="0"/>
-      <c r="HY12" s="0"/>
-      <c r="HZ12" s="0"/>
-      <c r="IA12" s="0"/>
-      <c r="IB12" s="0"/>
-      <c r="IC12" s="0"/>
-      <c r="ID12" s="0"/>
-      <c r="IE12" s="0"/>
-      <c r="IF12" s="0"/>
-      <c r="IG12" s="0"/>
-      <c r="IH12" s="0"/>
-      <c r="II12" s="0"/>
-      <c r="IJ12" s="0"/>
-      <c r="IK12" s="0"/>
-      <c r="IL12" s="0"/>
-      <c r="IM12" s="0"/>
-      <c r="IN12" s="0"/>
-      <c r="IO12" s="0"/>
-      <c r="IP12" s="0"/>
-      <c r="IQ12" s="0"/>
-      <c r="IR12" s="0"/>
-      <c r="IS12" s="0"/>
-      <c r="IT12" s="0"/>
-      <c r="IU12" s="0"/>
-      <c r="IV12" s="0"/>
-      <c r="IW12" s="0"/>
-      <c r="IX12" s="0"/>
-      <c r="IY12" s="0"/>
-      <c r="IZ12" s="0"/>
-      <c r="JA12" s="0"/>
-      <c r="JB12" s="0"/>
-      <c r="JC12" s="0"/>
-      <c r="JD12" s="0"/>
-      <c r="JE12" s="0"/>
-      <c r="JF12" s="0"/>
-      <c r="JG12" s="0"/>
-      <c r="JH12" s="0"/>
-      <c r="JI12" s="0"/>
-      <c r="JJ12" s="0"/>
-      <c r="JK12" s="0"/>
-      <c r="JL12" s="0"/>
-      <c r="JM12" s="0"/>
-      <c r="JN12" s="0"/>
-      <c r="JO12" s="0"/>
-      <c r="JP12" s="0"/>
-      <c r="JQ12" s="0"/>
-      <c r="JR12" s="0"/>
-      <c r="JS12" s="0"/>
-      <c r="JT12" s="0"/>
-      <c r="JU12" s="0"/>
-      <c r="JV12" s="0"/>
-      <c r="JW12" s="0"/>
-      <c r="JX12" s="0"/>
-      <c r="JY12" s="0"/>
-      <c r="JZ12" s="0"/>
-      <c r="KA12" s="0"/>
-      <c r="KB12" s="0"/>
-      <c r="KC12" s="0"/>
-      <c r="KD12" s="0"/>
-      <c r="KE12" s="0"/>
-      <c r="KF12" s="0"/>
-      <c r="KG12" s="0"/>
-      <c r="KH12" s="0"/>
-      <c r="KI12" s="0"/>
-      <c r="KJ12" s="0"/>
-      <c r="KK12" s="0"/>
-      <c r="KL12" s="0"/>
-      <c r="KM12" s="0"/>
-      <c r="KN12" s="0"/>
-      <c r="KO12" s="0"/>
-      <c r="KP12" s="0"/>
-      <c r="KQ12" s="0"/>
-      <c r="KR12" s="0"/>
-      <c r="KS12" s="0"/>
-      <c r="KT12" s="0"/>
-      <c r="KU12" s="0"/>
-      <c r="KV12" s="0"/>
-      <c r="KW12" s="0"/>
-      <c r="KX12" s="0"/>
-      <c r="KY12" s="0"/>
-      <c r="KZ12" s="0"/>
-      <c r="LA12" s="0"/>
-      <c r="LB12" s="0"/>
-      <c r="LC12" s="0"/>
-      <c r="LD12" s="0"/>
-      <c r="LE12" s="0"/>
-      <c r="LF12" s="0"/>
-      <c r="LG12" s="0"/>
-      <c r="LH12" s="0"/>
-      <c r="LI12" s="0"/>
-      <c r="LJ12" s="0"/>
-      <c r="LK12" s="0"/>
-      <c r="LL12" s="0"/>
-      <c r="LM12" s="0"/>
-      <c r="LN12" s="0"/>
-      <c r="LO12" s="0"/>
-      <c r="LP12" s="0"/>
-      <c r="LQ12" s="0"/>
-      <c r="LR12" s="0"/>
-      <c r="LS12" s="0"/>
-      <c r="LT12" s="0"/>
-      <c r="LU12" s="0"/>
-      <c r="LV12" s="0"/>
-      <c r="LW12" s="0"/>
-      <c r="LX12" s="0"/>
-      <c r="LY12" s="0"/>
-      <c r="LZ12" s="0"/>
-      <c r="MA12" s="0"/>
-      <c r="MB12" s="0"/>
-      <c r="MC12" s="0"/>
-      <c r="MD12" s="0"/>
-      <c r="ME12" s="0"/>
-      <c r="MF12" s="0"/>
-      <c r="MG12" s="0"/>
-      <c r="MH12" s="0"/>
-      <c r="MI12" s="0"/>
-      <c r="MJ12" s="0"/>
-      <c r="MK12" s="0"/>
-      <c r="ML12" s="0"/>
-      <c r="MM12" s="0"/>
-      <c r="MN12" s="0"/>
-      <c r="MO12" s="0"/>
-      <c r="MP12" s="0"/>
-      <c r="MQ12" s="0"/>
-      <c r="MR12" s="0"/>
-      <c r="MS12" s="0"/>
-      <c r="MT12" s="0"/>
-      <c r="MU12" s="0"/>
-      <c r="MV12" s="0"/>
-      <c r="MW12" s="0"/>
-      <c r="MX12" s="0"/>
-      <c r="MY12" s="0"/>
-      <c r="MZ12" s="0"/>
-      <c r="NA12" s="0"/>
-      <c r="NB12" s="0"/>
-      <c r="NC12" s="0"/>
-      <c r="ND12" s="0"/>
-      <c r="NE12" s="0"/>
-      <c r="NF12" s="0"/>
-      <c r="NG12" s="0"/>
-      <c r="NH12" s="0"/>
-      <c r="NI12" s="0"/>
-      <c r="NJ12" s="0"/>
-      <c r="NK12" s="0"/>
-      <c r="NL12" s="0"/>
-      <c r="NM12" s="0"/>
-      <c r="NN12" s="0"/>
-      <c r="NO12" s="0"/>
-      <c r="NP12" s="0"/>
-      <c r="NQ12" s="0"/>
-      <c r="NR12" s="0"/>
-      <c r="NS12" s="0"/>
-      <c r="NT12" s="0"/>
-      <c r="NU12" s="0"/>
-      <c r="NV12" s="0"/>
-      <c r="NW12" s="0"/>
-      <c r="NX12" s="0"/>
-      <c r="NY12" s="0"/>
-      <c r="NZ12" s="0"/>
-      <c r="OA12" s="0"/>
-      <c r="OB12" s="0"/>
-      <c r="OC12" s="0"/>
-      <c r="OD12" s="0"/>
-      <c r="OE12" s="0"/>
-      <c r="OF12" s="0"/>
-      <c r="OG12" s="0"/>
-      <c r="OH12" s="0"/>
-      <c r="OI12" s="0"/>
-      <c r="OJ12" s="0"/>
-      <c r="OK12" s="0"/>
-      <c r="OL12" s="0"/>
-      <c r="OM12" s="0"/>
-      <c r="ON12" s="0"/>
-      <c r="OO12" s="0"/>
-      <c r="OP12" s="0"/>
-      <c r="OQ12" s="0"/>
-      <c r="OR12" s="0"/>
-      <c r="OS12" s="0"/>
-      <c r="OT12" s="0"/>
-      <c r="OU12" s="0"/>
-      <c r="OV12" s="0"/>
-      <c r="OW12" s="0"/>
-      <c r="OX12" s="0"/>
-      <c r="OY12" s="0"/>
-      <c r="OZ12" s="0"/>
-      <c r="PA12" s="0"/>
-      <c r="PB12" s="0"/>
-      <c r="PC12" s="0"/>
-      <c r="PD12" s="0"/>
-      <c r="PE12" s="0"/>
-      <c r="PF12" s="0"/>
-      <c r="PG12" s="0"/>
-      <c r="PH12" s="0"/>
-      <c r="PI12" s="0"/>
-      <c r="PJ12" s="0"/>
-      <c r="PK12" s="0"/>
-      <c r="PL12" s="0"/>
-      <c r="PM12" s="0"/>
-      <c r="PN12" s="0"/>
-      <c r="PO12" s="0"/>
-      <c r="PP12" s="0"/>
-      <c r="PQ12" s="0"/>
-      <c r="PR12" s="0"/>
-      <c r="PS12" s="0"/>
-      <c r="PT12" s="0"/>
-      <c r="PU12" s="0"/>
-      <c r="PV12" s="0"/>
-      <c r="PW12" s="0"/>
-      <c r="PX12" s="0"/>
-      <c r="PY12" s="0"/>
-      <c r="PZ12" s="0"/>
-      <c r="QA12" s="0"/>
-      <c r="QB12" s="0"/>
-      <c r="QC12" s="0"/>
-      <c r="QD12" s="0"/>
-      <c r="QE12" s="0"/>
-      <c r="QF12" s="0"/>
-      <c r="QG12" s="0"/>
-      <c r="QH12" s="0"/>
-      <c r="QI12" s="0"/>
-      <c r="QJ12" s="0"/>
-      <c r="QK12" s="0"/>
-      <c r="QL12" s="0"/>
-      <c r="QM12" s="0"/>
-      <c r="QN12" s="0"/>
-      <c r="QO12" s="0"/>
-      <c r="QP12" s="0"/>
-      <c r="QQ12" s="0"/>
-      <c r="QR12" s="0"/>
-      <c r="QS12" s="0"/>
-      <c r="QT12" s="0"/>
-      <c r="QU12" s="0"/>
-      <c r="QV12" s="0"/>
-      <c r="QW12" s="0"/>
-      <c r="QX12" s="0"/>
-      <c r="QY12" s="0"/>
-      <c r="QZ12" s="0"/>
-      <c r="RA12" s="0"/>
-      <c r="RB12" s="0"/>
-      <c r="RC12" s="0"/>
-      <c r="RD12" s="0"/>
-      <c r="RE12" s="0"/>
-      <c r="RF12" s="0"/>
-      <c r="RG12" s="0"/>
-      <c r="RH12" s="0"/>
-      <c r="RI12" s="0"/>
-      <c r="RJ12" s="0"/>
-      <c r="RK12" s="0"/>
-      <c r="RL12" s="0"/>
-      <c r="RM12" s="0"/>
-      <c r="RN12" s="0"/>
-      <c r="RO12" s="0"/>
-      <c r="RP12" s="0"/>
-      <c r="RQ12" s="0"/>
-      <c r="RR12" s="0"/>
-      <c r="RS12" s="0"/>
-      <c r="RT12" s="0"/>
-      <c r="RU12" s="0"/>
-      <c r="RV12" s="0"/>
-      <c r="RW12" s="0"/>
-      <c r="RX12" s="0"/>
-      <c r="RY12" s="0"/>
-      <c r="RZ12" s="0"/>
-      <c r="SA12" s="0"/>
-      <c r="SB12" s="0"/>
-      <c r="SC12" s="0"/>
-      <c r="SD12" s="0"/>
-      <c r="SE12" s="0"/>
-      <c r="SF12" s="0"/>
-      <c r="SG12" s="0"/>
-      <c r="SH12" s="0"/>
-      <c r="SI12" s="0"/>
-      <c r="SJ12" s="0"/>
-      <c r="SK12" s="0"/>
-      <c r="SL12" s="0"/>
-      <c r="SM12" s="0"/>
-      <c r="SN12" s="0"/>
-      <c r="SO12" s="0"/>
-      <c r="SP12" s="0"/>
-      <c r="SQ12" s="0"/>
-      <c r="SR12" s="0"/>
-      <c r="SS12" s="0"/>
-      <c r="ST12" s="0"/>
-      <c r="SU12" s="0"/>
-      <c r="SV12" s="0"/>
-      <c r="SW12" s="0"/>
-      <c r="SX12" s="0"/>
-      <c r="SY12" s="0"/>
-      <c r="SZ12" s="0"/>
-      <c r="TA12" s="0"/>
-      <c r="TB12" s="0"/>
-      <c r="TC12" s="0"/>
-      <c r="TD12" s="0"/>
-      <c r="TE12" s="0"/>
-      <c r="TF12" s="0"/>
-      <c r="TG12" s="0"/>
-      <c r="TH12" s="0"/>
-      <c r="TI12" s="0"/>
-      <c r="TJ12" s="0"/>
-      <c r="TK12" s="0"/>
-      <c r="TL12" s="0"/>
-      <c r="TM12" s="0"/>
-      <c r="TN12" s="0"/>
-      <c r="TO12" s="0"/>
-      <c r="TP12" s="0"/>
-      <c r="TQ12" s="0"/>
-      <c r="TR12" s="0"/>
-      <c r="TS12" s="0"/>
-      <c r="TT12" s="0"/>
-      <c r="TU12" s="0"/>
-      <c r="TV12" s="0"/>
-      <c r="TW12" s="0"/>
-      <c r="TX12" s="0"/>
-      <c r="TY12" s="0"/>
-      <c r="TZ12" s="0"/>
-      <c r="UA12" s="0"/>
-      <c r="UB12" s="0"/>
-      <c r="UC12" s="0"/>
-      <c r="UD12" s="0"/>
-      <c r="UE12" s="0"/>
-      <c r="UF12" s="0"/>
-      <c r="UG12" s="0"/>
-      <c r="UH12" s="0"/>
-      <c r="UI12" s="0"/>
-      <c r="UJ12" s="0"/>
-      <c r="UK12" s="0"/>
-      <c r="UL12" s="0"/>
-      <c r="UM12" s="0"/>
-      <c r="UN12" s="0"/>
-      <c r="UO12" s="0"/>
-      <c r="UP12" s="0"/>
-      <c r="UQ12" s="0"/>
-      <c r="UR12" s="0"/>
-      <c r="US12" s="0"/>
-      <c r="UT12" s="0"/>
-      <c r="UU12" s="0"/>
-      <c r="UV12" s="0"/>
-      <c r="UW12" s="0"/>
-      <c r="UX12" s="0"/>
-      <c r="UY12" s="0"/>
-      <c r="UZ12" s="0"/>
-      <c r="VA12" s="0"/>
-      <c r="VB12" s="0"/>
-      <c r="VC12" s="0"/>
-      <c r="VD12" s="0"/>
-      <c r="VE12" s="0"/>
-      <c r="VF12" s="0"/>
-      <c r="VG12" s="0"/>
-      <c r="VH12" s="0"/>
-      <c r="VI12" s="0"/>
-      <c r="VJ12" s="0"/>
-      <c r="VK12" s="0"/>
-      <c r="VL12" s="0"/>
-      <c r="VM12" s="0"/>
-      <c r="VN12" s="0"/>
-      <c r="VO12" s="0"/>
-      <c r="VP12" s="0"/>
-      <c r="VQ12" s="0"/>
-      <c r="VR12" s="0"/>
-      <c r="VS12" s="0"/>
-      <c r="VT12" s="0"/>
-      <c r="VU12" s="0"/>
-      <c r="VV12" s="0"/>
-      <c r="VW12" s="0"/>
-      <c r="VX12" s="0"/>
-      <c r="VY12" s="0"/>
-      <c r="VZ12" s="0"/>
-      <c r="WA12" s="0"/>
-      <c r="WB12" s="0"/>
-      <c r="WC12" s="0"/>
-      <c r="WD12" s="0"/>
-      <c r="WE12" s="0"/>
-      <c r="WF12" s="0"/>
-      <c r="WG12" s="0"/>
-      <c r="WH12" s="0"/>
-      <c r="WI12" s="0"/>
-      <c r="WJ12" s="0"/>
-      <c r="WK12" s="0"/>
-      <c r="WL12" s="0"/>
-      <c r="WM12" s="0"/>
-      <c r="WN12" s="0"/>
-      <c r="WO12" s="0"/>
-      <c r="WP12" s="0"/>
-      <c r="WQ12" s="0"/>
-      <c r="WR12" s="0"/>
-      <c r="WS12" s="0"/>
-      <c r="WT12" s="0"/>
-      <c r="WU12" s="0"/>
-      <c r="WV12" s="0"/>
-      <c r="WW12" s="0"/>
-      <c r="WX12" s="0"/>
-      <c r="WY12" s="0"/>
-      <c r="WZ12" s="0"/>
-      <c r="XA12" s="0"/>
-      <c r="XB12" s="0"/>
-      <c r="XC12" s="0"/>
-      <c r="XD12" s="0"/>
-      <c r="XE12" s="0"/>
-      <c r="XF12" s="0"/>
-      <c r="XG12" s="0"/>
-      <c r="XH12" s="0"/>
-      <c r="XI12" s="0"/>
-      <c r="XJ12" s="0"/>
-      <c r="XK12" s="0"/>
-      <c r="XL12" s="0"/>
-      <c r="XM12" s="0"/>
-      <c r="XN12" s="0"/>
-      <c r="XO12" s="0"/>
-      <c r="XP12" s="0"/>
-      <c r="XQ12" s="0"/>
-      <c r="XR12" s="0"/>
-      <c r="XS12" s="0"/>
-      <c r="XT12" s="0"/>
-      <c r="XU12" s="0"/>
-      <c r="XV12" s="0"/>
-      <c r="XW12" s="0"/>
-      <c r="XX12" s="0"/>
-      <c r="XY12" s="0"/>
-      <c r="XZ12" s="0"/>
-      <c r="YA12" s="0"/>
-      <c r="YB12" s="0"/>
-      <c r="YC12" s="0"/>
-      <c r="YD12" s="0"/>
-      <c r="YE12" s="0"/>
-      <c r="YF12" s="0"/>
-      <c r="YG12" s="0"/>
-      <c r="YH12" s="0"/>
-      <c r="YI12" s="0"/>
-      <c r="YJ12" s="0"/>
-      <c r="YK12" s="0"/>
-      <c r="YL12" s="0"/>
-      <c r="YM12" s="0"/>
-      <c r="YN12" s="0"/>
-      <c r="YO12" s="0"/>
-      <c r="YP12" s="0"/>
-      <c r="YQ12" s="0"/>
-      <c r="YR12" s="0"/>
-      <c r="YS12" s="0"/>
-      <c r="YT12" s="0"/>
-      <c r="YU12" s="0"/>
-      <c r="YV12" s="0"/>
-      <c r="YW12" s="0"/>
-      <c r="YX12" s="0"/>
-      <c r="YY12" s="0"/>
-      <c r="YZ12" s="0"/>
-      <c r="ZA12" s="0"/>
-      <c r="ZB12" s="0"/>
-      <c r="ZC12" s="0"/>
-      <c r="ZD12" s="0"/>
-      <c r="ZE12" s="0"/>
-      <c r="ZF12" s="0"/>
-      <c r="ZG12" s="0"/>
-      <c r="ZH12" s="0"/>
-      <c r="ZI12" s="0"/>
-      <c r="ZJ12" s="0"/>
-      <c r="ZK12" s="0"/>
-      <c r="ZL12" s="0"/>
-      <c r="ZM12" s="0"/>
-      <c r="ZN12" s="0"/>
-      <c r="ZO12" s="0"/>
-      <c r="ZP12" s="0"/>
-      <c r="ZQ12" s="0"/>
-      <c r="ZR12" s="0"/>
-      <c r="ZS12" s="0"/>
-      <c r="ZT12" s="0"/>
-      <c r="ZU12" s="0"/>
-      <c r="ZV12" s="0"/>
-      <c r="ZW12" s="0"/>
-      <c r="ZX12" s="0"/>
-      <c r="ZY12" s="0"/>
-      <c r="ZZ12" s="0"/>
-      <c r="AAA12" s="0"/>
-      <c r="AAB12" s="0"/>
-      <c r="AAC12" s="0"/>
-      <c r="AAD12" s="0"/>
-      <c r="AAE12" s="0"/>
-      <c r="AAF12" s="0"/>
-      <c r="AAG12" s="0"/>
-      <c r="AAH12" s="0"/>
-      <c r="AAI12" s="0"/>
-      <c r="AAJ12" s="0"/>
-      <c r="AAK12" s="0"/>
-      <c r="AAL12" s="0"/>
-      <c r="AAM12" s="0"/>
-      <c r="AAN12" s="0"/>
-      <c r="AAO12" s="0"/>
-      <c r="AAP12" s="0"/>
-      <c r="AAQ12" s="0"/>
-      <c r="AAR12" s="0"/>
-      <c r="AAS12" s="0"/>
-      <c r="AAT12" s="0"/>
-      <c r="AAU12" s="0"/>
-      <c r="AAV12" s="0"/>
-      <c r="AAW12" s="0"/>
-      <c r="AAX12" s="0"/>
-      <c r="AAY12" s="0"/>
-      <c r="AAZ12" s="0"/>
-      <c r="ABA12" s="0"/>
-      <c r="ABB12" s="0"/>
-      <c r="ABC12" s="0"/>
-      <c r="ABD12" s="0"/>
-      <c r="ABE12" s="0"/>
-      <c r="ABF12" s="0"/>
-      <c r="ABG12" s="0"/>
-      <c r="ABH12" s="0"/>
-      <c r="ABI12" s="0"/>
-      <c r="ABJ12" s="0"/>
-      <c r="ABK12" s="0"/>
-      <c r="ABL12" s="0"/>
-      <c r="ABM12" s="0"/>
-      <c r="ABN12" s="0"/>
-      <c r="ABO12" s="0"/>
-      <c r="ABP12" s="0"/>
-      <c r="ABQ12" s="0"/>
-      <c r="ABR12" s="0"/>
-      <c r="ABS12" s="0"/>
-      <c r="ABT12" s="0"/>
-      <c r="ABU12" s="0"/>
-      <c r="ABV12" s="0"/>
-      <c r="ABW12" s="0"/>
-      <c r="ABX12" s="0"/>
-      <c r="ABY12" s="0"/>
-      <c r="ABZ12" s="0"/>
-      <c r="ACA12" s="0"/>
-      <c r="ACB12" s="0"/>
-      <c r="ACC12" s="0"/>
-      <c r="ACD12" s="0"/>
-      <c r="ACE12" s="0"/>
-      <c r="ACF12" s="0"/>
-      <c r="ACG12" s="0"/>
-      <c r="ACH12" s="0"/>
-      <c r="ACI12" s="0"/>
-      <c r="ACJ12" s="0"/>
-      <c r="ACK12" s="0"/>
-      <c r="ACL12" s="0"/>
-      <c r="ACM12" s="0"/>
-      <c r="ACN12" s="0"/>
-      <c r="ACO12" s="0"/>
-      <c r="ACP12" s="0"/>
-      <c r="ACQ12" s="0"/>
-      <c r="ACR12" s="0"/>
-      <c r="ACS12" s="0"/>
-      <c r="ACT12" s="0"/>
-      <c r="ACU12" s="0"/>
-      <c r="ACV12" s="0"/>
-      <c r="ACW12" s="0"/>
-      <c r="ACX12" s="0"/>
-      <c r="ACY12" s="0"/>
-      <c r="ACZ12" s="0"/>
-      <c r="ADA12" s="0"/>
-      <c r="ADB12" s="0"/>
-      <c r="ADC12" s="0"/>
-      <c r="ADD12" s="0"/>
-      <c r="ADE12" s="0"/>
-      <c r="ADF12" s="0"/>
-      <c r="ADG12" s="0"/>
-      <c r="ADH12" s="0"/>
-      <c r="ADI12" s="0"/>
-      <c r="ADJ12" s="0"/>
-      <c r="ADK12" s="0"/>
-      <c r="ADL12" s="0"/>
-      <c r="ADM12" s="0"/>
-      <c r="ADN12" s="0"/>
-      <c r="ADO12" s="0"/>
-      <c r="ADP12" s="0"/>
-      <c r="ADQ12" s="0"/>
-      <c r="ADR12" s="0"/>
-      <c r="ADS12" s="0"/>
-      <c r="ADT12" s="0"/>
-      <c r="ADU12" s="0"/>
-      <c r="ADV12" s="0"/>
-      <c r="ADW12" s="0"/>
-      <c r="ADX12" s="0"/>
-      <c r="ADY12" s="0"/>
-      <c r="ADZ12" s="0"/>
-      <c r="AEA12" s="0"/>
-      <c r="AEB12" s="0"/>
-      <c r="AEC12" s="0"/>
-      <c r="AED12" s="0"/>
-      <c r="AEE12" s="0"/>
-      <c r="AEF12" s="0"/>
-      <c r="AEG12" s="0"/>
-      <c r="AEH12" s="0"/>
-      <c r="AEI12" s="0"/>
-      <c r="AEJ12" s="0"/>
-      <c r="AEK12" s="0"/>
-      <c r="AEL12" s="0"/>
-      <c r="AEM12" s="0"/>
-      <c r="AEN12" s="0"/>
-      <c r="AEO12" s="0"/>
-      <c r="AEP12" s="0"/>
-      <c r="AEQ12" s="0"/>
-      <c r="AER12" s="0"/>
-      <c r="AES12" s="0"/>
-      <c r="AET12" s="0"/>
-      <c r="AEU12" s="0"/>
-      <c r="AEV12" s="0"/>
-      <c r="AEW12" s="0"/>
-      <c r="AEX12" s="0"/>
-      <c r="AEY12" s="0"/>
-      <c r="AEZ12" s="0"/>
-      <c r="AFA12" s="0"/>
-      <c r="AFB12" s="0"/>
-      <c r="AFC12" s="0"/>
-      <c r="AFD12" s="0"/>
-      <c r="AFE12" s="0"/>
-      <c r="AFF12" s="0"/>
-      <c r="AFG12" s="0"/>
-      <c r="AFH12" s="0"/>
-      <c r="AFI12" s="0"/>
-      <c r="AFJ12" s="0"/>
-      <c r="AFK12" s="0"/>
-      <c r="AFL12" s="0"/>
-      <c r="AFM12" s="0"/>
-      <c r="AFN12" s="0"/>
-      <c r="AFO12" s="0"/>
-      <c r="AFP12" s="0"/>
-      <c r="AFQ12" s="0"/>
-      <c r="AFR12" s="0"/>
-      <c r="AFS12" s="0"/>
-      <c r="AFT12" s="0"/>
-      <c r="AFU12" s="0"/>
-      <c r="AFV12" s="0"/>
-      <c r="AFW12" s="0"/>
-      <c r="AFX12" s="0"/>
-      <c r="AFY12" s="0"/>
-      <c r="AFZ12" s="0"/>
-      <c r="AGA12" s="0"/>
-      <c r="AGB12" s="0"/>
-      <c r="AGC12" s="0"/>
-      <c r="AGD12" s="0"/>
-      <c r="AGE12" s="0"/>
-      <c r="AGF12" s="0"/>
-      <c r="AGG12" s="0"/>
-      <c r="AGH12" s="0"/>
-      <c r="AGI12" s="0"/>
-      <c r="AGJ12" s="0"/>
-      <c r="AGK12" s="0"/>
-      <c r="AGL12" s="0"/>
-      <c r="AGM12" s="0"/>
-      <c r="AGN12" s="0"/>
-      <c r="AGO12" s="0"/>
-      <c r="AGP12" s="0"/>
-      <c r="AGQ12" s="0"/>
-      <c r="AGR12" s="0"/>
-      <c r="AGS12" s="0"/>
-      <c r="AGT12" s="0"/>
-      <c r="AGU12" s="0"/>
-      <c r="AGV12" s="0"/>
-      <c r="AGW12" s="0"/>
-      <c r="AGX12" s="0"/>
-      <c r="AGY12" s="0"/>
-      <c r="AGZ12" s="0"/>
-      <c r="AHA12" s="0"/>
-      <c r="AHB12" s="0"/>
-      <c r="AHC12" s="0"/>
-      <c r="AHD12" s="0"/>
-      <c r="AHE12" s="0"/>
-      <c r="AHF12" s="0"/>
-      <c r="AHG12" s="0"/>
-      <c r="AHH12" s="0"/>
-      <c r="AHI12" s="0"/>
-      <c r="AHJ12" s="0"/>
-      <c r="AHK12" s="0"/>
-      <c r="AHL12" s="0"/>
-      <c r="AHM12" s="0"/>
-      <c r="AHN12" s="0"/>
-      <c r="AHO12" s="0"/>
-      <c r="AHP12" s="0"/>
-      <c r="AHQ12" s="0"/>
-      <c r="AHR12" s="0"/>
-      <c r="AHS12" s="0"/>
-      <c r="AHT12" s="0"/>
-      <c r="AHU12" s="0"/>
-      <c r="AHV12" s="0"/>
-      <c r="AHW12" s="0"/>
-      <c r="AHX12" s="0"/>
-      <c r="AHY12" s="0"/>
-      <c r="AHZ12" s="0"/>
-      <c r="AIA12" s="0"/>
-      <c r="AIB12" s="0"/>
-      <c r="AIC12" s="0"/>
-      <c r="AID12" s="0"/>
-      <c r="AIE12" s="0"/>
-      <c r="AIF12" s="0"/>
-      <c r="AIG12" s="0"/>
-      <c r="AIH12" s="0"/>
-      <c r="AII12" s="0"/>
-      <c r="AIJ12" s="0"/>
-      <c r="AIK12" s="0"/>
-      <c r="AIL12" s="0"/>
-      <c r="AIM12" s="0"/>
-      <c r="AIN12" s="0"/>
-      <c r="AIO12" s="0"/>
-      <c r="AIP12" s="0"/>
-      <c r="AIQ12" s="0"/>
-      <c r="AIR12" s="0"/>
-      <c r="AIS12" s="0"/>
-      <c r="AIT12" s="0"/>
-      <c r="AIU12" s="0"/>
-      <c r="AIV12" s="0"/>
-      <c r="AIW12" s="0"/>
-      <c r="AIX12" s="0"/>
-      <c r="AIY12" s="0"/>
-      <c r="AIZ12" s="0"/>
-      <c r="AJA12" s="0"/>
-      <c r="AJB12" s="0"/>
-      <c r="AJC12" s="0"/>
-      <c r="AJD12" s="0"/>
-      <c r="AJE12" s="0"/>
-      <c r="AJF12" s="0"/>
-      <c r="AJG12" s="0"/>
-      <c r="AJH12" s="0"/>
-      <c r="AJI12" s="0"/>
-      <c r="AJJ12" s="0"/>
-      <c r="AJK12" s="0"/>
-      <c r="AJL12" s="0"/>
-      <c r="AJM12" s="0"/>
-      <c r="AJN12" s="0"/>
-      <c r="AJO12" s="0"/>
-      <c r="AJP12" s="0"/>
-      <c r="AJQ12" s="0"/>
-      <c r="AJR12" s="0"/>
-      <c r="AJS12" s="0"/>
-      <c r="AJT12" s="0"/>
-      <c r="AJU12" s="0"/>
-      <c r="AJV12" s="0"/>
-      <c r="AJW12" s="0"/>
-      <c r="AJX12" s="0"/>
-      <c r="AJY12" s="0"/>
-      <c r="AJZ12" s="0"/>
-      <c r="AKA12" s="0"/>
-      <c r="AKB12" s="0"/>
-      <c r="AKC12" s="0"/>
-      <c r="AKD12" s="0"/>
-      <c r="AKE12" s="0"/>
-      <c r="AKF12" s="0"/>
-      <c r="AKG12" s="0"/>
-      <c r="AKH12" s="0"/>
-      <c r="AKI12" s="0"/>
-      <c r="AKJ12" s="0"/>
-      <c r="AKK12" s="0"/>
-      <c r="AKL12" s="0"/>
-      <c r="AKM12" s="0"/>
-      <c r="AKN12" s="0"/>
-      <c r="AKO12" s="0"/>
-      <c r="AKP12" s="0"/>
-      <c r="AKQ12" s="0"/>
-      <c r="AKR12" s="0"/>
-      <c r="AKS12" s="0"/>
-      <c r="AKT12" s="0"/>
-      <c r="AKU12" s="0"/>
-      <c r="AKV12" s="0"/>
-      <c r="AKW12" s="0"/>
-      <c r="AKX12" s="0"/>
-      <c r="AKY12" s="0"/>
-      <c r="AKZ12" s="0"/>
-      <c r="ALA12" s="0"/>
-      <c r="ALB12" s="0"/>
-      <c r="ALC12" s="0"/>
-      <c r="ALD12" s="0"/>
-      <c r="ALE12" s="0"/>
-      <c r="ALF12" s="0"/>
-      <c r="ALG12" s="0"/>
-      <c r="ALH12" s="0"/>
-      <c r="ALI12" s="0"/>
-      <c r="ALJ12" s="0"/>
-      <c r="ALK12" s="0"/>
-      <c r="ALL12" s="0"/>
-      <c r="ALM12" s="0"/>
-      <c r="ALN12" s="0"/>
-      <c r="ALO12" s="0"/>
-      <c r="ALP12" s="0"/>
-      <c r="ALQ12" s="0"/>
-      <c r="ALR12" s="0"/>
-      <c r="ALS12" s="0"/>
-      <c r="ALT12" s="0"/>
-      <c r="ALU12" s="0"/>
-      <c r="ALV12" s="0"/>
-      <c r="ALW12" s="0"/>
-      <c r="ALX12" s="0"/>
-      <c r="ALY12" s="0"/>
-      <c r="ALZ12" s="0"/>
-      <c r="AMA12" s="0"/>
-      <c r="AMB12" s="0"/>
-      <c r="AMC12" s="0"/>
-      <c r="AMD12" s="0"/>
-    </row>
-    <row r="13" s="20" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="G13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="H13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="18" t="s">
+    </row>
+    <row r="14" s="16" customFormat="true" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="E14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="19" t="e">
-        <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "G" &amp; ROW() )</f>
-        <v>#VALUE!</v>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
       </c>
-      <c r="AME13" s="0"/>
-      <c r="AMF13" s="0"/>
-      <c r="AMG13" s="0"/>
-      <c r="AMH13" s="0"/>
-      <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
+      <c r="G14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AME14" s="14"/>
+      <c r="AMF14" s="14"/>
+      <c r="AMG14" s="14"/>
+      <c r="AMH14" s="14"/>
+      <c r="AMI14" s="14"/>
+      <c r="AMJ14" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13" t="s">
+    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="15" t="e">
-        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "F" &amp; ROW() )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="0"/>
-      <c r="AC14" s="0"/>
-      <c r="AD14" s="0"/>
-      <c r="AE14" s="0"/>
-      <c r="AF14" s="0"/>
-      <c r="AG14" s="0"/>
-      <c r="AH14" s="0"/>
-      <c r="AI14" s="0"/>
-      <c r="AJ14" s="0"/>
-      <c r="AK14" s="0"/>
-      <c r="AL14" s="0"/>
-      <c r="AM14" s="0"/>
-      <c r="AN14" s="0"/>
-      <c r="AO14" s="0"/>
-      <c r="AP14" s="0"/>
-      <c r="AQ14" s="0"/>
-      <c r="AR14" s="0"/>
-      <c r="AS14" s="0"/>
-      <c r="AT14" s="0"/>
-      <c r="AU14" s="0"/>
-      <c r="AV14" s="0"/>
-      <c r="AW14" s="0"/>
-      <c r="AX14" s="0"/>
-      <c r="AY14" s="0"/>
-      <c r="AZ14" s="0"/>
-      <c r="BA14" s="0"/>
-      <c r="BB14" s="0"/>
-      <c r="BC14" s="0"/>
-      <c r="BD14" s="0"/>
-      <c r="BE14" s="0"/>
-      <c r="BF14" s="0"/>
-      <c r="BG14" s="0"/>
-      <c r="BH14" s="0"/>
-      <c r="BI14" s="0"/>
-      <c r="BJ14" s="0"/>
-      <c r="BK14" s="0"/>
-      <c r="BL14" s="0"/>
-      <c r="BM14" s="0"/>
-      <c r="BN14" s="0"/>
-      <c r="BO14" s="0"/>
-      <c r="BP14" s="0"/>
-      <c r="BQ14" s="0"/>
-      <c r="BR14" s="0"/>
-      <c r="BS14" s="0"/>
-      <c r="BT14" s="0"/>
-      <c r="BU14" s="0"/>
-      <c r="BV14" s="0"/>
-      <c r="BW14" s="0"/>
-      <c r="BX14" s="0"/>
-      <c r="BY14" s="0"/>
-      <c r="BZ14" s="0"/>
-      <c r="CA14" s="0"/>
-      <c r="CB14" s="0"/>
-      <c r="CC14" s="0"/>
-      <c r="CD14" s="0"/>
-      <c r="CE14" s="0"/>
-      <c r="CF14" s="0"/>
-      <c r="CG14" s="0"/>
-      <c r="CH14" s="0"/>
-      <c r="CI14" s="0"/>
-      <c r="CJ14" s="0"/>
-      <c r="CK14" s="0"/>
-      <c r="CL14" s="0"/>
-      <c r="CM14" s="0"/>
-      <c r="CN14" s="0"/>
-      <c r="CO14" s="0"/>
-      <c r="CP14" s="0"/>
-      <c r="CQ14" s="0"/>
-      <c r="CR14" s="0"/>
-      <c r="CS14" s="0"/>
-      <c r="CT14" s="0"/>
-      <c r="CU14" s="0"/>
-      <c r="CV14" s="0"/>
-      <c r="CW14" s="0"/>
-      <c r="CX14" s="0"/>
-      <c r="CY14" s="0"/>
-      <c r="CZ14" s="0"/>
-      <c r="DA14" s="0"/>
-      <c r="DB14" s="0"/>
-      <c r="DC14" s="0"/>
-      <c r="DD14" s="0"/>
-      <c r="DE14" s="0"/>
-      <c r="DF14" s="0"/>
-      <c r="DG14" s="0"/>
-      <c r="DH14" s="0"/>
-      <c r="DI14" s="0"/>
-      <c r="DJ14" s="0"/>
-      <c r="DK14" s="0"/>
-      <c r="DL14" s="0"/>
-      <c r="DM14" s="0"/>
-      <c r="DN14" s="0"/>
-      <c r="DO14" s="0"/>
-      <c r="DP14" s="0"/>
-      <c r="DQ14" s="0"/>
-      <c r="DR14" s="0"/>
-      <c r="DS14" s="0"/>
-      <c r="DT14" s="0"/>
-      <c r="DU14" s="0"/>
-      <c r="DV14" s="0"/>
-      <c r="DW14" s="0"/>
-      <c r="DX14" s="0"/>
-      <c r="DY14" s="0"/>
-      <c r="DZ14" s="0"/>
-      <c r="EA14" s="0"/>
-      <c r="EB14" s="0"/>
-      <c r="EC14" s="0"/>
-      <c r="ED14" s="0"/>
-      <c r="EE14" s="0"/>
-      <c r="EF14" s="0"/>
-      <c r="EG14" s="0"/>
-      <c r="EH14" s="0"/>
-      <c r="EI14" s="0"/>
-      <c r="EJ14" s="0"/>
-      <c r="EK14" s="0"/>
-      <c r="EL14" s="0"/>
-      <c r="EM14" s="0"/>
-      <c r="EN14" s="0"/>
-      <c r="EO14" s="0"/>
-      <c r="EP14" s="0"/>
-      <c r="EQ14" s="0"/>
-      <c r="ER14" s="0"/>
-      <c r="ES14" s="0"/>
-      <c r="ET14" s="0"/>
-      <c r="EU14" s="0"/>
-      <c r="EV14" s="0"/>
-      <c r="EW14" s="0"/>
-      <c r="EX14" s="0"/>
-      <c r="EY14" s="0"/>
-      <c r="EZ14" s="0"/>
-      <c r="FA14" s="0"/>
-      <c r="FB14" s="0"/>
-      <c r="FC14" s="0"/>
-      <c r="FD14" s="0"/>
-      <c r="FE14" s="0"/>
-      <c r="FF14" s="0"/>
-      <c r="FG14" s="0"/>
-      <c r="FH14" s="0"/>
-      <c r="FI14" s="0"/>
-      <c r="FJ14" s="0"/>
-      <c r="FK14" s="0"/>
-      <c r="FL14" s="0"/>
-      <c r="FM14" s="0"/>
-      <c r="FN14" s="0"/>
-      <c r="FO14" s="0"/>
-      <c r="FP14" s="0"/>
-      <c r="FQ14" s="0"/>
-      <c r="FR14" s="0"/>
-      <c r="FS14" s="0"/>
-      <c r="FT14" s="0"/>
-      <c r="FU14" s="0"/>
-      <c r="FV14" s="0"/>
-      <c r="FW14" s="0"/>
-      <c r="FX14" s="0"/>
-      <c r="FY14" s="0"/>
-      <c r="FZ14" s="0"/>
-      <c r="GA14" s="0"/>
-      <c r="GB14" s="0"/>
-      <c r="GC14" s="0"/>
-      <c r="GD14" s="0"/>
-      <c r="GE14" s="0"/>
-      <c r="GF14" s="0"/>
-      <c r="GG14" s="0"/>
-      <c r="GH14" s="0"/>
-      <c r="GI14" s="0"/>
-      <c r="GJ14" s="0"/>
-      <c r="GK14" s="0"/>
-      <c r="GL14" s="0"/>
-      <c r="GM14" s="0"/>
-      <c r="GN14" s="0"/>
-      <c r="GO14" s="0"/>
-      <c r="GP14" s="0"/>
-      <c r="GQ14" s="0"/>
-      <c r="GR14" s="0"/>
-      <c r="GS14" s="0"/>
-      <c r="GT14" s="0"/>
-      <c r="GU14" s="0"/>
-      <c r="GV14" s="0"/>
-      <c r="GW14" s="0"/>
-      <c r="GX14" s="0"/>
-      <c r="GY14" s="0"/>
-      <c r="GZ14" s="0"/>
-      <c r="HA14" s="0"/>
-      <c r="HB14" s="0"/>
-      <c r="HC14" s="0"/>
-      <c r="HD14" s="0"/>
-      <c r="HE14" s="0"/>
-      <c r="HF14" s="0"/>
-      <c r="HG14" s="0"/>
-      <c r="HH14" s="0"/>
-      <c r="HI14" s="0"/>
-      <c r="HJ14" s="0"/>
-      <c r="HK14" s="0"/>
-      <c r="HL14" s="0"/>
-      <c r="HM14" s="0"/>
-      <c r="HN14" s="0"/>
-      <c r="HO14" s="0"/>
-      <c r="HP14" s="0"/>
-      <c r="HQ14" s="0"/>
-      <c r="HR14" s="0"/>
-      <c r="HS14" s="0"/>
-      <c r="HT14" s="0"/>
-      <c r="HU14" s="0"/>
-      <c r="HV14" s="0"/>
-      <c r="HW14" s="0"/>
-      <c r="HX14" s="0"/>
-      <c r="HY14" s="0"/>
-      <c r="HZ14" s="0"/>
-      <c r="IA14" s="0"/>
-      <c r="IB14" s="0"/>
-      <c r="IC14" s="0"/>
-      <c r="ID14" s="0"/>
-      <c r="IE14" s="0"/>
-      <c r="IF14" s="0"/>
-      <c r="IG14" s="0"/>
-      <c r="IH14" s="0"/>
-      <c r="II14" s="0"/>
-      <c r="IJ14" s="0"/>
-      <c r="IK14" s="0"/>
-      <c r="IL14" s="0"/>
-      <c r="IM14" s="0"/>
-      <c r="IN14" s="0"/>
-      <c r="IO14" s="0"/>
-      <c r="IP14" s="0"/>
-      <c r="IQ14" s="0"/>
-      <c r="IR14" s="0"/>
-      <c r="IS14" s="0"/>
-      <c r="IT14" s="0"/>
-      <c r="IU14" s="0"/>
-      <c r="IV14" s="0"/>
-      <c r="IW14" s="0"/>
-      <c r="IX14" s="0"/>
-      <c r="IY14" s="0"/>
-      <c r="IZ14" s="0"/>
-      <c r="JA14" s="0"/>
-      <c r="JB14" s="0"/>
-      <c r="JC14" s="0"/>
-      <c r="JD14" s="0"/>
-      <c r="JE14" s="0"/>
-      <c r="JF14" s="0"/>
-      <c r="JG14" s="0"/>
-      <c r="JH14" s="0"/>
-      <c r="JI14" s="0"/>
-      <c r="JJ14" s="0"/>
-      <c r="JK14" s="0"/>
-      <c r="JL14" s="0"/>
-      <c r="JM14" s="0"/>
-      <c r="JN14" s="0"/>
-      <c r="JO14" s="0"/>
-      <c r="JP14" s="0"/>
-      <c r="JQ14" s="0"/>
-      <c r="JR14" s="0"/>
-      <c r="JS14" s="0"/>
-      <c r="JT14" s="0"/>
-      <c r="JU14" s="0"/>
-      <c r="JV14" s="0"/>
-      <c r="JW14" s="0"/>
-      <c r="JX14" s="0"/>
-      <c r="JY14" s="0"/>
-      <c r="JZ14" s="0"/>
-      <c r="KA14" s="0"/>
-      <c r="KB14" s="0"/>
-      <c r="KC14" s="0"/>
-      <c r="KD14" s="0"/>
-      <c r="KE14" s="0"/>
-      <c r="KF14" s="0"/>
-      <c r="KG14" s="0"/>
-      <c r="KH14" s="0"/>
-      <c r="KI14" s="0"/>
-      <c r="KJ14" s="0"/>
-      <c r="KK14" s="0"/>
-      <c r="KL14" s="0"/>
-      <c r="KM14" s="0"/>
-      <c r="KN14" s="0"/>
-      <c r="KO14" s="0"/>
-      <c r="KP14" s="0"/>
-      <c r="KQ14" s="0"/>
-      <c r="KR14" s="0"/>
-      <c r="KS14" s="0"/>
-      <c r="KT14" s="0"/>
-      <c r="KU14" s="0"/>
-      <c r="KV14" s="0"/>
-      <c r="KW14" s="0"/>
-      <c r="KX14" s="0"/>
-      <c r="KY14" s="0"/>
-      <c r="KZ14" s="0"/>
-      <c r="LA14" s="0"/>
-      <c r="LB14" s="0"/>
-      <c r="LC14" s="0"/>
-      <c r="LD14" s="0"/>
-      <c r="LE14" s="0"/>
-      <c r="LF14" s="0"/>
-      <c r="LG14" s="0"/>
-      <c r="LH14" s="0"/>
-      <c r="LI14" s="0"/>
-      <c r="LJ14" s="0"/>
-      <c r="LK14" s="0"/>
-      <c r="LL14" s="0"/>
-      <c r="LM14" s="0"/>
-      <c r="LN14" s="0"/>
-      <c r="LO14" s="0"/>
-      <c r="LP14" s="0"/>
-      <c r="LQ14" s="0"/>
-      <c r="LR14" s="0"/>
-      <c r="LS14" s="0"/>
-      <c r="LT14" s="0"/>
-      <c r="LU14" s="0"/>
-      <c r="LV14" s="0"/>
-      <c r="LW14" s="0"/>
-      <c r="LX14" s="0"/>
-      <c r="LY14" s="0"/>
-      <c r="LZ14" s="0"/>
-      <c r="MA14" s="0"/>
-      <c r="MB14" s="0"/>
-      <c r="MC14" s="0"/>
-      <c r="MD14" s="0"/>
-      <c r="ME14" s="0"/>
-      <c r="MF14" s="0"/>
-      <c r="MG14" s="0"/>
-      <c r="MH14" s="0"/>
-      <c r="MI14" s="0"/>
-      <c r="MJ14" s="0"/>
-      <c r="MK14" s="0"/>
-      <c r="ML14" s="0"/>
-      <c r="MM14" s="0"/>
-      <c r="MN14" s="0"/>
-      <c r="MO14" s="0"/>
-      <c r="MP14" s="0"/>
-      <c r="MQ14" s="0"/>
-      <c r="MR14" s="0"/>
-      <c r="MS14" s="0"/>
-      <c r="MT14" s="0"/>
-      <c r="MU14" s="0"/>
-      <c r="MV14" s="0"/>
-      <c r="MW14" s="0"/>
-      <c r="MX14" s="0"/>
-      <c r="MY14" s="0"/>
-      <c r="MZ14" s="0"/>
-      <c r="NA14" s="0"/>
-      <c r="NB14" s="0"/>
-      <c r="NC14" s="0"/>
-      <c r="ND14" s="0"/>
-      <c r="NE14" s="0"/>
-      <c r="NF14" s="0"/>
-      <c r="NG14" s="0"/>
-      <c r="NH14" s="0"/>
-      <c r="NI14" s="0"/>
-      <c r="NJ14" s="0"/>
-      <c r="NK14" s="0"/>
-      <c r="NL14" s="0"/>
-      <c r="NM14" s="0"/>
-      <c r="NN14" s="0"/>
-      <c r="NO14" s="0"/>
-      <c r="NP14" s="0"/>
-      <c r="NQ14" s="0"/>
-      <c r="NR14" s="0"/>
-      <c r="NS14" s="0"/>
-      <c r="NT14" s="0"/>
-      <c r="NU14" s="0"/>
-      <c r="NV14" s="0"/>
-      <c r="NW14" s="0"/>
-      <c r="NX14" s="0"/>
-      <c r="NY14" s="0"/>
-      <c r="NZ14" s="0"/>
-      <c r="OA14" s="0"/>
-      <c r="OB14" s="0"/>
-      <c r="OC14" s="0"/>
-      <c r="OD14" s="0"/>
-      <c r="OE14" s="0"/>
-      <c r="OF14" s="0"/>
-      <c r="OG14" s="0"/>
-      <c r="OH14" s="0"/>
-      <c r="OI14" s="0"/>
-      <c r="OJ14" s="0"/>
-      <c r="OK14" s="0"/>
-      <c r="OL14" s="0"/>
-      <c r="OM14" s="0"/>
-      <c r="ON14" s="0"/>
-      <c r="OO14" s="0"/>
-      <c r="OP14" s="0"/>
-      <c r="OQ14" s="0"/>
-      <c r="OR14" s="0"/>
-      <c r="OS14" s="0"/>
-      <c r="OT14" s="0"/>
-      <c r="OU14" s="0"/>
-      <c r="OV14" s="0"/>
-      <c r="OW14" s="0"/>
-      <c r="OX14" s="0"/>
-      <c r="OY14" s="0"/>
-      <c r="OZ14" s="0"/>
-      <c r="PA14" s="0"/>
-      <c r="PB14" s="0"/>
-      <c r="PC14" s="0"/>
-      <c r="PD14" s="0"/>
-      <c r="PE14" s="0"/>
-      <c r="PF14" s="0"/>
-      <c r="PG14" s="0"/>
-      <c r="PH14" s="0"/>
-      <c r="PI14" s="0"/>
-      <c r="PJ14" s="0"/>
-      <c r="PK14" s="0"/>
-      <c r="PL14" s="0"/>
-      <c r="PM14" s="0"/>
-      <c r="PN14" s="0"/>
-      <c r="PO14" s="0"/>
-      <c r="PP14" s="0"/>
-      <c r="PQ14" s="0"/>
-      <c r="PR14" s="0"/>
-      <c r="PS14" s="0"/>
-      <c r="PT14" s="0"/>
-      <c r="PU14" s="0"/>
-      <c r="PV14" s="0"/>
-      <c r="PW14" s="0"/>
-      <c r="PX14" s="0"/>
-      <c r="PY14" s="0"/>
-      <c r="PZ14" s="0"/>
-      <c r="QA14" s="0"/>
-      <c r="QB14" s="0"/>
-      <c r="QC14" s="0"/>
-      <c r="QD14" s="0"/>
-      <c r="QE14" s="0"/>
-      <c r="QF14" s="0"/>
-      <c r="QG14" s="0"/>
-      <c r="QH14" s="0"/>
-      <c r="QI14" s="0"/>
-      <c r="QJ14" s="0"/>
-      <c r="QK14" s="0"/>
-      <c r="QL14" s="0"/>
-      <c r="QM14" s="0"/>
-      <c r="QN14" s="0"/>
-      <c r="QO14" s="0"/>
-      <c r="QP14" s="0"/>
-      <c r="QQ14" s="0"/>
-      <c r="QR14" s="0"/>
-      <c r="QS14" s="0"/>
-      <c r="QT14" s="0"/>
-      <c r="QU14" s="0"/>
-      <c r="QV14" s="0"/>
-      <c r="QW14" s="0"/>
-      <c r="QX14" s="0"/>
-      <c r="QY14" s="0"/>
-      <c r="QZ14" s="0"/>
-      <c r="RA14" s="0"/>
-      <c r="RB14" s="0"/>
-      <c r="RC14" s="0"/>
-      <c r="RD14" s="0"/>
-      <c r="RE14" s="0"/>
-      <c r="RF14" s="0"/>
-      <c r="RG14" s="0"/>
-      <c r="RH14" s="0"/>
-      <c r="RI14" s="0"/>
-      <c r="RJ14" s="0"/>
-      <c r="RK14" s="0"/>
-      <c r="RL14" s="0"/>
-      <c r="RM14" s="0"/>
-      <c r="RN14" s="0"/>
-      <c r="RO14" s="0"/>
-      <c r="RP14" s="0"/>
-      <c r="RQ14" s="0"/>
-      <c r="RR14" s="0"/>
-      <c r="RS14" s="0"/>
-      <c r="RT14" s="0"/>
-      <c r="RU14" s="0"/>
-      <c r="RV14" s="0"/>
-      <c r="RW14" s="0"/>
-      <c r="RX14" s="0"/>
-      <c r="RY14" s="0"/>
-      <c r="RZ14" s="0"/>
-      <c r="SA14" s="0"/>
-      <c r="SB14" s="0"/>
-      <c r="SC14" s="0"/>
-      <c r="SD14" s="0"/>
-      <c r="SE14" s="0"/>
-      <c r="SF14" s="0"/>
-      <c r="SG14" s="0"/>
-      <c r="SH14" s="0"/>
-      <c r="SI14" s="0"/>
-      <c r="SJ14" s="0"/>
-      <c r="SK14" s="0"/>
-      <c r="SL14" s="0"/>
-      <c r="SM14" s="0"/>
-      <c r="SN14" s="0"/>
-      <c r="SO14" s="0"/>
-      <c r="SP14" s="0"/>
-      <c r="SQ14" s="0"/>
-      <c r="SR14" s="0"/>
-      <c r="SS14" s="0"/>
-      <c r="ST14" s="0"/>
-      <c r="SU14" s="0"/>
-      <c r="SV14" s="0"/>
-      <c r="SW14" s="0"/>
-      <c r="SX14" s="0"/>
-      <c r="SY14" s="0"/>
-      <c r="SZ14" s="0"/>
-      <c r="TA14" s="0"/>
-      <c r="TB14" s="0"/>
-      <c r="TC14" s="0"/>
-      <c r="TD14" s="0"/>
-      <c r="TE14" s="0"/>
-      <c r="TF14" s="0"/>
-      <c r="TG14" s="0"/>
-      <c r="TH14" s="0"/>
-      <c r="TI14" s="0"/>
-      <c r="TJ14" s="0"/>
-      <c r="TK14" s="0"/>
-      <c r="TL14" s="0"/>
-      <c r="TM14" s="0"/>
-      <c r="TN14" s="0"/>
-      <c r="TO14" s="0"/>
-      <c r="TP14" s="0"/>
-      <c r="TQ14" s="0"/>
-      <c r="TR14" s="0"/>
-      <c r="TS14" s="0"/>
-      <c r="TT14" s="0"/>
-      <c r="TU14" s="0"/>
-      <c r="TV14" s="0"/>
-      <c r="TW14" s="0"/>
-      <c r="TX14" s="0"/>
-      <c r="TY14" s="0"/>
-      <c r="TZ14" s="0"/>
-      <c r="UA14" s="0"/>
-      <c r="UB14" s="0"/>
-      <c r="UC14" s="0"/>
-      <c r="UD14" s="0"/>
-      <c r="UE14" s="0"/>
-      <c r="UF14" s="0"/>
-      <c r="UG14" s="0"/>
-      <c r="UH14" s="0"/>
-      <c r="UI14" s="0"/>
-      <c r="UJ14" s="0"/>
-      <c r="UK14" s="0"/>
-      <c r="UL14" s="0"/>
-      <c r="UM14" s="0"/>
-      <c r="UN14" s="0"/>
-      <c r="UO14" s="0"/>
-      <c r="UP14" s="0"/>
-      <c r="UQ14" s="0"/>
-      <c r="UR14" s="0"/>
-      <c r="US14" s="0"/>
-      <c r="UT14" s="0"/>
-      <c r="UU14" s="0"/>
-      <c r="UV14" s="0"/>
-      <c r="UW14" s="0"/>
-      <c r="UX14" s="0"/>
-      <c r="UY14" s="0"/>
-      <c r="UZ14" s="0"/>
-      <c r="VA14" s="0"/>
-      <c r="VB14" s="0"/>
-      <c r="VC14" s="0"/>
-      <c r="VD14" s="0"/>
-      <c r="VE14" s="0"/>
-      <c r="VF14" s="0"/>
-      <c r="VG14" s="0"/>
-      <c r="VH14" s="0"/>
-      <c r="VI14" s="0"/>
-      <c r="VJ14" s="0"/>
-      <c r="VK14" s="0"/>
-      <c r="VL14" s="0"/>
-      <c r="VM14" s="0"/>
-      <c r="VN14" s="0"/>
-      <c r="VO14" s="0"/>
-      <c r="VP14" s="0"/>
-      <c r="VQ14" s="0"/>
-      <c r="VR14" s="0"/>
-      <c r="VS14" s="0"/>
-      <c r="VT14" s="0"/>
-      <c r="VU14" s="0"/>
-      <c r="VV14" s="0"/>
-      <c r="VW14" s="0"/>
-      <c r="VX14" s="0"/>
-      <c r="VY14" s="0"/>
-      <c r="VZ14" s="0"/>
-      <c r="WA14" s="0"/>
-      <c r="WB14" s="0"/>
-      <c r="WC14" s="0"/>
-      <c r="WD14" s="0"/>
-      <c r="WE14" s="0"/>
-      <c r="WF14" s="0"/>
-      <c r="WG14" s="0"/>
-      <c r="WH14" s="0"/>
-      <c r="WI14" s="0"/>
-      <c r="WJ14" s="0"/>
-      <c r="WK14" s="0"/>
-      <c r="WL14" s="0"/>
-      <c r="WM14" s="0"/>
-      <c r="WN14" s="0"/>
-      <c r="WO14" s="0"/>
-      <c r="WP14" s="0"/>
-      <c r="WQ14" s="0"/>
-      <c r="WR14" s="0"/>
-      <c r="WS14" s="0"/>
-      <c r="WT14" s="0"/>
-      <c r="WU14" s="0"/>
-      <c r="WV14" s="0"/>
-      <c r="WW14" s="0"/>
-      <c r="WX14" s="0"/>
-      <c r="WY14" s="0"/>
-      <c r="WZ14" s="0"/>
-      <c r="XA14" s="0"/>
-      <c r="XB14" s="0"/>
-      <c r="XC14" s="0"/>
-      <c r="XD14" s="0"/>
-      <c r="XE14" s="0"/>
-      <c r="XF14" s="0"/>
-      <c r="XG14" s="0"/>
-      <c r="XH14" s="0"/>
-      <c r="XI14" s="0"/>
-      <c r="XJ14" s="0"/>
-      <c r="XK14" s="0"/>
-      <c r="XL14" s="0"/>
-      <c r="XM14" s="0"/>
-      <c r="XN14" s="0"/>
-      <c r="XO14" s="0"/>
-      <c r="XP14" s="0"/>
-      <c r="XQ14" s="0"/>
-      <c r="XR14" s="0"/>
-      <c r="XS14" s="0"/>
-      <c r="XT14" s="0"/>
-      <c r="XU14" s="0"/>
-      <c r="XV14" s="0"/>
-      <c r="XW14" s="0"/>
-      <c r="XX14" s="0"/>
-      <c r="XY14" s="0"/>
-      <c r="XZ14" s="0"/>
-      <c r="YA14" s="0"/>
-      <c r="YB14" s="0"/>
-      <c r="YC14" s="0"/>
-      <c r="YD14" s="0"/>
-      <c r="YE14" s="0"/>
-      <c r="YF14" s="0"/>
-      <c r="YG14" s="0"/>
-      <c r="YH14" s="0"/>
-      <c r="YI14" s="0"/>
-      <c r="YJ14" s="0"/>
-      <c r="YK14" s="0"/>
-      <c r="YL14" s="0"/>
-      <c r="YM14" s="0"/>
-      <c r="YN14" s="0"/>
-      <c r="YO14" s="0"/>
-      <c r="YP14" s="0"/>
-      <c r="YQ14" s="0"/>
-      <c r="YR14" s="0"/>
-      <c r="YS14" s="0"/>
-      <c r="YT14" s="0"/>
-      <c r="YU14" s="0"/>
-      <c r="YV14" s="0"/>
-      <c r="YW14" s="0"/>
-      <c r="YX14" s="0"/>
-      <c r="YY14" s="0"/>
-      <c r="YZ14" s="0"/>
-      <c r="ZA14" s="0"/>
-      <c r="ZB14" s="0"/>
-      <c r="ZC14" s="0"/>
-      <c r="ZD14" s="0"/>
-      <c r="ZE14" s="0"/>
-      <c r="ZF14" s="0"/>
-      <c r="ZG14" s="0"/>
-      <c r="ZH14" s="0"/>
-      <c r="ZI14" s="0"/>
-      <c r="ZJ14" s="0"/>
-      <c r="ZK14" s="0"/>
-      <c r="ZL14" s="0"/>
-      <c r="ZM14" s="0"/>
-      <c r="ZN14" s="0"/>
-      <c r="ZO14" s="0"/>
-      <c r="ZP14" s="0"/>
-      <c r="ZQ14" s="0"/>
-      <c r="ZR14" s="0"/>
-      <c r="ZS14" s="0"/>
-      <c r="ZT14" s="0"/>
-      <c r="ZU14" s="0"/>
-      <c r="ZV14" s="0"/>
-      <c r="ZW14" s="0"/>
-      <c r="ZX14" s="0"/>
-      <c r="ZY14" s="0"/>
-      <c r="ZZ14" s="0"/>
-      <c r="AAA14" s="0"/>
-      <c r="AAB14" s="0"/>
-      <c r="AAC14" s="0"/>
-      <c r="AAD14" s="0"/>
-      <c r="AAE14" s="0"/>
-      <c r="AAF14" s="0"/>
-      <c r="AAG14" s="0"/>
-      <c r="AAH14" s="0"/>
-      <c r="AAI14" s="0"/>
-      <c r="AAJ14" s="0"/>
-      <c r="AAK14" s="0"/>
-      <c r="AAL14" s="0"/>
-      <c r="AAM14" s="0"/>
-      <c r="AAN14" s="0"/>
-      <c r="AAO14" s="0"/>
-      <c r="AAP14" s="0"/>
-      <c r="AAQ14" s="0"/>
-      <c r="AAR14" s="0"/>
-      <c r="AAS14" s="0"/>
-      <c r="AAT14" s="0"/>
-      <c r="AAU14" s="0"/>
-      <c r="AAV14" s="0"/>
-      <c r="AAW14" s="0"/>
-      <c r="AAX14" s="0"/>
-      <c r="AAY14" s="0"/>
-      <c r="AAZ14" s="0"/>
-      <c r="ABA14" s="0"/>
-      <c r="ABB14" s="0"/>
-      <c r="ABC14" s="0"/>
-      <c r="ABD14" s="0"/>
-      <c r="ABE14" s="0"/>
-      <c r="ABF14" s="0"/>
-      <c r="ABG14" s="0"/>
-      <c r="ABH14" s="0"/>
-      <c r="ABI14" s="0"/>
-      <c r="ABJ14" s="0"/>
-      <c r="ABK14" s="0"/>
-      <c r="ABL14" s="0"/>
-      <c r="ABM14" s="0"/>
-      <c r="ABN14" s="0"/>
-      <c r="ABO14" s="0"/>
-      <c r="ABP14" s="0"/>
-      <c r="ABQ14" s="0"/>
-      <c r="ABR14" s="0"/>
-      <c r="ABS14" s="0"/>
-      <c r="ABT14" s="0"/>
-      <c r="ABU14" s="0"/>
-      <c r="ABV14" s="0"/>
-      <c r="ABW14" s="0"/>
-      <c r="ABX14" s="0"/>
-      <c r="ABY14" s="0"/>
-      <c r="ABZ14" s="0"/>
-      <c r="ACA14" s="0"/>
-      <c r="ACB14" s="0"/>
-      <c r="ACC14" s="0"/>
-      <c r="ACD14" s="0"/>
-      <c r="ACE14" s="0"/>
-      <c r="ACF14" s="0"/>
-      <c r="ACG14" s="0"/>
-      <c r="ACH14" s="0"/>
-      <c r="ACI14" s="0"/>
-      <c r="ACJ14" s="0"/>
-      <c r="ACK14" s="0"/>
-      <c r="ACL14" s="0"/>
-      <c r="ACM14" s="0"/>
-      <c r="ACN14" s="0"/>
-      <c r="ACO14" s="0"/>
-      <c r="ACP14" s="0"/>
-      <c r="ACQ14" s="0"/>
-      <c r="ACR14" s="0"/>
-      <c r="ACS14" s="0"/>
-      <c r="ACT14" s="0"/>
-      <c r="ACU14" s="0"/>
-      <c r="ACV14" s="0"/>
-      <c r="ACW14" s="0"/>
-      <c r="ACX14" s="0"/>
-      <c r="ACY14" s="0"/>
-      <c r="ACZ14" s="0"/>
-      <c r="ADA14" s="0"/>
-      <c r="ADB14" s="0"/>
-      <c r="ADC14" s="0"/>
-      <c r="ADD14" s="0"/>
-      <c r="ADE14" s="0"/>
-      <c r="ADF14" s="0"/>
-      <c r="ADG14" s="0"/>
-      <c r="ADH14" s="0"/>
-      <c r="ADI14" s="0"/>
-      <c r="ADJ14" s="0"/>
-      <c r="ADK14" s="0"/>
-      <c r="ADL14" s="0"/>
-      <c r="ADM14" s="0"/>
-      <c r="ADN14" s="0"/>
-      <c r="ADO14" s="0"/>
-      <c r="ADP14" s="0"/>
-      <c r="ADQ14" s="0"/>
-      <c r="ADR14" s="0"/>
-      <c r="ADS14" s="0"/>
-      <c r="ADT14" s="0"/>
-      <c r="ADU14" s="0"/>
-      <c r="ADV14" s="0"/>
-      <c r="ADW14" s="0"/>
-      <c r="ADX14" s="0"/>
-      <c r="ADY14" s="0"/>
-      <c r="ADZ14" s="0"/>
-      <c r="AEA14" s="0"/>
-      <c r="AEB14" s="0"/>
-      <c r="AEC14" s="0"/>
-      <c r="AED14" s="0"/>
-      <c r="AEE14" s="0"/>
-      <c r="AEF14" s="0"/>
-      <c r="AEG14" s="0"/>
-      <c r="AEH14" s="0"/>
-      <c r="AEI14" s="0"/>
-      <c r="AEJ14" s="0"/>
-      <c r="AEK14" s="0"/>
-      <c r="AEL14" s="0"/>
-      <c r="AEM14" s="0"/>
-      <c r="AEN14" s="0"/>
-      <c r="AEO14" s="0"/>
-      <c r="AEP14" s="0"/>
-      <c r="AEQ14" s="0"/>
-      <c r="AER14" s="0"/>
-      <c r="AES14" s="0"/>
-      <c r="AET14" s="0"/>
-      <c r="AEU14" s="0"/>
-      <c r="AEV14" s="0"/>
-      <c r="AEW14" s="0"/>
-      <c r="AEX14" s="0"/>
-      <c r="AEY14" s="0"/>
-      <c r="AEZ14" s="0"/>
-      <c r="AFA14" s="0"/>
-      <c r="AFB14" s="0"/>
-      <c r="AFC14" s="0"/>
-      <c r="AFD14" s="0"/>
-      <c r="AFE14" s="0"/>
-      <c r="AFF14" s="0"/>
-      <c r="AFG14" s="0"/>
-      <c r="AFH14" s="0"/>
-      <c r="AFI14" s="0"/>
-      <c r="AFJ14" s="0"/>
-      <c r="AFK14" s="0"/>
-      <c r="AFL14" s="0"/>
-      <c r="AFM14" s="0"/>
-      <c r="AFN14" s="0"/>
-      <c r="AFO14" s="0"/>
-      <c r="AFP14" s="0"/>
-      <c r="AFQ14" s="0"/>
-      <c r="AFR14" s="0"/>
-      <c r="AFS14" s="0"/>
-      <c r="AFT14" s="0"/>
-      <c r="AFU14" s="0"/>
-      <c r="AFV14" s="0"/>
-      <c r="AFW14" s="0"/>
-      <c r="AFX14" s="0"/>
-      <c r="AFY14" s="0"/>
-      <c r="AFZ14" s="0"/>
-      <c r="AGA14" s="0"/>
-      <c r="AGB14" s="0"/>
-      <c r="AGC14" s="0"/>
-      <c r="AGD14" s="0"/>
-      <c r="AGE14" s="0"/>
-      <c r="AGF14" s="0"/>
-      <c r="AGG14" s="0"/>
-      <c r="AGH14" s="0"/>
-      <c r="AGI14" s="0"/>
-      <c r="AGJ14" s="0"/>
-      <c r="AGK14" s="0"/>
-      <c r="AGL14" s="0"/>
-      <c r="AGM14" s="0"/>
-      <c r="AGN14" s="0"/>
-      <c r="AGO14" s="0"/>
-      <c r="AGP14" s="0"/>
-      <c r="AGQ14" s="0"/>
-      <c r="AGR14" s="0"/>
-      <c r="AGS14" s="0"/>
-      <c r="AGT14" s="0"/>
-      <c r="AGU14" s="0"/>
-      <c r="AGV14" s="0"/>
-      <c r="AGW14" s="0"/>
-      <c r="AGX14" s="0"/>
-      <c r="AGY14" s="0"/>
-      <c r="AGZ14" s="0"/>
-      <c r="AHA14" s="0"/>
-      <c r="AHB14" s="0"/>
-      <c r="AHC14" s="0"/>
-      <c r="AHD14" s="0"/>
-      <c r="AHE14" s="0"/>
-      <c r="AHF14" s="0"/>
-      <c r="AHG14" s="0"/>
-      <c r="AHH14" s="0"/>
-      <c r="AHI14" s="0"/>
-      <c r="AHJ14" s="0"/>
-      <c r="AHK14" s="0"/>
-      <c r="AHL14" s="0"/>
-      <c r="AHM14" s="0"/>
-      <c r="AHN14" s="0"/>
-      <c r="AHO14" s="0"/>
-      <c r="AHP14" s="0"/>
-      <c r="AHQ14" s="0"/>
-      <c r="AHR14" s="0"/>
-      <c r="AHS14" s="0"/>
-      <c r="AHT14" s="0"/>
-      <c r="AHU14" s="0"/>
-      <c r="AHV14" s="0"/>
-      <c r="AHW14" s="0"/>
-      <c r="AHX14" s="0"/>
-      <c r="AHY14" s="0"/>
-      <c r="AHZ14" s="0"/>
-      <c r="AIA14" s="0"/>
-      <c r="AIB14" s="0"/>
-      <c r="AIC14" s="0"/>
-      <c r="AID14" s="0"/>
-      <c r="AIE14" s="0"/>
-      <c r="AIF14" s="0"/>
-      <c r="AIG14" s="0"/>
-      <c r="AIH14" s="0"/>
-      <c r="AII14" s="0"/>
-      <c r="AIJ14" s="0"/>
-      <c r="AIK14" s="0"/>
-      <c r="AIL14" s="0"/>
-      <c r="AIM14" s="0"/>
-      <c r="AIN14" s="0"/>
-      <c r="AIO14" s="0"/>
-      <c r="AIP14" s="0"/>
-      <c r="AIQ14" s="0"/>
-      <c r="AIR14" s="0"/>
-      <c r="AIS14" s="0"/>
-      <c r="AIT14" s="0"/>
-      <c r="AIU14" s="0"/>
-      <c r="AIV14" s="0"/>
-      <c r="AIW14" s="0"/>
-      <c r="AIX14" s="0"/>
-      <c r="AIY14" s="0"/>
-      <c r="AIZ14" s="0"/>
-      <c r="AJA14" s="0"/>
-      <c r="AJB14" s="0"/>
-      <c r="AJC14" s="0"/>
-      <c r="AJD14" s="0"/>
-      <c r="AJE14" s="0"/>
-      <c r="AJF14" s="0"/>
-      <c r="AJG14" s="0"/>
-      <c r="AJH14" s="0"/>
-      <c r="AJI14" s="0"/>
-      <c r="AJJ14" s="0"/>
-      <c r="AJK14" s="0"/>
-      <c r="AJL14" s="0"/>
-      <c r="AJM14" s="0"/>
-      <c r="AJN14" s="0"/>
-      <c r="AJO14" s="0"/>
-      <c r="AJP14" s="0"/>
-      <c r="AJQ14" s="0"/>
-      <c r="AJR14" s="0"/>
-      <c r="AJS14" s="0"/>
-      <c r="AJT14" s="0"/>
-      <c r="AJU14" s="0"/>
-      <c r="AJV14" s="0"/>
-      <c r="AJW14" s="0"/>
-      <c r="AJX14" s="0"/>
-      <c r="AJY14" s="0"/>
-      <c r="AJZ14" s="0"/>
-      <c r="AKA14" s="0"/>
-      <c r="AKB14" s="0"/>
-      <c r="AKC14" s="0"/>
-      <c r="AKD14" s="0"/>
-      <c r="AKE14" s="0"/>
-      <c r="AKF14" s="0"/>
-      <c r="AKG14" s="0"/>
-      <c r="AKH14" s="0"/>
-      <c r="AKI14" s="0"/>
-      <c r="AKJ14" s="0"/>
-      <c r="AKK14" s="0"/>
-      <c r="AKL14" s="0"/>
-      <c r="AKM14" s="0"/>
-      <c r="AKN14" s="0"/>
-      <c r="AKO14" s="0"/>
-      <c r="AKP14" s="0"/>
-      <c r="AKQ14" s="0"/>
-      <c r="AKR14" s="0"/>
-      <c r="AKS14" s="0"/>
-      <c r="AKT14" s="0"/>
-      <c r="AKU14" s="0"/>
-      <c r="AKV14" s="0"/>
-      <c r="AKW14" s="0"/>
-      <c r="AKX14" s="0"/>
-      <c r="AKY14" s="0"/>
-      <c r="AKZ14" s="0"/>
-      <c r="ALA14" s="0"/>
-      <c r="ALB14" s="0"/>
-      <c r="ALC14" s="0"/>
-      <c r="ALD14" s="0"/>
-      <c r="ALE14" s="0"/>
-      <c r="ALF14" s="0"/>
-      <c r="ALG14" s="0"/>
-      <c r="ALH14" s="0"/>
-      <c r="ALI14" s="0"/>
-      <c r="ALJ14" s="0"/>
-      <c r="ALK14" s="0"/>
-      <c r="ALL14" s="0"/>
-      <c r="ALM14" s="0"/>
-      <c r="ALN14" s="0"/>
-      <c r="ALO14" s="0"/>
-      <c r="ALP14" s="0"/>
-      <c r="ALQ14" s="0"/>
-      <c r="ALR14" s="0"/>
-      <c r="ALS14" s="0"/>
-      <c r="ALT14" s="0"/>
-      <c r="ALU14" s="0"/>
-      <c r="ALV14" s="0"/>
-      <c r="ALW14" s="0"/>
-      <c r="ALX14" s="0"/>
-      <c r="ALY14" s="0"/>
-      <c r="ALZ14" s="0"/>
-      <c r="AMA14" s="0"/>
-      <c r="AMB14" s="0"/>
-      <c r="AMC14" s="0"/>
-      <c r="AMD14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="15" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="15" t="e">
-        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "F" &amp; ROW() )</f>
-        <v>#VALUE!</v>
+      <c r="G15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -14925,14 +12877,23 @@
       <c r="AMD15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="22" t="e">
+        <f aca="true">INDIRECT( "G" &amp; ROW() )+INDIRECT( "F" &amp; ROW() )</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
@@ -15945,19 +13906,17 @@
       <c r="AMD16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
@@ -16966,20 +14925,20 @@
       <c r="AMC17" s="0"/>
       <c r="AMD17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -17989,20 +15948,16 @@
       <c r="AMD18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
+      <c r="A19" s="1" t="s">
+        <v>34</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
@@ -19018,12 +16973,16 @@
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
@@ -20036,14 +17995,16 @@
       <c r="AMC20" s="0"/>
       <c r="AMD20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28"/>
-      <c r="B21" s="0"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="25"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -21057,13 +19018,13 @@
       <c r="AMD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -22077,13 +20038,13 @@
       <c r="AMD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -23097,13 +21058,13 @@
       <c r="AMD23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -24116,52 +22077,1072 @@
       <c r="AMC24" s="0"/>
       <c r="AMD24" s="0"/>
     </row>
-    <row r="25" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="26"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
       <c r="D25" s="0"/>
-      <c r="E25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29" t="s">
-        <v>38</v>
-      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
-      <c r="K25" s="31"/>
-      <c r="AME25" s="31"/>
-      <c r="AMF25" s="31"/>
-      <c r="AMG25" s="0"/>
-      <c r="AMH25" s="0"/>
-      <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+      <c r="AE25" s="0"/>
+      <c r="AF25" s="0"/>
+      <c r="AG25" s="0"/>
+      <c r="AH25" s="0"/>
+      <c r="AI25" s="0"/>
+      <c r="AJ25" s="0"/>
+      <c r="AK25" s="0"/>
+      <c r="AL25" s="0"/>
+      <c r="AM25" s="0"/>
+      <c r="AN25" s="0"/>
+      <c r="AO25" s="0"/>
+      <c r="AP25" s="0"/>
+      <c r="AQ25" s="0"/>
+      <c r="AR25" s="0"/>
+      <c r="AS25" s="0"/>
+      <c r="AT25" s="0"/>
+      <c r="AU25" s="0"/>
+      <c r="AV25" s="0"/>
+      <c r="AW25" s="0"/>
+      <c r="AX25" s="0"/>
+      <c r="AY25" s="0"/>
+      <c r="AZ25" s="0"/>
+      <c r="BA25" s="0"/>
+      <c r="BB25" s="0"/>
+      <c r="BC25" s="0"/>
+      <c r="BD25" s="0"/>
+      <c r="BE25" s="0"/>
+      <c r="BF25" s="0"/>
+      <c r="BG25" s="0"/>
+      <c r="BH25" s="0"/>
+      <c r="BI25" s="0"/>
+      <c r="BJ25" s="0"/>
+      <c r="BK25" s="0"/>
+      <c r="BL25" s="0"/>
+      <c r="BM25" s="0"/>
+      <c r="BN25" s="0"/>
+      <c r="BO25" s="0"/>
+      <c r="BP25" s="0"/>
+      <c r="BQ25" s="0"/>
+      <c r="BR25" s="0"/>
+      <c r="BS25" s="0"/>
+      <c r="BT25" s="0"/>
+      <c r="BU25" s="0"/>
+      <c r="BV25" s="0"/>
+      <c r="BW25" s="0"/>
+      <c r="BX25" s="0"/>
+      <c r="BY25" s="0"/>
+      <c r="BZ25" s="0"/>
+      <c r="CA25" s="0"/>
+      <c r="CB25" s="0"/>
+      <c r="CC25" s="0"/>
+      <c r="CD25" s="0"/>
+      <c r="CE25" s="0"/>
+      <c r="CF25" s="0"/>
+      <c r="CG25" s="0"/>
+      <c r="CH25" s="0"/>
+      <c r="CI25" s="0"/>
+      <c r="CJ25" s="0"/>
+      <c r="CK25" s="0"/>
+      <c r="CL25" s="0"/>
+      <c r="CM25" s="0"/>
+      <c r="CN25" s="0"/>
+      <c r="CO25" s="0"/>
+      <c r="CP25" s="0"/>
+      <c r="CQ25" s="0"/>
+      <c r="CR25" s="0"/>
+      <c r="CS25" s="0"/>
+      <c r="CT25" s="0"/>
+      <c r="CU25" s="0"/>
+      <c r="CV25" s="0"/>
+      <c r="CW25" s="0"/>
+      <c r="CX25" s="0"/>
+      <c r="CY25" s="0"/>
+      <c r="CZ25" s="0"/>
+      <c r="DA25" s="0"/>
+      <c r="DB25" s="0"/>
+      <c r="DC25" s="0"/>
+      <c r="DD25" s="0"/>
+      <c r="DE25" s="0"/>
+      <c r="DF25" s="0"/>
+      <c r="DG25" s="0"/>
+      <c r="DH25" s="0"/>
+      <c r="DI25" s="0"/>
+      <c r="DJ25" s="0"/>
+      <c r="DK25" s="0"/>
+      <c r="DL25" s="0"/>
+      <c r="DM25" s="0"/>
+      <c r="DN25" s="0"/>
+      <c r="DO25" s="0"/>
+      <c r="DP25" s="0"/>
+      <c r="DQ25" s="0"/>
+      <c r="DR25" s="0"/>
+      <c r="DS25" s="0"/>
+      <c r="DT25" s="0"/>
+      <c r="DU25" s="0"/>
+      <c r="DV25" s="0"/>
+      <c r="DW25" s="0"/>
+      <c r="DX25" s="0"/>
+      <c r="DY25" s="0"/>
+      <c r="DZ25" s="0"/>
+      <c r="EA25" s="0"/>
+      <c r="EB25" s="0"/>
+      <c r="EC25" s="0"/>
+      <c r="ED25" s="0"/>
+      <c r="EE25" s="0"/>
+      <c r="EF25" s="0"/>
+      <c r="EG25" s="0"/>
+      <c r="EH25" s="0"/>
+      <c r="EI25" s="0"/>
+      <c r="EJ25" s="0"/>
+      <c r="EK25" s="0"/>
+      <c r="EL25" s="0"/>
+      <c r="EM25" s="0"/>
+      <c r="EN25" s="0"/>
+      <c r="EO25" s="0"/>
+      <c r="EP25" s="0"/>
+      <c r="EQ25" s="0"/>
+      <c r="ER25" s="0"/>
+      <c r="ES25" s="0"/>
+      <c r="ET25" s="0"/>
+      <c r="EU25" s="0"/>
+      <c r="EV25" s="0"/>
+      <c r="EW25" s="0"/>
+      <c r="EX25" s="0"/>
+      <c r="EY25" s="0"/>
+      <c r="EZ25" s="0"/>
+      <c r="FA25" s="0"/>
+      <c r="FB25" s="0"/>
+      <c r="FC25" s="0"/>
+      <c r="FD25" s="0"/>
+      <c r="FE25" s="0"/>
+      <c r="FF25" s="0"/>
+      <c r="FG25" s="0"/>
+      <c r="FH25" s="0"/>
+      <c r="FI25" s="0"/>
+      <c r="FJ25" s="0"/>
+      <c r="FK25" s="0"/>
+      <c r="FL25" s="0"/>
+      <c r="FM25" s="0"/>
+      <c r="FN25" s="0"/>
+      <c r="FO25" s="0"/>
+      <c r="FP25" s="0"/>
+      <c r="FQ25" s="0"/>
+      <c r="FR25" s="0"/>
+      <c r="FS25" s="0"/>
+      <c r="FT25" s="0"/>
+      <c r="FU25" s="0"/>
+      <c r="FV25" s="0"/>
+      <c r="FW25" s="0"/>
+      <c r="FX25" s="0"/>
+      <c r="FY25" s="0"/>
+      <c r="FZ25" s="0"/>
+      <c r="GA25" s="0"/>
+      <c r="GB25" s="0"/>
+      <c r="GC25" s="0"/>
+      <c r="GD25" s="0"/>
+      <c r="GE25" s="0"/>
+      <c r="GF25" s="0"/>
+      <c r="GG25" s="0"/>
+      <c r="GH25" s="0"/>
+      <c r="GI25" s="0"/>
+      <c r="GJ25" s="0"/>
+      <c r="GK25" s="0"/>
+      <c r="GL25" s="0"/>
+      <c r="GM25" s="0"/>
+      <c r="GN25" s="0"/>
+      <c r="GO25" s="0"/>
+      <c r="GP25" s="0"/>
+      <c r="GQ25" s="0"/>
+      <c r="GR25" s="0"/>
+      <c r="GS25" s="0"/>
+      <c r="GT25" s="0"/>
+      <c r="GU25" s="0"/>
+      <c r="GV25" s="0"/>
+      <c r="GW25" s="0"/>
+      <c r="GX25" s="0"/>
+      <c r="GY25" s="0"/>
+      <c r="GZ25" s="0"/>
+      <c r="HA25" s="0"/>
+      <c r="HB25" s="0"/>
+      <c r="HC25" s="0"/>
+      <c r="HD25" s="0"/>
+      <c r="HE25" s="0"/>
+      <c r="HF25" s="0"/>
+      <c r="HG25" s="0"/>
+      <c r="HH25" s="0"/>
+      <c r="HI25" s="0"/>
+      <c r="HJ25" s="0"/>
+      <c r="HK25" s="0"/>
+      <c r="HL25" s="0"/>
+      <c r="HM25" s="0"/>
+      <c r="HN25" s="0"/>
+      <c r="HO25" s="0"/>
+      <c r="HP25" s="0"/>
+      <c r="HQ25" s="0"/>
+      <c r="HR25" s="0"/>
+      <c r="HS25" s="0"/>
+      <c r="HT25" s="0"/>
+      <c r="HU25" s="0"/>
+      <c r="HV25" s="0"/>
+      <c r="HW25" s="0"/>
+      <c r="HX25" s="0"/>
+      <c r="HY25" s="0"/>
+      <c r="HZ25" s="0"/>
+      <c r="IA25" s="0"/>
+      <c r="IB25" s="0"/>
+      <c r="IC25" s="0"/>
+      <c r="ID25" s="0"/>
+      <c r="IE25" s="0"/>
+      <c r="IF25" s="0"/>
+      <c r="IG25" s="0"/>
+      <c r="IH25" s="0"/>
+      <c r="II25" s="0"/>
+      <c r="IJ25" s="0"/>
+      <c r="IK25" s="0"/>
+      <c r="IL25" s="0"/>
+      <c r="IM25" s="0"/>
+      <c r="IN25" s="0"/>
+      <c r="IO25" s="0"/>
+      <c r="IP25" s="0"/>
+      <c r="IQ25" s="0"/>
+      <c r="IR25" s="0"/>
+      <c r="IS25" s="0"/>
+      <c r="IT25" s="0"/>
+      <c r="IU25" s="0"/>
+      <c r="IV25" s="0"/>
+      <c r="IW25" s="0"/>
+      <c r="IX25" s="0"/>
+      <c r="IY25" s="0"/>
+      <c r="IZ25" s="0"/>
+      <c r="JA25" s="0"/>
+      <c r="JB25" s="0"/>
+      <c r="JC25" s="0"/>
+      <c r="JD25" s="0"/>
+      <c r="JE25" s="0"/>
+      <c r="JF25" s="0"/>
+      <c r="JG25" s="0"/>
+      <c r="JH25" s="0"/>
+      <c r="JI25" s="0"/>
+      <c r="JJ25" s="0"/>
+      <c r="JK25" s="0"/>
+      <c r="JL25" s="0"/>
+      <c r="JM25" s="0"/>
+      <c r="JN25" s="0"/>
+      <c r="JO25" s="0"/>
+      <c r="JP25" s="0"/>
+      <c r="JQ25" s="0"/>
+      <c r="JR25" s="0"/>
+      <c r="JS25" s="0"/>
+      <c r="JT25" s="0"/>
+      <c r="JU25" s="0"/>
+      <c r="JV25" s="0"/>
+      <c r="JW25" s="0"/>
+      <c r="JX25" s="0"/>
+      <c r="JY25" s="0"/>
+      <c r="JZ25" s="0"/>
+      <c r="KA25" s="0"/>
+      <c r="KB25" s="0"/>
+      <c r="KC25" s="0"/>
+      <c r="KD25" s="0"/>
+      <c r="KE25" s="0"/>
+      <c r="KF25" s="0"/>
+      <c r="KG25" s="0"/>
+      <c r="KH25" s="0"/>
+      <c r="KI25" s="0"/>
+      <c r="KJ25" s="0"/>
+      <c r="KK25" s="0"/>
+      <c r="KL25" s="0"/>
+      <c r="KM25" s="0"/>
+      <c r="KN25" s="0"/>
+      <c r="KO25" s="0"/>
+      <c r="KP25" s="0"/>
+      <c r="KQ25" s="0"/>
+      <c r="KR25" s="0"/>
+      <c r="KS25" s="0"/>
+      <c r="KT25" s="0"/>
+      <c r="KU25" s="0"/>
+      <c r="KV25" s="0"/>
+      <c r="KW25" s="0"/>
+      <c r="KX25" s="0"/>
+      <c r="KY25" s="0"/>
+      <c r="KZ25" s="0"/>
+      <c r="LA25" s="0"/>
+      <c r="LB25" s="0"/>
+      <c r="LC25" s="0"/>
+      <c r="LD25" s="0"/>
+      <c r="LE25" s="0"/>
+      <c r="LF25" s="0"/>
+      <c r="LG25" s="0"/>
+      <c r="LH25" s="0"/>
+      <c r="LI25" s="0"/>
+      <c r="LJ25" s="0"/>
+      <c r="LK25" s="0"/>
+      <c r="LL25" s="0"/>
+      <c r="LM25" s="0"/>
+      <c r="LN25" s="0"/>
+      <c r="LO25" s="0"/>
+      <c r="LP25" s="0"/>
+      <c r="LQ25" s="0"/>
+      <c r="LR25" s="0"/>
+      <c r="LS25" s="0"/>
+      <c r="LT25" s="0"/>
+      <c r="LU25" s="0"/>
+      <c r="LV25" s="0"/>
+      <c r="LW25" s="0"/>
+      <c r="LX25" s="0"/>
+      <c r="LY25" s="0"/>
+      <c r="LZ25" s="0"/>
+      <c r="MA25" s="0"/>
+      <c r="MB25" s="0"/>
+      <c r="MC25" s="0"/>
+      <c r="MD25" s="0"/>
+      <c r="ME25" s="0"/>
+      <c r="MF25" s="0"/>
+      <c r="MG25" s="0"/>
+      <c r="MH25" s="0"/>
+      <c r="MI25" s="0"/>
+      <c r="MJ25" s="0"/>
+      <c r="MK25" s="0"/>
+      <c r="ML25" s="0"/>
+      <c r="MM25" s="0"/>
+      <c r="MN25" s="0"/>
+      <c r="MO25" s="0"/>
+      <c r="MP25" s="0"/>
+      <c r="MQ25" s="0"/>
+      <c r="MR25" s="0"/>
+      <c r="MS25" s="0"/>
+      <c r="MT25" s="0"/>
+      <c r="MU25" s="0"/>
+      <c r="MV25" s="0"/>
+      <c r="MW25" s="0"/>
+      <c r="MX25" s="0"/>
+      <c r="MY25" s="0"/>
+      <c r="MZ25" s="0"/>
+      <c r="NA25" s="0"/>
+      <c r="NB25" s="0"/>
+      <c r="NC25" s="0"/>
+      <c r="ND25" s="0"/>
+      <c r="NE25" s="0"/>
+      <c r="NF25" s="0"/>
+      <c r="NG25" s="0"/>
+      <c r="NH25" s="0"/>
+      <c r="NI25" s="0"/>
+      <c r="NJ25" s="0"/>
+      <c r="NK25" s="0"/>
+      <c r="NL25" s="0"/>
+      <c r="NM25" s="0"/>
+      <c r="NN25" s="0"/>
+      <c r="NO25" s="0"/>
+      <c r="NP25" s="0"/>
+      <c r="NQ25" s="0"/>
+      <c r="NR25" s="0"/>
+      <c r="NS25" s="0"/>
+      <c r="NT25" s="0"/>
+      <c r="NU25" s="0"/>
+      <c r="NV25" s="0"/>
+      <c r="NW25" s="0"/>
+      <c r="NX25" s="0"/>
+      <c r="NY25" s="0"/>
+      <c r="NZ25" s="0"/>
+      <c r="OA25" s="0"/>
+      <c r="OB25" s="0"/>
+      <c r="OC25" s="0"/>
+      <c r="OD25" s="0"/>
+      <c r="OE25" s="0"/>
+      <c r="OF25" s="0"/>
+      <c r="OG25" s="0"/>
+      <c r="OH25" s="0"/>
+      <c r="OI25" s="0"/>
+      <c r="OJ25" s="0"/>
+      <c r="OK25" s="0"/>
+      <c r="OL25" s="0"/>
+      <c r="OM25" s="0"/>
+      <c r="ON25" s="0"/>
+      <c r="OO25" s="0"/>
+      <c r="OP25" s="0"/>
+      <c r="OQ25" s="0"/>
+      <c r="OR25" s="0"/>
+      <c r="OS25" s="0"/>
+      <c r="OT25" s="0"/>
+      <c r="OU25" s="0"/>
+      <c r="OV25" s="0"/>
+      <c r="OW25" s="0"/>
+      <c r="OX25" s="0"/>
+      <c r="OY25" s="0"/>
+      <c r="OZ25" s="0"/>
+      <c r="PA25" s="0"/>
+      <c r="PB25" s="0"/>
+      <c r="PC25" s="0"/>
+      <c r="PD25" s="0"/>
+      <c r="PE25" s="0"/>
+      <c r="PF25" s="0"/>
+      <c r="PG25" s="0"/>
+      <c r="PH25" s="0"/>
+      <c r="PI25" s="0"/>
+      <c r="PJ25" s="0"/>
+      <c r="PK25" s="0"/>
+      <c r="PL25" s="0"/>
+      <c r="PM25" s="0"/>
+      <c r="PN25" s="0"/>
+      <c r="PO25" s="0"/>
+      <c r="PP25" s="0"/>
+      <c r="PQ25" s="0"/>
+      <c r="PR25" s="0"/>
+      <c r="PS25" s="0"/>
+      <c r="PT25" s="0"/>
+      <c r="PU25" s="0"/>
+      <c r="PV25" s="0"/>
+      <c r="PW25" s="0"/>
+      <c r="PX25" s="0"/>
+      <c r="PY25" s="0"/>
+      <c r="PZ25" s="0"/>
+      <c r="QA25" s="0"/>
+      <c r="QB25" s="0"/>
+      <c r="QC25" s="0"/>
+      <c r="QD25" s="0"/>
+      <c r="QE25" s="0"/>
+      <c r="QF25" s="0"/>
+      <c r="QG25" s="0"/>
+      <c r="QH25" s="0"/>
+      <c r="QI25" s="0"/>
+      <c r="QJ25" s="0"/>
+      <c r="QK25" s="0"/>
+      <c r="QL25" s="0"/>
+      <c r="QM25" s="0"/>
+      <c r="QN25" s="0"/>
+      <c r="QO25" s="0"/>
+      <c r="QP25" s="0"/>
+      <c r="QQ25" s="0"/>
+      <c r="QR25" s="0"/>
+      <c r="QS25" s="0"/>
+      <c r="QT25" s="0"/>
+      <c r="QU25" s="0"/>
+      <c r="QV25" s="0"/>
+      <c r="QW25" s="0"/>
+      <c r="QX25" s="0"/>
+      <c r="QY25" s="0"/>
+      <c r="QZ25" s="0"/>
+      <c r="RA25" s="0"/>
+      <c r="RB25" s="0"/>
+      <c r="RC25" s="0"/>
+      <c r="RD25" s="0"/>
+      <c r="RE25" s="0"/>
+      <c r="RF25" s="0"/>
+      <c r="RG25" s="0"/>
+      <c r="RH25" s="0"/>
+      <c r="RI25" s="0"/>
+      <c r="RJ25" s="0"/>
+      <c r="RK25" s="0"/>
+      <c r="RL25" s="0"/>
+      <c r="RM25" s="0"/>
+      <c r="RN25" s="0"/>
+      <c r="RO25" s="0"/>
+      <c r="RP25" s="0"/>
+      <c r="RQ25" s="0"/>
+      <c r="RR25" s="0"/>
+      <c r="RS25" s="0"/>
+      <c r="RT25" s="0"/>
+      <c r="RU25" s="0"/>
+      <c r="RV25" s="0"/>
+      <c r="RW25" s="0"/>
+      <c r="RX25" s="0"/>
+      <c r="RY25" s="0"/>
+      <c r="RZ25" s="0"/>
+      <c r="SA25" s="0"/>
+      <c r="SB25" s="0"/>
+      <c r="SC25" s="0"/>
+      <c r="SD25" s="0"/>
+      <c r="SE25" s="0"/>
+      <c r="SF25" s="0"/>
+      <c r="SG25" s="0"/>
+      <c r="SH25" s="0"/>
+      <c r="SI25" s="0"/>
+      <c r="SJ25" s="0"/>
+      <c r="SK25" s="0"/>
+      <c r="SL25" s="0"/>
+      <c r="SM25" s="0"/>
+      <c r="SN25" s="0"/>
+      <c r="SO25" s="0"/>
+      <c r="SP25" s="0"/>
+      <c r="SQ25" s="0"/>
+      <c r="SR25" s="0"/>
+      <c r="SS25" s="0"/>
+      <c r="ST25" s="0"/>
+      <c r="SU25" s="0"/>
+      <c r="SV25" s="0"/>
+      <c r="SW25" s="0"/>
+      <c r="SX25" s="0"/>
+      <c r="SY25" s="0"/>
+      <c r="SZ25" s="0"/>
+      <c r="TA25" s="0"/>
+      <c r="TB25" s="0"/>
+      <c r="TC25" s="0"/>
+      <c r="TD25" s="0"/>
+      <c r="TE25" s="0"/>
+      <c r="TF25" s="0"/>
+      <c r="TG25" s="0"/>
+      <c r="TH25" s="0"/>
+      <c r="TI25" s="0"/>
+      <c r="TJ25" s="0"/>
+      <c r="TK25" s="0"/>
+      <c r="TL25" s="0"/>
+      <c r="TM25" s="0"/>
+      <c r="TN25" s="0"/>
+      <c r="TO25" s="0"/>
+      <c r="TP25" s="0"/>
+      <c r="TQ25" s="0"/>
+      <c r="TR25" s="0"/>
+      <c r="TS25" s="0"/>
+      <c r="TT25" s="0"/>
+      <c r="TU25" s="0"/>
+      <c r="TV25" s="0"/>
+      <c r="TW25" s="0"/>
+      <c r="TX25" s="0"/>
+      <c r="TY25" s="0"/>
+      <c r="TZ25" s="0"/>
+      <c r="UA25" s="0"/>
+      <c r="UB25" s="0"/>
+      <c r="UC25" s="0"/>
+      <c r="UD25" s="0"/>
+      <c r="UE25" s="0"/>
+      <c r="UF25" s="0"/>
+      <c r="UG25" s="0"/>
+      <c r="UH25" s="0"/>
+      <c r="UI25" s="0"/>
+      <c r="UJ25" s="0"/>
+      <c r="UK25" s="0"/>
+      <c r="UL25" s="0"/>
+      <c r="UM25" s="0"/>
+      <c r="UN25" s="0"/>
+      <c r="UO25" s="0"/>
+      <c r="UP25" s="0"/>
+      <c r="UQ25" s="0"/>
+      <c r="UR25" s="0"/>
+      <c r="US25" s="0"/>
+      <c r="UT25" s="0"/>
+      <c r="UU25" s="0"/>
+      <c r="UV25" s="0"/>
+      <c r="UW25" s="0"/>
+      <c r="UX25" s="0"/>
+      <c r="UY25" s="0"/>
+      <c r="UZ25" s="0"/>
+      <c r="VA25" s="0"/>
+      <c r="VB25" s="0"/>
+      <c r="VC25" s="0"/>
+      <c r="VD25" s="0"/>
+      <c r="VE25" s="0"/>
+      <c r="VF25" s="0"/>
+      <c r="VG25" s="0"/>
+      <c r="VH25" s="0"/>
+      <c r="VI25" s="0"/>
+      <c r="VJ25" s="0"/>
+      <c r="VK25" s="0"/>
+      <c r="VL25" s="0"/>
+      <c r="VM25" s="0"/>
+      <c r="VN25" s="0"/>
+      <c r="VO25" s="0"/>
+      <c r="VP25" s="0"/>
+      <c r="VQ25" s="0"/>
+      <c r="VR25" s="0"/>
+      <c r="VS25" s="0"/>
+      <c r="VT25" s="0"/>
+      <c r="VU25" s="0"/>
+      <c r="VV25" s="0"/>
+      <c r="VW25" s="0"/>
+      <c r="VX25" s="0"/>
+      <c r="VY25" s="0"/>
+      <c r="VZ25" s="0"/>
+      <c r="WA25" s="0"/>
+      <c r="WB25" s="0"/>
+      <c r="WC25" s="0"/>
+      <c r="WD25" s="0"/>
+      <c r="WE25" s="0"/>
+      <c r="WF25" s="0"/>
+      <c r="WG25" s="0"/>
+      <c r="WH25" s="0"/>
+      <c r="WI25" s="0"/>
+      <c r="WJ25" s="0"/>
+      <c r="WK25" s="0"/>
+      <c r="WL25" s="0"/>
+      <c r="WM25" s="0"/>
+      <c r="WN25" s="0"/>
+      <c r="WO25" s="0"/>
+      <c r="WP25" s="0"/>
+      <c r="WQ25" s="0"/>
+      <c r="WR25" s="0"/>
+      <c r="WS25" s="0"/>
+      <c r="WT25" s="0"/>
+      <c r="WU25" s="0"/>
+      <c r="WV25" s="0"/>
+      <c r="WW25" s="0"/>
+      <c r="WX25" s="0"/>
+      <c r="WY25" s="0"/>
+      <c r="WZ25" s="0"/>
+      <c r="XA25" s="0"/>
+      <c r="XB25" s="0"/>
+      <c r="XC25" s="0"/>
+      <c r="XD25" s="0"/>
+      <c r="XE25" s="0"/>
+      <c r="XF25" s="0"/>
+      <c r="XG25" s="0"/>
+      <c r="XH25" s="0"/>
+      <c r="XI25" s="0"/>
+      <c r="XJ25" s="0"/>
+      <c r="XK25" s="0"/>
+      <c r="XL25" s="0"/>
+      <c r="XM25" s="0"/>
+      <c r="XN25" s="0"/>
+      <c r="XO25" s="0"/>
+      <c r="XP25" s="0"/>
+      <c r="XQ25" s="0"/>
+      <c r="XR25" s="0"/>
+      <c r="XS25" s="0"/>
+      <c r="XT25" s="0"/>
+      <c r="XU25" s="0"/>
+      <c r="XV25" s="0"/>
+      <c r="XW25" s="0"/>
+      <c r="XX25" s="0"/>
+      <c r="XY25" s="0"/>
+      <c r="XZ25" s="0"/>
+      <c r="YA25" s="0"/>
+      <c r="YB25" s="0"/>
+      <c r="YC25" s="0"/>
+      <c r="YD25" s="0"/>
+      <c r="YE25" s="0"/>
+      <c r="YF25" s="0"/>
+      <c r="YG25" s="0"/>
+      <c r="YH25" s="0"/>
+      <c r="YI25" s="0"/>
+      <c r="YJ25" s="0"/>
+      <c r="YK25" s="0"/>
+      <c r="YL25" s="0"/>
+      <c r="YM25" s="0"/>
+      <c r="YN25" s="0"/>
+      <c r="YO25" s="0"/>
+      <c r="YP25" s="0"/>
+      <c r="YQ25" s="0"/>
+      <c r="YR25" s="0"/>
+      <c r="YS25" s="0"/>
+      <c r="YT25" s="0"/>
+      <c r="YU25" s="0"/>
+      <c r="YV25" s="0"/>
+      <c r="YW25" s="0"/>
+      <c r="YX25" s="0"/>
+      <c r="YY25" s="0"/>
+      <c r="YZ25" s="0"/>
+      <c r="ZA25" s="0"/>
+      <c r="ZB25" s="0"/>
+      <c r="ZC25" s="0"/>
+      <c r="ZD25" s="0"/>
+      <c r="ZE25" s="0"/>
+      <c r="ZF25" s="0"/>
+      <c r="ZG25" s="0"/>
+      <c r="ZH25" s="0"/>
+      <c r="ZI25" s="0"/>
+      <c r="ZJ25" s="0"/>
+      <c r="ZK25" s="0"/>
+      <c r="ZL25" s="0"/>
+      <c r="ZM25" s="0"/>
+      <c r="ZN25" s="0"/>
+      <c r="ZO25" s="0"/>
+      <c r="ZP25" s="0"/>
+      <c r="ZQ25" s="0"/>
+      <c r="ZR25" s="0"/>
+      <c r="ZS25" s="0"/>
+      <c r="ZT25" s="0"/>
+      <c r="ZU25" s="0"/>
+      <c r="ZV25" s="0"/>
+      <c r="ZW25" s="0"/>
+      <c r="ZX25" s="0"/>
+      <c r="ZY25" s="0"/>
+      <c r="ZZ25" s="0"/>
+      <c r="AAA25" s="0"/>
+      <c r="AAB25" s="0"/>
+      <c r="AAC25" s="0"/>
+      <c r="AAD25" s="0"/>
+      <c r="AAE25" s="0"/>
+      <c r="AAF25" s="0"/>
+      <c r="AAG25" s="0"/>
+      <c r="AAH25" s="0"/>
+      <c r="AAI25" s="0"/>
+      <c r="AAJ25" s="0"/>
+      <c r="AAK25" s="0"/>
+      <c r="AAL25" s="0"/>
+      <c r="AAM25" s="0"/>
+      <c r="AAN25" s="0"/>
+      <c r="AAO25" s="0"/>
+      <c r="AAP25" s="0"/>
+      <c r="AAQ25" s="0"/>
+      <c r="AAR25" s="0"/>
+      <c r="AAS25" s="0"/>
+      <c r="AAT25" s="0"/>
+      <c r="AAU25" s="0"/>
+      <c r="AAV25" s="0"/>
+      <c r="AAW25" s="0"/>
+      <c r="AAX25" s="0"/>
+      <c r="AAY25" s="0"/>
+      <c r="AAZ25" s="0"/>
+      <c r="ABA25" s="0"/>
+      <c r="ABB25" s="0"/>
+      <c r="ABC25" s="0"/>
+      <c r="ABD25" s="0"/>
+      <c r="ABE25" s="0"/>
+      <c r="ABF25" s="0"/>
+      <c r="ABG25" s="0"/>
+      <c r="ABH25" s="0"/>
+      <c r="ABI25" s="0"/>
+      <c r="ABJ25" s="0"/>
+      <c r="ABK25" s="0"/>
+      <c r="ABL25" s="0"/>
+      <c r="ABM25" s="0"/>
+      <c r="ABN25" s="0"/>
+      <c r="ABO25" s="0"/>
+      <c r="ABP25" s="0"/>
+      <c r="ABQ25" s="0"/>
+      <c r="ABR25" s="0"/>
+      <c r="ABS25" s="0"/>
+      <c r="ABT25" s="0"/>
+      <c r="ABU25" s="0"/>
+      <c r="ABV25" s="0"/>
+      <c r="ABW25" s="0"/>
+      <c r="ABX25" s="0"/>
+      <c r="ABY25" s="0"/>
+      <c r="ABZ25" s="0"/>
+      <c r="ACA25" s="0"/>
+      <c r="ACB25" s="0"/>
+      <c r="ACC25" s="0"/>
+      <c r="ACD25" s="0"/>
+      <c r="ACE25" s="0"/>
+      <c r="ACF25" s="0"/>
+      <c r="ACG25" s="0"/>
+      <c r="ACH25" s="0"/>
+      <c r="ACI25" s="0"/>
+      <c r="ACJ25" s="0"/>
+      <c r="ACK25" s="0"/>
+      <c r="ACL25" s="0"/>
+      <c r="ACM25" s="0"/>
+      <c r="ACN25" s="0"/>
+      <c r="ACO25" s="0"/>
+      <c r="ACP25" s="0"/>
+      <c r="ACQ25" s="0"/>
+      <c r="ACR25" s="0"/>
+      <c r="ACS25" s="0"/>
+      <c r="ACT25" s="0"/>
+      <c r="ACU25" s="0"/>
+      <c r="ACV25" s="0"/>
+      <c r="ACW25" s="0"/>
+      <c r="ACX25" s="0"/>
+      <c r="ACY25" s="0"/>
+      <c r="ACZ25" s="0"/>
+      <c r="ADA25" s="0"/>
+      <c r="ADB25" s="0"/>
+      <c r="ADC25" s="0"/>
+      <c r="ADD25" s="0"/>
+      <c r="ADE25" s="0"/>
+      <c r="ADF25" s="0"/>
+      <c r="ADG25" s="0"/>
+      <c r="ADH25" s="0"/>
+      <c r="ADI25" s="0"/>
+      <c r="ADJ25" s="0"/>
+      <c r="ADK25" s="0"/>
+      <c r="ADL25" s="0"/>
+      <c r="ADM25" s="0"/>
+      <c r="ADN25" s="0"/>
+      <c r="ADO25" s="0"/>
+      <c r="ADP25" s="0"/>
+      <c r="ADQ25" s="0"/>
+      <c r="ADR25" s="0"/>
+      <c r="ADS25" s="0"/>
+      <c r="ADT25" s="0"/>
+      <c r="ADU25" s="0"/>
+      <c r="ADV25" s="0"/>
+      <c r="ADW25" s="0"/>
+      <c r="ADX25" s="0"/>
+      <c r="ADY25" s="0"/>
+      <c r="ADZ25" s="0"/>
+      <c r="AEA25" s="0"/>
+      <c r="AEB25" s="0"/>
+      <c r="AEC25" s="0"/>
+      <c r="AED25" s="0"/>
+      <c r="AEE25" s="0"/>
+      <c r="AEF25" s="0"/>
+      <c r="AEG25" s="0"/>
+      <c r="AEH25" s="0"/>
+      <c r="AEI25" s="0"/>
+      <c r="AEJ25" s="0"/>
+      <c r="AEK25" s="0"/>
+      <c r="AEL25" s="0"/>
+      <c r="AEM25" s="0"/>
+      <c r="AEN25" s="0"/>
+      <c r="AEO25" s="0"/>
+      <c r="AEP25" s="0"/>
+      <c r="AEQ25" s="0"/>
+      <c r="AER25" s="0"/>
+      <c r="AES25" s="0"/>
+      <c r="AET25" s="0"/>
+      <c r="AEU25" s="0"/>
+      <c r="AEV25" s="0"/>
+      <c r="AEW25" s="0"/>
+      <c r="AEX25" s="0"/>
+      <c r="AEY25" s="0"/>
+      <c r="AEZ25" s="0"/>
+      <c r="AFA25" s="0"/>
+      <c r="AFB25" s="0"/>
+      <c r="AFC25" s="0"/>
+      <c r="AFD25" s="0"/>
+      <c r="AFE25" s="0"/>
+      <c r="AFF25" s="0"/>
+      <c r="AFG25" s="0"/>
+      <c r="AFH25" s="0"/>
+      <c r="AFI25" s="0"/>
+      <c r="AFJ25" s="0"/>
+      <c r="AFK25" s="0"/>
+      <c r="AFL25" s="0"/>
+      <c r="AFM25" s="0"/>
+      <c r="AFN25" s="0"/>
+      <c r="AFO25" s="0"/>
+      <c r="AFP25" s="0"/>
+      <c r="AFQ25" s="0"/>
+      <c r="AFR25" s="0"/>
+      <c r="AFS25" s="0"/>
+      <c r="AFT25" s="0"/>
+      <c r="AFU25" s="0"/>
+      <c r="AFV25" s="0"/>
+      <c r="AFW25" s="0"/>
+      <c r="AFX25" s="0"/>
+      <c r="AFY25" s="0"/>
+      <c r="AFZ25" s="0"/>
+      <c r="AGA25" s="0"/>
+      <c r="AGB25" s="0"/>
+      <c r="AGC25" s="0"/>
+      <c r="AGD25" s="0"/>
+      <c r="AGE25" s="0"/>
+      <c r="AGF25" s="0"/>
+      <c r="AGG25" s="0"/>
+      <c r="AGH25" s="0"/>
+      <c r="AGI25" s="0"/>
+      <c r="AGJ25" s="0"/>
+      <c r="AGK25" s="0"/>
+      <c r="AGL25" s="0"/>
+      <c r="AGM25" s="0"/>
+      <c r="AGN25" s="0"/>
+      <c r="AGO25" s="0"/>
+      <c r="AGP25" s="0"/>
+      <c r="AGQ25" s="0"/>
+      <c r="AGR25" s="0"/>
+      <c r="AGS25" s="0"/>
+      <c r="AGT25" s="0"/>
+      <c r="AGU25" s="0"/>
+      <c r="AGV25" s="0"/>
+      <c r="AGW25" s="0"/>
+      <c r="AGX25" s="0"/>
+      <c r="AGY25" s="0"/>
+      <c r="AGZ25" s="0"/>
+      <c r="AHA25" s="0"/>
+      <c r="AHB25" s="0"/>
+      <c r="AHC25" s="0"/>
+      <c r="AHD25" s="0"/>
+      <c r="AHE25" s="0"/>
+      <c r="AHF25" s="0"/>
+      <c r="AHG25" s="0"/>
+      <c r="AHH25" s="0"/>
+      <c r="AHI25" s="0"/>
+      <c r="AHJ25" s="0"/>
+      <c r="AHK25" s="0"/>
+      <c r="AHL25" s="0"/>
+      <c r="AHM25" s="0"/>
+      <c r="AHN25" s="0"/>
+      <c r="AHO25" s="0"/>
+      <c r="AHP25" s="0"/>
+      <c r="AHQ25" s="0"/>
+      <c r="AHR25" s="0"/>
+      <c r="AHS25" s="0"/>
+      <c r="AHT25" s="0"/>
+      <c r="AHU25" s="0"/>
+      <c r="AHV25" s="0"/>
+      <c r="AHW25" s="0"/>
+      <c r="AHX25" s="0"/>
+      <c r="AHY25" s="0"/>
+      <c r="AHZ25" s="0"/>
+      <c r="AIA25" s="0"/>
+      <c r="AIB25" s="0"/>
+      <c r="AIC25" s="0"/>
+      <c r="AID25" s="0"/>
+      <c r="AIE25" s="0"/>
+      <c r="AIF25" s="0"/>
+      <c r="AIG25" s="0"/>
+      <c r="AIH25" s="0"/>
+      <c r="AII25" s="0"/>
+      <c r="AIJ25" s="0"/>
+      <c r="AIK25" s="0"/>
+      <c r="AIL25" s="0"/>
+      <c r="AIM25" s="0"/>
+      <c r="AIN25" s="0"/>
+      <c r="AIO25" s="0"/>
+      <c r="AIP25" s="0"/>
+      <c r="AIQ25" s="0"/>
+      <c r="AIR25" s="0"/>
+      <c r="AIS25" s="0"/>
+      <c r="AIT25" s="0"/>
+      <c r="AIU25" s="0"/>
+      <c r="AIV25" s="0"/>
+      <c r="AIW25" s="0"/>
+      <c r="AIX25" s="0"/>
+      <c r="AIY25" s="0"/>
+      <c r="AIZ25" s="0"/>
+      <c r="AJA25" s="0"/>
+      <c r="AJB25" s="0"/>
+      <c r="AJC25" s="0"/>
+      <c r="AJD25" s="0"/>
+      <c r="AJE25" s="0"/>
+      <c r="AJF25" s="0"/>
+      <c r="AJG25" s="0"/>
+      <c r="AJH25" s="0"/>
+      <c r="AJI25" s="0"/>
+      <c r="AJJ25" s="0"/>
+      <c r="AJK25" s="0"/>
+      <c r="AJL25" s="0"/>
+      <c r="AJM25" s="0"/>
+      <c r="AJN25" s="0"/>
+      <c r="AJO25" s="0"/>
+      <c r="AJP25" s="0"/>
+      <c r="AJQ25" s="0"/>
+      <c r="AJR25" s="0"/>
+      <c r="AJS25" s="0"/>
+      <c r="AJT25" s="0"/>
+      <c r="AJU25" s="0"/>
+      <c r="AJV25" s="0"/>
+      <c r="AJW25" s="0"/>
+      <c r="AJX25" s="0"/>
+      <c r="AJY25" s="0"/>
+      <c r="AJZ25" s="0"/>
+      <c r="AKA25" s="0"/>
+      <c r="AKB25" s="0"/>
+      <c r="AKC25" s="0"/>
+      <c r="AKD25" s="0"/>
+      <c r="AKE25" s="0"/>
+      <c r="AKF25" s="0"/>
+      <c r="AKG25" s="0"/>
+      <c r="AKH25" s="0"/>
+      <c r="AKI25" s="0"/>
+      <c r="AKJ25" s="0"/>
+      <c r="AKK25" s="0"/>
+      <c r="AKL25" s="0"/>
+      <c r="AKM25" s="0"/>
+      <c r="AKN25" s="0"/>
+      <c r="AKO25" s="0"/>
+      <c r="AKP25" s="0"/>
+      <c r="AKQ25" s="0"/>
+      <c r="AKR25" s="0"/>
+      <c r="AKS25" s="0"/>
+      <c r="AKT25" s="0"/>
+      <c r="AKU25" s="0"/>
+      <c r="AKV25" s="0"/>
+      <c r="AKW25" s="0"/>
+      <c r="AKX25" s="0"/>
+      <c r="AKY25" s="0"/>
+      <c r="AKZ25" s="0"/>
+      <c r="ALA25" s="0"/>
+      <c r="ALB25" s="0"/>
+      <c r="ALC25" s="0"/>
+      <c r="ALD25" s="0"/>
+      <c r="ALE25" s="0"/>
+      <c r="ALF25" s="0"/>
+      <c r="ALG25" s="0"/>
+      <c r="ALH25" s="0"/>
+      <c r="ALI25" s="0"/>
+      <c r="ALJ25" s="0"/>
+      <c r="ALK25" s="0"/>
+      <c r="ALL25" s="0"/>
+      <c r="ALM25" s="0"/>
+      <c r="ALN25" s="0"/>
+      <c r="ALO25" s="0"/>
+      <c r="ALP25" s="0"/>
+      <c r="ALQ25" s="0"/>
+      <c r="ALR25" s="0"/>
+      <c r="ALS25" s="0"/>
+      <c r="ALT25" s="0"/>
+      <c r="ALU25" s="0"/>
+      <c r="ALV25" s="0"/>
+      <c r="ALW25" s="0"/>
+      <c r="ALX25" s="0"/>
+      <c r="ALY25" s="0"/>
+      <c r="ALZ25" s="0"/>
+      <c r="AMA25" s="0"/>
+      <c r="AMB25" s="0"/>
+      <c r="AMC25" s="0"/>
+      <c r="AMD25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="26" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="0"/>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27" t="s">
         <v>41</v>
       </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
-      <c r="K26" s="34"/>
+      <c r="K26" s="29"/>
+      <c r="AME26" s="29"/>
+      <c r="AMF26" s="29"/>
+      <c r="AMG26" s="0"/>
+      <c r="AMH26" s="0"/>
+      <c r="AMI26" s="0"/>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
@@ -24171,10 +23152,12 @@
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.379861111111111" right="0.379861111111111" top="0.645138888888889" bottom="0.645138888888889" header="0.379861111111111" footer="0.379861111111111"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
